--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_23_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_23_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1425119.851529085</v>
+        <v>1359902.678534756</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13681670.37127156</v>
+        <v>13681670.37127157</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5540337.397383539</v>
+        <v>5540337.397383538</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>47.064644061256</v>
+      </c>
+      <c r="H11" t="n">
         <v>194.7858037164783</v>
-      </c>
-      <c r="D11" t="n">
-        <v>37.27759294236494</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>124.5026918522179</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.7870511188911</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="X11" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>35.99956018623559</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.1503463929948</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100.7119265346752</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>17.56310000152686</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>26.07658229661151</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2.399361900490533</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="U13" t="n">
+        <v>72.09876705996126</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>194.7858037164783</v>
       </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
       <c r="X13" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.521159448015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>194.7858037164783</v>
       </c>
       <c r="I14" t="n">
-        <v>124.5026918522179</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>47.06464406125611</v>
+        <v>171.5673359134741</v>
       </c>
       <c r="U14" t="n">
         <v>194.7858037164783</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1688,16 +1688,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>44.12409327404446</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>149.5205473675921</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="V15" t="n">
         <v>194.7858037164783</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>63.63884678116758</v>
       </c>
       <c r="X15" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>85.42204333391419</v>
+        <v>153.3334690700845</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>125.36829602054</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>2.399361900490533</v>
       </c>
       <c r="R16" t="n">
-        <v>132.3156232778259</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>182.9686094022935</v>
       </c>
       <c r="U16" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.567335913474</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>124.5026918522179</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>9.7870511188911</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>158.2032809732317</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="U17" t="n">
         <v>194.7858037164783</v>
       </c>
       <c r="V17" t="n">
-        <v>194.7858037164783</v>
+        <v>73.86011568561153</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>81.91955034326459</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>100.7119265346752</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>26.07658229661151</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>171.567335913474</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>194.7858037164783</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>194.7858037164783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
     </row>
     <row r="19">
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>25.13337326690481</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>171.567335913474</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>194.7858037164783</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.577003821351317</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>171.567335913474</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>9.7870511188911</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>158.2032809732317</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="U20" t="n">
-        <v>194.7858037164784</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="V20" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>26.07658229661151</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="U21" t="n">
-        <v>194.7858037164784</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>84.90300263639568</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>171.567335913474</v>
       </c>
     </row>
     <row r="22">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>22.63695963373799</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,31 +2283,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>2.399361900490533</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>40.40834751342435</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>171.5673359134742</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
     </row>
     <row r="23">
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>171.567335913474</v>
       </c>
       <c r="E23" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>171.5673359134742</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>194.7858037164784</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="Y23" t="n">
-        <v>194.7858037164784</v>
+        <v>194.7858037164783</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2411,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.1503463929948</v>
       </c>
       <c r="H24" t="n">
-        <v>100.7119265346752</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>48.31597256108955</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>149.5205473675921</v>
+        <v>57.49429424864176</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="X24" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>67.80469316659554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2478,28 +2478,28 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>66.58570791329883</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>51.10106287704645</v>
       </c>
       <c r="H25" t="n">
-        <v>153.3334690700845</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>125.36829602054</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>22.63695963373799</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>194.7858037164784</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>161.7802847945829</v>
       </c>
       <c r="F26" t="n">
-        <v>161.780284794583</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="U26" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.1503463929948</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>85.51633610807457</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>9.340407223867748</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>36.85235073515761</v>
+        <v>125.515487585815</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>132.3156232778259</v>
       </c>
       <c r="S28" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="U29" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>149.5205473675921</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="U30" t="n">
-        <v>22.04678854588182</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>5.034152263606708</v>
       </c>
       <c r="W30" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="X30" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.9906650659137</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>125.36829602054</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>2.399361900490533</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>71.59481664300806</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="W31" t="n">
-        <v>22.73401136641429</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="E32" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>13.36405494024246</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>158.2032809732317</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>171.567335913474</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>194.7858037164784</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>100.7119265346752</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>149.5205473675921</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>107.9961326398764</v>
       </c>
       <c r="W33" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>59.18751180695913</v>
+        <v>194.7858037164784</v>
       </c>
     </row>
     <row r="34">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>125.36829602054</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2.399361900490533</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="W34" t="n">
-        <v>186.521159448015</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.7858037164782</v>
+        <v>58.7535015269847</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>171.567335913474</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="U35" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="X35" t="n">
-        <v>171.5673359134742</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>171.567335913474</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>46.30013104404407</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>26.07658229661151</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>149.5205473675921</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>169.1679740129834</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>36.8523507351576</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>2.399361900490533</v>
       </c>
       <c r="R37" t="n">
-        <v>132.3156232778259</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>194.7858037164784</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>161.780284794583</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>9.7870511188911</v>
       </c>
       <c r="S38" t="n">
-        <v>158.2032809732317</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3.577003821351194</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="X38" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>24.12227034883531</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>26.29830811883471</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>26.07658229661151</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="V39" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3663,28 +3663,28 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>23.39204586021606</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.9906650659137</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.3334690700845</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>22.63695963373799</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3705,19 +3705,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.399361900490533</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>132.3156232778259</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>64.39133335300792</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>3.577003821351194</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="H41" t="n">
-        <v>13.3640549402423</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>9.7870511188911</v>
       </c>
       <c r="S41" t="n">
         <v>158.2032809732317</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>118.2967034976843</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.1503463929948</v>
       </c>
       <c r="H42" t="n">
-        <v>100.7119265346752</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>48.31597256108955</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>26.07658229661151</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>149.5205473675921</v>
+        <v>121.2990696954008</v>
       </c>
       <c r="T42" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.63774967781175</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.7858037164783</v>
+        <v>169.1679740129835</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>37.27759294236503</v>
+      </c>
+      <c r="F44" t="n">
         <v>194.7858037164783</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>73.8601156856115</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="H44" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>124.5026918522179</v>
@@ -4027,7 +4027,7 @@
         <v>9.7870511188911</v>
       </c>
       <c r="S44" t="n">
-        <v>158.2032809732317</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4067,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>91.44470219307821</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>100.7119265346752</v>
       </c>
       <c r="I45" t="n">
-        <v>48.31597256108955</v>
+        <v>44.77882708218734</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>26.07658229661151</v>
       </c>
       <c r="S45" t="n">
-        <v>149.5205473675921</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4118,10 +4118,10 @@
         <v>194.7858037164783</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4146,19 +4146,19 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>17.13113248161074</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9906650659137</v>
       </c>
       <c r="H46" t="n">
-        <v>29.16921463596046</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>22.63695963373799</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>2.399361900490533</v>
       </c>
       <c r="R46" t="n">
-        <v>132.3156232778259</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>194.7858037164783</v>
       </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>375.7506304701074</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="C11" t="n">
-        <v>178.9972933827555</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="D11" t="n">
-        <v>141.3431590975384</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="E11" t="n">
-        <v>141.3431590975384</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="F11" t="n">
-        <v>141.3431590975384</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="G11" t="n">
-        <v>141.3431590975384</v>
+        <v>338.0964961848903</v>
       </c>
       <c r="H11" t="n">
         <v>141.3431590975384</v>
@@ -5065,28 +5065,28 @@
         <v>779.1432148659131</v>
       </c>
       <c r="R11" t="n">
-        <v>769.257304644811</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="S11" t="n">
-        <v>769.257304644811</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="T11" t="n">
-        <v>769.257304644811</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="U11" t="n">
-        <v>769.257304644811</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="V11" t="n">
-        <v>769.257304644811</v>
+        <v>582.3898777785613</v>
       </c>
       <c r="W11" t="n">
-        <v>769.257304644811</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="X11" t="n">
-        <v>572.5039675574592</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="Y11" t="n">
-        <v>375.7506304701074</v>
+        <v>385.6365406912095</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>385.6365406912095</v>
+        <v>752.8032327481237</v>
       </c>
       <c r="C12" t="n">
-        <v>211.1835114100824</v>
+        <v>578.3502034669967</v>
       </c>
       <c r="D12" t="n">
-        <v>211.1835114100824</v>
+        <v>578.3502034669967</v>
       </c>
       <c r="E12" t="n">
-        <v>51.94605640462694</v>
+        <v>419.1127484615412</v>
       </c>
       <c r="F12" t="n">
-        <v>15.58286429731826</v>
+        <v>272.5781904884262</v>
       </c>
       <c r="G12" t="n">
-        <v>15.58286429731826</v>
+        <v>135.0525880712597</v>
       </c>
       <c r="H12" t="n">
-        <v>15.58286429731826</v>
+        <v>33.32336934936559</v>
       </c>
       <c r="I12" t="n">
         <v>15.58286429731826</v>
@@ -5129,43 +5129,43 @@
         <v>189.1743298459987</v>
       </c>
       <c r="M12" t="n">
-        <v>356.942014271242</v>
+        <v>347.7606741641412</v>
       </c>
       <c r="N12" t="n">
-        <v>534.1343121508379</v>
+        <v>524.9529720437372</v>
       </c>
       <c r="O12" t="n">
-        <v>674.0108521867099</v>
+        <v>664.8295120796092</v>
       </c>
       <c r="P12" t="n">
-        <v>766.9410410558212</v>
+        <v>757.7597009487205</v>
       </c>
       <c r="Q12" t="n">
         <v>779.1432148659131</v>
       </c>
       <c r="R12" t="n">
-        <v>779.1432148659131</v>
+        <v>752.8032327481237</v>
       </c>
       <c r="S12" t="n">
-        <v>779.1432148659131</v>
+        <v>752.8032327481237</v>
       </c>
       <c r="T12" t="n">
-        <v>582.3898777785613</v>
+        <v>752.8032327481237</v>
       </c>
       <c r="U12" t="n">
-        <v>582.3898777785613</v>
+        <v>752.8032327481237</v>
       </c>
       <c r="V12" t="n">
-        <v>582.3898777785613</v>
+        <v>752.8032327481237</v>
       </c>
       <c r="W12" t="n">
-        <v>385.6365406912095</v>
+        <v>752.8032327481237</v>
       </c>
       <c r="X12" t="n">
-        <v>385.6365406912095</v>
+        <v>752.8032327481237</v>
       </c>
       <c r="Y12" t="n">
-        <v>385.6365406912095</v>
+        <v>752.8032327481237</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.58286429731826</v>
+        <v>310.3859053776217</v>
       </c>
       <c r="C13" t="n">
-        <v>15.58286429731826</v>
+        <v>310.3859053776217</v>
       </c>
       <c r="D13" t="n">
-        <v>15.58286429731826</v>
+        <v>310.3859053776217</v>
       </c>
       <c r="E13" t="n">
-        <v>15.58286429731826</v>
+        <v>162.4728117952286</v>
       </c>
       <c r="F13" t="n">
         <v>15.58286429731826</v>
@@ -5202,16 +5202,16 @@
         <v>15.58286429731826</v>
       </c>
       <c r="K13" t="n">
-        <v>98.93752671553057</v>
+        <v>108.5922173182255</v>
       </c>
       <c r="L13" t="n">
-        <v>273.4839111857788</v>
+        <v>283.1386017884737</v>
       </c>
       <c r="M13" t="n">
-        <v>466.3218568650923</v>
+        <v>304.9106071628686</v>
       </c>
       <c r="N13" t="n">
-        <v>659.1598025444058</v>
+        <v>497.7485528421821</v>
       </c>
       <c r="O13" t="n">
         <v>662.0638090614949</v>
@@ -5220,31 +5220,31 @@
         <v>779.1432148659131</v>
       </c>
       <c r="Q13" t="n">
-        <v>779.1432148659131</v>
+        <v>776.7196169866297</v>
       </c>
       <c r="R13" t="n">
-        <v>779.1432148659131</v>
+        <v>776.7196169866297</v>
       </c>
       <c r="S13" t="n">
-        <v>779.1432148659131</v>
+        <v>776.7196169866297</v>
       </c>
       <c r="T13" t="n">
-        <v>779.1432148659131</v>
+        <v>579.9662798992779</v>
       </c>
       <c r="U13" t="n">
-        <v>582.3898777785613</v>
+        <v>507.1392424649736</v>
       </c>
       <c r="V13" t="n">
-        <v>582.3898777785613</v>
+        <v>507.1392424649736</v>
       </c>
       <c r="W13" t="n">
-        <v>582.3898777785613</v>
+        <v>310.3859053776217</v>
       </c>
       <c r="X13" t="n">
-        <v>385.6365406912095</v>
+        <v>310.3859053776217</v>
       </c>
       <c r="Y13" t="n">
-        <v>197.231329127558</v>
+        <v>310.3859053776217</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>534.8498332722421</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="C14" t="n">
-        <v>534.8498332722421</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="D14" t="n">
-        <v>534.8498332722421</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="E14" t="n">
-        <v>534.8498332722421</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="F14" t="n">
-        <v>338.0964961848903</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="G14" t="n">
-        <v>338.0964961848903</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="H14" t="n">
-        <v>141.3431590975384</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I14" t="n">
         <v>15.58286429731826</v>
       </c>
       <c r="J14" t="n">
-        <v>23.72564365049351</v>
+        <v>23.72564365049361</v>
       </c>
       <c r="K14" t="n">
-        <v>86.6680773490865</v>
+        <v>86.66807734908649</v>
       </c>
       <c r="L14" t="n">
-        <v>201.6554939608416</v>
+        <v>201.6554939608418</v>
       </c>
       <c r="M14" t="n">
-        <v>361.2705880887434</v>
+        <v>361.2705880887436</v>
       </c>
       <c r="N14" t="n">
-        <v>528.082229690911</v>
+        <v>528.0822296909113</v>
       </c>
       <c r="O14" t="n">
-        <v>672.2624713871357</v>
+        <v>672.262471387136</v>
       </c>
       <c r="P14" t="n">
         <v>760.8159710881245</v>
@@ -5308,22 +5308,22 @@
         <v>779.1432148659133</v>
       </c>
       <c r="T14" t="n">
-        <v>731.6031703595939</v>
+        <v>605.8428755593737</v>
       </c>
       <c r="U14" t="n">
-        <v>534.8498332722421</v>
+        <v>409.0895384720219</v>
       </c>
       <c r="V14" t="n">
-        <v>534.8498332722421</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="W14" t="n">
-        <v>534.8498332722421</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="X14" t="n">
-        <v>534.8498332722421</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="Y14" t="n">
-        <v>534.8498332722421</v>
+        <v>212.3362013846701</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>234.6056847643488</v>
+        <v>321.3548772758888</v>
       </c>
       <c r="C15" t="n">
-        <v>60.15265548322176</v>
+        <v>321.3548772758888</v>
       </c>
       <c r="D15" t="n">
-        <v>60.15265548322176</v>
+        <v>321.3548772758888</v>
       </c>
       <c r="E15" t="n">
-        <v>15.58286429731826</v>
+        <v>162.1174222704333</v>
       </c>
       <c r="F15" t="n">
         <v>15.58286429731826</v>
@@ -5366,16 +5366,16 @@
         <v>189.1743298459987</v>
       </c>
       <c r="M15" t="n">
-        <v>356.9420142712421</v>
+        <v>347.7606741641412</v>
       </c>
       <c r="N15" t="n">
-        <v>534.134312150838</v>
+        <v>524.9529720437372</v>
       </c>
       <c r="O15" t="n">
-        <v>674.0108521867101</v>
+        <v>664.8295120796092</v>
       </c>
       <c r="P15" t="n">
-        <v>766.9410410558213</v>
+        <v>757.7597009487205</v>
       </c>
       <c r="Q15" t="n">
         <v>779.1432148659133</v>
@@ -5384,25 +5384,25 @@
         <v>779.1432148659133</v>
       </c>
       <c r="S15" t="n">
-        <v>628.1123589390525</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="T15" t="n">
-        <v>628.1123589390525</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="U15" t="n">
-        <v>628.1123589390525</v>
+        <v>582.3898777785614</v>
       </c>
       <c r="V15" t="n">
-        <v>431.3590218517006</v>
+        <v>385.6365406912096</v>
       </c>
       <c r="W15" t="n">
-        <v>431.3590218517006</v>
+        <v>321.3548772758888</v>
       </c>
       <c r="X15" t="n">
-        <v>234.6056847643488</v>
+        <v>321.3548772758888</v>
       </c>
       <c r="Y15" t="n">
-        <v>234.6056847643488</v>
+        <v>321.3548772758888</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>251.984395966133</v>
+        <v>591.902839812596</v>
       </c>
       <c r="C16" t="n">
-        <v>251.984395966133</v>
+        <v>591.902839812596</v>
       </c>
       <c r="D16" t="n">
-        <v>101.8677565537972</v>
+        <v>591.902839812596</v>
       </c>
       <c r="E16" t="n">
-        <v>101.8677565537972</v>
+        <v>443.9897462302029</v>
       </c>
       <c r="F16" t="n">
-        <v>101.8677565537972</v>
+        <v>297.0997987322925</v>
       </c>
       <c r="G16" t="n">
-        <v>101.8677565537972</v>
+        <v>297.0997987322925</v>
       </c>
       <c r="H16" t="n">
-        <v>15.58286429731826</v>
+        <v>142.2175067423081</v>
       </c>
       <c r="I16" t="n">
         <v>15.58286429731826</v>
@@ -5439,49 +5439,49 @@
         <v>15.58286429731826</v>
       </c>
       <c r="K16" t="n">
-        <v>108.5922173182255</v>
+        <v>54.60568281772521</v>
       </c>
       <c r="L16" t="n">
-        <v>122.2886472623348</v>
+        <v>229.1520672879734</v>
       </c>
       <c r="M16" t="n">
-        <v>315.1265929416483</v>
+        <v>421.9900129672869</v>
       </c>
       <c r="N16" t="n">
-        <v>507.9645386209618</v>
+        <v>614.8279586466005</v>
       </c>
       <c r="O16" t="n">
-        <v>672.2797948402746</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="P16" t="n">
         <v>779.1432148659133</v>
       </c>
       <c r="Q16" t="n">
-        <v>779.1432148659133</v>
+        <v>776.7196169866298</v>
       </c>
       <c r="R16" t="n">
-        <v>645.4910701408367</v>
+        <v>776.7196169866298</v>
       </c>
       <c r="S16" t="n">
-        <v>645.4910701408367</v>
+        <v>776.7196169866298</v>
       </c>
       <c r="T16" t="n">
-        <v>645.4910701408367</v>
+        <v>591.902839812596</v>
       </c>
       <c r="U16" t="n">
-        <v>448.7377330534848</v>
+        <v>591.902839812596</v>
       </c>
       <c r="V16" t="n">
-        <v>251.984395966133</v>
+        <v>591.902839812596</v>
       </c>
       <c r="W16" t="n">
-        <v>251.984395966133</v>
+        <v>591.902839812596</v>
       </c>
       <c r="X16" t="n">
-        <v>251.984395966133</v>
+        <v>591.902839812596</v>
       </c>
       <c r="Y16" t="n">
-        <v>251.984395966133</v>
+        <v>591.902839812596</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15.58286429731826</v>
+        <v>141.3431590975384</v>
       </c>
       <c r="C17" t="n">
-        <v>15.58286429731826</v>
+        <v>141.3431590975384</v>
       </c>
       <c r="D17" t="n">
-        <v>15.58286429731826</v>
+        <v>141.3431590975384</v>
       </c>
       <c r="E17" t="n">
-        <v>15.58286429731826</v>
+        <v>141.3431590975384</v>
       </c>
       <c r="F17" t="n">
-        <v>15.58286429731826</v>
+        <v>141.3431590975384</v>
       </c>
       <c r="G17" t="n">
-        <v>15.58286429731826</v>
+        <v>141.3431590975384</v>
       </c>
       <c r="H17" t="n">
-        <v>15.58286429731826</v>
+        <v>141.3431590975384</v>
       </c>
       <c r="I17" t="n">
         <v>15.58286429731826</v>
       </c>
       <c r="J17" t="n">
-        <v>23.72564365049351</v>
+        <v>23.72564365049361</v>
       </c>
       <c r="K17" t="n">
-        <v>86.6680773490865</v>
+        <v>86.66807734908649</v>
       </c>
       <c r="L17" t="n">
-        <v>201.6554939608416</v>
+        <v>201.6554939608414</v>
       </c>
       <c r="M17" t="n">
         <v>361.2705880887434</v>
@@ -5539,28 +5539,28 @@
         <v>779.1432148659131</v>
       </c>
       <c r="R17" t="n">
-        <v>779.1432148659131</v>
+        <v>769.257304644811</v>
       </c>
       <c r="S17" t="n">
-        <v>779.1432148659131</v>
+        <v>609.4560107324558</v>
       </c>
       <c r="T17" t="n">
-        <v>779.1432148659131</v>
+        <v>412.7026736451039</v>
       </c>
       <c r="U17" t="n">
-        <v>582.3898777785613</v>
+        <v>215.9493365577521</v>
       </c>
       <c r="V17" t="n">
-        <v>385.6365406912095</v>
+        <v>141.3431590975384</v>
       </c>
       <c r="W17" t="n">
-        <v>385.6365406912095</v>
+        <v>141.3431590975384</v>
       </c>
       <c r="X17" t="n">
-        <v>188.8832036038577</v>
+        <v>141.3431590975384</v>
       </c>
       <c r="Y17" t="n">
-        <v>188.8832036038577</v>
+        <v>141.3431590975384</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>359.29655857342</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="C18" t="n">
-        <v>276.5495380246679</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="D18" t="n">
-        <v>276.5495380246679</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="E18" t="n">
-        <v>117.3120830192124</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="F18" t="n">
-        <v>117.3120830192124</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G18" t="n">
-        <v>117.3120830192124</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H18" t="n">
         <v>15.58286429731826</v>
@@ -5597,10 +5597,10 @@
         <v>15.58286429731826</v>
       </c>
       <c r="K18" t="n">
-        <v>69.86404394325389</v>
+        <v>79.04538405035464</v>
       </c>
       <c r="L18" t="n">
-        <v>189.1743298459987</v>
+        <v>198.3556699530995</v>
       </c>
       <c r="M18" t="n">
         <v>356.942014271242</v>
@@ -5618,28 +5618,28 @@
         <v>779.1432148659131</v>
       </c>
       <c r="R18" t="n">
-        <v>752.8032327481237</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="S18" t="n">
-        <v>752.8032327481237</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="T18" t="n">
-        <v>752.8032327481237</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="U18" t="n">
-        <v>752.8032327481237</v>
+        <v>605.8428755593737</v>
       </c>
       <c r="V18" t="n">
-        <v>556.0498956607719</v>
+        <v>605.8428755593737</v>
       </c>
       <c r="W18" t="n">
-        <v>556.0498956607719</v>
+        <v>409.0895384720219</v>
       </c>
       <c r="X18" t="n">
-        <v>359.29655857342</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="Y18" t="n">
-        <v>359.29655857342</v>
+        <v>15.58286429731826</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.58286429731826</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="C19" t="n">
-        <v>15.58286429731826</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="D19" t="n">
-        <v>15.58286429731826</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="E19" t="n">
-        <v>15.58286429731826</v>
+        <v>40.97011002146454</v>
       </c>
       <c r="F19" t="n">
         <v>15.58286429731826</v>
@@ -5676,16 +5676,16 @@
         <v>15.58286429731826</v>
       </c>
       <c r="K19" t="n">
-        <v>98.37623153944577</v>
+        <v>108.5922173182255</v>
       </c>
       <c r="L19" t="n">
-        <v>112.0726614835551</v>
+        <v>122.2886472623348</v>
       </c>
       <c r="M19" t="n">
-        <v>304.9106071628686</v>
+        <v>315.1265929416483</v>
       </c>
       <c r="N19" t="n">
-        <v>497.7485528421821</v>
+        <v>507.9645386209618</v>
       </c>
       <c r="O19" t="n">
         <v>662.0638090614949</v>
@@ -5703,22 +5703,22 @@
         <v>779.1432148659131</v>
       </c>
       <c r="T19" t="n">
-        <v>605.8428755593737</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="U19" t="n">
-        <v>409.0895384720219</v>
+        <v>582.3898777785613</v>
       </c>
       <c r="V19" t="n">
-        <v>212.3362013846701</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="W19" t="n">
-        <v>15.58286429731826</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="X19" t="n">
-        <v>15.58286429731826</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.58286429731826</v>
+        <v>188.8832036038577</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.58286429731827</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="C20" t="n">
-        <v>15.58286429731827</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="D20" t="n">
-        <v>15.58286429731827</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="E20" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="F20" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G20" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H20" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I20" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="J20" t="n">
-        <v>23.72564365049357</v>
+        <v>23.72564365049362</v>
       </c>
       <c r="K20" t="n">
-        <v>86.66807734908707</v>
+        <v>86.6680773490865</v>
       </c>
       <c r="L20" t="n">
-        <v>201.655493960842</v>
+        <v>201.6554939608412</v>
       </c>
       <c r="M20" t="n">
-        <v>361.2705880887438</v>
+        <v>361.2705880887434</v>
       </c>
       <c r="N20" t="n">
-        <v>528.0822296909115</v>
+        <v>528.0822296909109</v>
       </c>
       <c r="O20" t="n">
-        <v>672.2624713871362</v>
+        <v>672.2624713871355</v>
       </c>
       <c r="P20" t="n">
-        <v>760.8159710881247</v>
+        <v>760.8159710881241</v>
       </c>
       <c r="Q20" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="R20" t="n">
-        <v>769.2573046448114</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="S20" t="n">
-        <v>609.4560107324561</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="T20" t="n">
-        <v>609.4560107324561</v>
+        <v>582.3898777785612</v>
       </c>
       <c r="U20" t="n">
-        <v>412.7026736451042</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="V20" t="n">
-        <v>215.9493365577523</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="W20" t="n">
-        <v>215.9493365577523</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="X20" t="n">
-        <v>215.9493365577523</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.19599947040041</v>
+        <v>385.6365406912095</v>
       </c>
     </row>
     <row r="21">
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>470.2892869371401</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="C21" t="n">
-        <v>470.2892869371401</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="D21" t="n">
-        <v>321.3548772758888</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="E21" t="n">
-        <v>162.1174222704333</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="F21" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G21" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H21" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I21" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="J21" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="K21" t="n">
-        <v>69.86404394325389</v>
+        <v>69.86404394325388</v>
       </c>
       <c r="L21" t="n">
         <v>189.1743298459987</v>
@@ -5843,40 +5843,40 @@
         <v>347.7606741641412</v>
       </c>
       <c r="N21" t="n">
-        <v>534.1343121508382</v>
+        <v>524.9529720437372</v>
       </c>
       <c r="O21" t="n">
-        <v>674.0108521867103</v>
+        <v>664.8295120796092</v>
       </c>
       <c r="P21" t="n">
-        <v>766.9410410558215</v>
+        <v>757.7597009487205</v>
       </c>
       <c r="Q21" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="R21" t="n">
-        <v>752.8032327481241</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="S21" t="n">
-        <v>752.8032327481241</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="T21" t="n">
-        <v>752.8032327481241</v>
+        <v>582.3898777785612</v>
       </c>
       <c r="U21" t="n">
-        <v>556.0498956607721</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="V21" t="n">
-        <v>556.0498956607721</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="W21" t="n">
-        <v>470.2892869371401</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="X21" t="n">
-        <v>470.2892869371401</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="Y21" t="n">
-        <v>470.2892869371401</v>
+        <v>15.58286429731826</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.58286429731827</v>
+        <v>357.5013024292155</v>
       </c>
       <c r="C22" t="n">
-        <v>15.58286429731827</v>
+        <v>188.5651195013085</v>
       </c>
       <c r="D22" t="n">
-        <v>15.58286429731827</v>
+        <v>38.44848008897279</v>
       </c>
       <c r="E22" t="n">
-        <v>15.58286429731827</v>
+        <v>38.44848008897279</v>
       </c>
       <c r="F22" t="n">
-        <v>15.58286429731827</v>
+        <v>38.44848008897279</v>
       </c>
       <c r="G22" t="n">
-        <v>15.58286429731827</v>
+        <v>38.44848008897279</v>
       </c>
       <c r="H22" t="n">
-        <v>15.58286429731827</v>
+        <v>38.44848008897279</v>
       </c>
       <c r="I22" t="n">
-        <v>15.58286429731827</v>
+        <v>38.44848008897279</v>
       </c>
       <c r="J22" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="K22" t="n">
         <v>108.5922173182255</v>
       </c>
       <c r="L22" t="n">
-        <v>283.1386017884737</v>
+        <v>283.1386017884736</v>
       </c>
       <c r="M22" t="n">
-        <v>304.9106071628689</v>
+        <v>475.9765474677871</v>
       </c>
       <c r="N22" t="n">
-        <v>497.7485528421824</v>
+        <v>668.8144931471005</v>
       </c>
       <c r="O22" t="n">
-        <v>662.0638090614952</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="P22" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="Q22" t="n">
-        <v>779.1432148659135</v>
+        <v>776.7196169866295</v>
       </c>
       <c r="R22" t="n">
-        <v>779.1432148659135</v>
+        <v>735.9031043468069</v>
       </c>
       <c r="S22" t="n">
-        <v>779.1432148659135</v>
+        <v>735.9031043468069</v>
       </c>
       <c r="T22" t="n">
-        <v>582.3898777785616</v>
+        <v>735.9031043468069</v>
       </c>
       <c r="U22" t="n">
-        <v>409.0895384720221</v>
+        <v>735.9031043468069</v>
       </c>
       <c r="V22" t="n">
-        <v>212.3362013846702</v>
+        <v>735.9031043468069</v>
       </c>
       <c r="W22" t="n">
-        <v>212.3362013846702</v>
+        <v>735.9031043468069</v>
       </c>
       <c r="X22" t="n">
-        <v>15.58286429731827</v>
+        <v>735.9031043468069</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.58286429731827</v>
+        <v>539.1497672594552</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>385.6365406912097</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="C23" t="n">
-        <v>385.6365406912097</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="D23" t="n">
-        <v>385.6365406912097</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="E23" t="n">
-        <v>188.8832036038579</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="F23" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G23" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H23" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I23" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="J23" t="n">
-        <v>23.7256436504936</v>
+        <v>23.72564365049351</v>
       </c>
       <c r="K23" t="n">
-        <v>86.66807734908657</v>
+        <v>86.6680773490865</v>
       </c>
       <c r="L23" t="n">
         <v>201.6554939608416</v>
       </c>
       <c r="M23" t="n">
-        <v>361.2705880887436</v>
+        <v>361.2705880887434</v>
       </c>
       <c r="N23" t="n">
-        <v>528.0822296909113</v>
+        <v>528.0822296909109</v>
       </c>
       <c r="O23" t="n">
-        <v>672.262471387136</v>
+        <v>672.2624713871356</v>
       </c>
       <c r="P23" t="n">
-        <v>760.8159710881247</v>
+        <v>760.8159710881243</v>
       </c>
       <c r="Q23" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="R23" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="S23" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="T23" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="U23" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="V23" t="n">
-        <v>779.1432148659135</v>
+        <v>582.3898777785613</v>
       </c>
       <c r="W23" t="n">
-        <v>779.1432148659135</v>
+        <v>582.3898777785613</v>
       </c>
       <c r="X23" t="n">
-        <v>582.3898777785616</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="Y23" t="n">
-        <v>385.6365406912097</v>
+        <v>188.8832036038577</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.1160957071817</v>
+        <v>327.5614959956117</v>
       </c>
       <c r="C24" t="n">
-        <v>166.1160957071817</v>
+        <v>153.1084667144847</v>
       </c>
       <c r="D24" t="n">
-        <v>166.1160957071817</v>
+        <v>153.1084667144847</v>
       </c>
       <c r="E24" t="n">
-        <v>166.1160957071817</v>
+        <v>153.1084667144847</v>
       </c>
       <c r="F24" t="n">
-        <v>166.1160957071817</v>
+        <v>153.1084667144847</v>
       </c>
       <c r="G24" t="n">
-        <v>166.1160957071817</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H24" t="n">
-        <v>64.38687698528751</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I24" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="J24" t="n">
-        <v>15.58286429731827</v>
+        <v>24.76420440441902</v>
       </c>
       <c r="K24" t="n">
-        <v>69.86404394325389</v>
+        <v>79.04538405035464</v>
       </c>
       <c r="L24" t="n">
-        <v>189.1743298459987</v>
+        <v>198.3556699530995</v>
       </c>
       <c r="M24" t="n">
-        <v>347.7606741641412</v>
+        <v>356.942014271242</v>
       </c>
       <c r="N24" t="n">
-        <v>524.9529720437372</v>
+        <v>534.1343121508379</v>
       </c>
       <c r="O24" t="n">
-        <v>664.8295120796092</v>
+        <v>674.0108521867099</v>
       </c>
       <c r="P24" t="n">
-        <v>766.9410410558215</v>
+        <v>766.9410410558212</v>
       </c>
       <c r="Q24" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="R24" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="S24" t="n">
-        <v>628.1123589390527</v>
+        <v>721.0681701703154</v>
       </c>
       <c r="T24" t="n">
-        <v>628.1123589390527</v>
+        <v>524.3148330829636</v>
       </c>
       <c r="U24" t="n">
-        <v>628.1123589390527</v>
+        <v>524.3148330829636</v>
       </c>
       <c r="V24" t="n">
-        <v>431.3590218517008</v>
+        <v>524.3148330829636</v>
       </c>
       <c r="W24" t="n">
-        <v>431.3590218517008</v>
+        <v>327.5614959956117</v>
       </c>
       <c r="X24" t="n">
-        <v>234.6056847643489</v>
+        <v>327.5614959956117</v>
       </c>
       <c r="Y24" t="n">
-        <v>166.1160957071817</v>
+        <v>327.5614959956117</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>385.6365406912097</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="C25" t="n">
-        <v>385.6365406912097</v>
+        <v>216.7003577633025</v>
       </c>
       <c r="D25" t="n">
-        <v>318.3782498696958</v>
+        <v>216.7003577633025</v>
       </c>
       <c r="E25" t="n">
-        <v>170.4651562873027</v>
+        <v>216.7003577633025</v>
       </c>
       <c r="F25" t="n">
-        <v>170.4651562873027</v>
+        <v>216.7003577633025</v>
       </c>
       <c r="G25" t="n">
-        <v>170.4651562873027</v>
+        <v>165.0831225339627</v>
       </c>
       <c r="H25" t="n">
-        <v>15.58286429731827</v>
+        <v>165.0831225339627</v>
       </c>
       <c r="I25" t="n">
-        <v>15.58286429731827</v>
+        <v>38.4484800889728</v>
       </c>
       <c r="J25" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="K25" t="n">
-        <v>108.5922173182255</v>
+        <v>98.37623153944577</v>
       </c>
       <c r="L25" t="n">
-        <v>283.1386017884737</v>
+        <v>112.0726614835551</v>
       </c>
       <c r="M25" t="n">
-        <v>304.9106071628689</v>
+        <v>304.9106071628686</v>
       </c>
       <c r="N25" t="n">
-        <v>497.7485528421824</v>
+        <v>497.7485528421821</v>
       </c>
       <c r="O25" t="n">
-        <v>662.0638090614952</v>
+        <v>662.0638090614949</v>
       </c>
       <c r="P25" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="Q25" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="R25" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="S25" t="n">
-        <v>779.1432148659135</v>
+        <v>582.3898777785613</v>
       </c>
       <c r="T25" t="n">
-        <v>779.1432148659135</v>
+        <v>582.3898777785613</v>
       </c>
       <c r="U25" t="n">
-        <v>582.3898777785616</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="V25" t="n">
-        <v>582.3898777785616</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="W25" t="n">
-        <v>385.6365406912097</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="X25" t="n">
-        <v>385.6365406912097</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="Y25" t="n">
-        <v>385.6365406912097</v>
+        <v>385.6365406912095</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>375.7506304701074</v>
       </c>
       <c r="D26" t="n">
-        <v>178.9972933827556</v>
+        <v>375.7506304701074</v>
       </c>
       <c r="E26" t="n">
-        <v>178.9972933827556</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="F26" t="n">
-        <v>15.58286429731826</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="G26" t="n">
-        <v>15.58286429731826</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="H26" t="n">
         <v>15.58286429731826</v>
@@ -6226,52 +6226,52 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J26" t="n">
-        <v>23.72564365049359</v>
+        <v>23.72564365049334</v>
       </c>
       <c r="K26" t="n">
-        <v>86.66807734908647</v>
+        <v>86.66807734908623</v>
       </c>
       <c r="L26" t="n">
-        <v>201.6554939608415</v>
+        <v>201.6554939608413</v>
       </c>
       <c r="M26" t="n">
-        <v>361.2705880887432</v>
+        <v>361.2705880887433</v>
       </c>
       <c r="N26" t="n">
-        <v>528.0822296909108</v>
+        <v>528.0822296909109</v>
       </c>
       <c r="O26" t="n">
-        <v>672.2624713871355</v>
+        <v>672.2624713871356</v>
       </c>
       <c r="P26" t="n">
-        <v>760.8159710881241</v>
+        <v>760.8159710881243</v>
       </c>
       <c r="Q26" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="R26" t="n">
-        <v>769.2573046448108</v>
+        <v>769.257304644811</v>
       </c>
       <c r="S26" t="n">
-        <v>769.2573046448108</v>
+        <v>769.257304644811</v>
       </c>
       <c r="T26" t="n">
-        <v>769.2573046448108</v>
+        <v>572.5039675574592</v>
       </c>
       <c r="U26" t="n">
-        <v>572.5039675574591</v>
+        <v>375.7506304701074</v>
       </c>
       <c r="V26" t="n">
-        <v>572.5039675574591</v>
+        <v>375.7506304701074</v>
       </c>
       <c r="W26" t="n">
-        <v>572.5039675574591</v>
+        <v>375.7506304701074</v>
       </c>
       <c r="X26" t="n">
-        <v>572.5039675574591</v>
+        <v>375.7506304701074</v>
       </c>
       <c r="Y26" t="n">
-        <v>572.5039675574591</v>
+        <v>375.7506304701074</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>153.1084667144847</v>
+        <v>584.5878957280556</v>
       </c>
       <c r="C27" t="n">
-        <v>153.1084667144847</v>
+        <v>410.1348664469286</v>
       </c>
       <c r="D27" t="n">
-        <v>153.1084667144847</v>
+        <v>261.2004567856774</v>
       </c>
       <c r="E27" t="n">
-        <v>153.1084667144847</v>
+        <v>101.9630017802219</v>
       </c>
       <c r="F27" t="n">
-        <v>153.1084667144847</v>
+        <v>101.9630017802219</v>
       </c>
       <c r="G27" t="n">
-        <v>15.58286429731826</v>
+        <v>101.9630017802219</v>
       </c>
       <c r="H27" t="n">
         <v>15.58286429731826</v>
@@ -6305,52 +6305,52 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J27" t="n">
-        <v>15.58286429731826</v>
+        <v>24.76420440441902</v>
       </c>
       <c r="K27" t="n">
-        <v>69.86404394325388</v>
+        <v>79.04538405035464</v>
       </c>
       <c r="L27" t="n">
-        <v>189.1743298459987</v>
+        <v>198.3556699530995</v>
       </c>
       <c r="M27" t="n">
-        <v>347.7606741641412</v>
+        <v>356.942014271242</v>
       </c>
       <c r="N27" t="n">
-        <v>534.1343121508377</v>
+        <v>534.1343121508379</v>
       </c>
       <c r="O27" t="n">
-        <v>674.0108521867097</v>
+        <v>674.0108521867099</v>
       </c>
       <c r="P27" t="n">
-        <v>766.941041055821</v>
+        <v>766.9410410558212</v>
       </c>
       <c r="Q27" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="R27" t="n">
-        <v>752.8032327481235</v>
+        <v>752.8032327481237</v>
       </c>
       <c r="S27" t="n">
-        <v>752.8032327481235</v>
+        <v>752.8032327481237</v>
       </c>
       <c r="T27" t="n">
-        <v>743.3684779765399</v>
+        <v>752.8032327481237</v>
       </c>
       <c r="U27" t="n">
-        <v>743.3684779765399</v>
+        <v>752.8032327481237</v>
       </c>
       <c r="V27" t="n">
-        <v>743.3684779765399</v>
+        <v>752.8032327481237</v>
       </c>
       <c r="W27" t="n">
-        <v>546.6151408891882</v>
+        <v>752.8032327481237</v>
       </c>
       <c r="X27" t="n">
-        <v>349.8618038018365</v>
+        <v>752.8032327481237</v>
       </c>
       <c r="Y27" t="n">
-        <v>153.1084667144847</v>
+        <v>752.8032327481237</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.80746099949766</v>
+        <v>461.4190074313134</v>
       </c>
       <c r="C28" t="n">
-        <v>52.80746099949766</v>
+        <v>292.4828245034065</v>
       </c>
       <c r="D28" t="n">
-        <v>52.80746099949766</v>
+        <v>142.3661850910708</v>
       </c>
       <c r="E28" t="n">
-        <v>52.80746099949766</v>
+        <v>142.3661850910708</v>
       </c>
       <c r="F28" t="n">
-        <v>52.80746099949766</v>
+        <v>142.3661850910708</v>
       </c>
       <c r="G28" t="n">
-        <v>52.80746099949766</v>
+        <v>142.3661850910708</v>
       </c>
       <c r="H28" t="n">
         <v>15.58286429731826</v>
@@ -6387,49 +6387,49 @@
         <v>15.58286429731826</v>
       </c>
       <c r="K28" t="n">
-        <v>54.60568281772507</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="L28" t="n">
-        <v>229.1520672879733</v>
+        <v>190.1292487675665</v>
       </c>
       <c r="M28" t="n">
-        <v>421.9900129672867</v>
+        <v>382.9671944468799</v>
       </c>
       <c r="N28" t="n">
-        <v>614.8279586466001</v>
+        <v>575.8051401261935</v>
       </c>
       <c r="O28" t="n">
-        <v>779.1432148659129</v>
+        <v>740.1203963455063</v>
       </c>
       <c r="P28" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="Q28" t="n">
-        <v>776.7196169866295</v>
+        <v>776.7196169866297</v>
       </c>
       <c r="R28" t="n">
-        <v>643.0674722615529</v>
+        <v>643.0674722615531</v>
       </c>
       <c r="S28" t="n">
-        <v>446.3141351742012</v>
+        <v>643.0674722615531</v>
       </c>
       <c r="T28" t="n">
-        <v>446.3141351742012</v>
+        <v>643.0674722615531</v>
       </c>
       <c r="U28" t="n">
-        <v>249.5607980868494</v>
+        <v>643.0674722615531</v>
       </c>
       <c r="V28" t="n">
-        <v>249.5607980868494</v>
+        <v>643.0674722615531</v>
       </c>
       <c r="W28" t="n">
-        <v>52.80746099949766</v>
+        <v>643.0674722615531</v>
       </c>
       <c r="X28" t="n">
-        <v>52.80746099949766</v>
+        <v>643.0674722615531</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.80746099949766</v>
+        <v>643.0674722615531</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>409.0895384720218</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="C29" t="n">
-        <v>212.33620138467</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="D29" t="n">
-        <v>212.33620138467</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="E29" t="n">
-        <v>212.33620138467</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="F29" t="n">
-        <v>15.58286429731826</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="G29" t="n">
-        <v>15.58286429731826</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="H29" t="n">
         <v>15.58286429731826</v>
@@ -6463,52 +6463,52 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J29" t="n">
-        <v>23.72564365049311</v>
+        <v>23.72564365049359</v>
       </c>
       <c r="K29" t="n">
-        <v>86.668077349086</v>
+        <v>86.66807734908649</v>
       </c>
       <c r="L29" t="n">
-        <v>201.6554939608411</v>
+        <v>201.6554939608415</v>
       </c>
       <c r="M29" t="n">
-        <v>361.2705880887431</v>
+        <v>361.2705880887436</v>
       </c>
       <c r="N29" t="n">
-        <v>528.0822296909107</v>
+        <v>528.0822296909112</v>
       </c>
       <c r="O29" t="n">
-        <v>672.2624713871354</v>
+        <v>672.2624713871359</v>
       </c>
       <c r="P29" t="n">
-        <v>760.8159710881241</v>
+        <v>760.8159710881246</v>
       </c>
       <c r="Q29" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="R29" t="n">
-        <v>769.2573046448108</v>
+        <v>769.257304644811</v>
       </c>
       <c r="S29" t="n">
-        <v>769.2573046448108</v>
+        <v>769.257304644811</v>
       </c>
       <c r="T29" t="n">
-        <v>769.2573046448108</v>
+        <v>572.5039675574592</v>
       </c>
       <c r="U29" t="n">
-        <v>572.5039675574591</v>
+        <v>375.7506304701074</v>
       </c>
       <c r="V29" t="n">
-        <v>572.5039675574591</v>
+        <v>375.7506304701074</v>
       </c>
       <c r="W29" t="n">
-        <v>572.5039675574591</v>
+        <v>375.7506304701074</v>
       </c>
       <c r="X29" t="n">
-        <v>409.0895384720218</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="Y29" t="n">
-        <v>409.0895384720218</v>
+        <v>212.3362013846701</v>
       </c>
     </row>
     <row r="30">
@@ -6542,52 +6542,52 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J30" t="n">
-        <v>15.58286429731826</v>
+        <v>24.76420440441902</v>
       </c>
       <c r="K30" t="n">
-        <v>69.86404394325388</v>
+        <v>79.04538405035464</v>
       </c>
       <c r="L30" t="n">
-        <v>189.1743298459987</v>
+        <v>198.3556699530995</v>
       </c>
       <c r="M30" t="n">
-        <v>356.9420142712418</v>
+        <v>356.942014271242</v>
       </c>
       <c r="N30" t="n">
-        <v>534.1343121508377</v>
+        <v>534.1343121508379</v>
       </c>
       <c r="O30" t="n">
-        <v>674.0108521867097</v>
+        <v>674.0108521867099</v>
       </c>
       <c r="P30" t="n">
-        <v>766.941041055821</v>
+        <v>766.9410410558212</v>
       </c>
       <c r="Q30" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="R30" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="S30" t="n">
-        <v>628.1123589390521</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="T30" t="n">
-        <v>431.3590218517004</v>
+        <v>582.3898777785613</v>
       </c>
       <c r="U30" t="n">
-        <v>409.0895384720218</v>
+        <v>582.3898777785613</v>
       </c>
       <c r="V30" t="n">
-        <v>409.0895384720218</v>
+        <v>577.3048754920899</v>
       </c>
       <c r="W30" t="n">
-        <v>212.33620138467</v>
+        <v>380.5515384047381</v>
       </c>
       <c r="X30" t="n">
-        <v>15.58286429731826</v>
+        <v>183.7982013173863</v>
       </c>
       <c r="Y30" t="n">
-        <v>15.58286429731826</v>
+        <v>183.7982013173863</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.4959578797114</v>
+        <v>310.894946202827</v>
       </c>
       <c r="C31" t="n">
-        <v>163.4959578797114</v>
+        <v>310.894946202827</v>
       </c>
       <c r="D31" t="n">
-        <v>163.4959578797114</v>
+        <v>310.894946202827</v>
       </c>
       <c r="E31" t="n">
-        <v>15.58286429731826</v>
+        <v>310.894946202827</v>
       </c>
       <c r="F31" t="n">
-        <v>15.58286429731826</v>
+        <v>310.894946202827</v>
       </c>
       <c r="G31" t="n">
-        <v>15.58286429731826</v>
+        <v>142.2175067423081</v>
       </c>
       <c r="H31" t="n">
-        <v>15.58286429731826</v>
+        <v>142.2175067423081</v>
       </c>
       <c r="I31" t="n">
         <v>15.58286429731826</v>
@@ -6624,49 +6624,49 @@
         <v>15.58286429731826</v>
       </c>
       <c r="K31" t="n">
-        <v>15.58286429731826</v>
+        <v>108.5922173182255</v>
       </c>
       <c r="L31" t="n">
-        <v>190.1292487675665</v>
+        <v>229.1520672879733</v>
       </c>
       <c r="M31" t="n">
-        <v>382.9671944468799</v>
+        <v>421.9900129672868</v>
       </c>
       <c r="N31" t="n">
-        <v>575.8051401261934</v>
+        <v>614.8279586466003</v>
       </c>
       <c r="O31" t="n">
-        <v>740.1203963455062</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="P31" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="Q31" t="n">
-        <v>776.7196169866295</v>
+        <v>776.7196169866297</v>
       </c>
       <c r="R31" t="n">
-        <v>776.7196169866295</v>
+        <v>704.4016203775307</v>
       </c>
       <c r="S31" t="n">
-        <v>776.7196169866295</v>
+        <v>704.4016203775307</v>
       </c>
       <c r="T31" t="n">
-        <v>579.9662798992778</v>
+        <v>704.4016203775307</v>
       </c>
       <c r="U31" t="n">
-        <v>579.9662798992778</v>
+        <v>704.4016203775307</v>
       </c>
       <c r="V31" t="n">
-        <v>383.212942811926</v>
+        <v>507.6482832901788</v>
       </c>
       <c r="W31" t="n">
-        <v>360.2492949670631</v>
+        <v>507.6482832901788</v>
       </c>
       <c r="X31" t="n">
-        <v>360.2492949670631</v>
+        <v>310.894946202827</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.4959578797114</v>
+        <v>310.894946202827</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.33620138467</v>
+        <v>422.5885838662065</v>
       </c>
       <c r="C32" t="n">
-        <v>212.33620138467</v>
+        <v>225.8352467788545</v>
       </c>
       <c r="D32" t="n">
-        <v>212.33620138467</v>
+        <v>29.08190969150257</v>
       </c>
       <c r="E32" t="n">
-        <v>15.58286429731826</v>
+        <v>29.08190969150257</v>
       </c>
       <c r="F32" t="n">
-        <v>15.58286429731826</v>
+        <v>29.08190969150257</v>
       </c>
       <c r="G32" t="n">
-        <v>15.58286429731826</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="H32" t="n">
-        <v>15.58286429731826</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="I32" t="n">
-        <v>15.58286429731826</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="J32" t="n">
-        <v>23.72564365049359</v>
+        <v>23.72564365049357</v>
       </c>
       <c r="K32" t="n">
-        <v>86.66807734908647</v>
+        <v>86.66807734908707</v>
       </c>
       <c r="L32" t="n">
-        <v>201.6554939608415</v>
+        <v>201.6554939608421</v>
       </c>
       <c r="M32" t="n">
-        <v>361.2705880887435</v>
+        <v>361.2705880887443</v>
       </c>
       <c r="N32" t="n">
-        <v>528.0822296909112</v>
+        <v>528.0822296909118</v>
       </c>
       <c r="O32" t="n">
-        <v>672.2624713871359</v>
+        <v>672.2624713871364</v>
       </c>
       <c r="P32" t="n">
-        <v>760.8159710881241</v>
+        <v>760.8159710881249</v>
       </c>
       <c r="Q32" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659137</v>
       </c>
       <c r="R32" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659137</v>
       </c>
       <c r="S32" t="n">
-        <v>779.1432148659129</v>
+        <v>619.3419209535584</v>
       </c>
       <c r="T32" t="n">
-        <v>779.1432148659129</v>
+        <v>619.3419209535584</v>
       </c>
       <c r="U32" t="n">
-        <v>582.3898777785612</v>
+        <v>619.3419209535584</v>
       </c>
       <c r="V32" t="n">
-        <v>582.3898777785612</v>
+        <v>619.3419209535584</v>
       </c>
       <c r="W32" t="n">
-        <v>409.0895384720218</v>
+        <v>619.3419209535584</v>
       </c>
       <c r="X32" t="n">
-        <v>409.0895384720218</v>
+        <v>619.3419209535584</v>
       </c>
       <c r="Y32" t="n">
-        <v>409.0895384720218</v>
+        <v>422.5885838662065</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>174.8203193027738</v>
+        <v>276.5495380246679</v>
       </c>
       <c r="C33" t="n">
-        <v>174.8203193027738</v>
+        <v>276.5495380246679</v>
       </c>
       <c r="D33" t="n">
-        <v>174.8203193027738</v>
+        <v>276.5495380246679</v>
       </c>
       <c r="E33" t="n">
-        <v>15.58286429731826</v>
+        <v>117.3120830192124</v>
       </c>
       <c r="F33" t="n">
-        <v>15.58286429731826</v>
+        <v>117.3120830192124</v>
       </c>
       <c r="G33" t="n">
-        <v>15.58286429731826</v>
+        <v>117.3120830192124</v>
       </c>
       <c r="H33" t="n">
-        <v>15.58286429731826</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="I33" t="n">
-        <v>15.58286429731826</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="J33" t="n">
-        <v>15.58286429731826</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="K33" t="n">
-        <v>69.86404394325388</v>
+        <v>69.8640439432539</v>
       </c>
       <c r="L33" t="n">
-        <v>189.1743298459987</v>
+        <v>189.1743298459988</v>
       </c>
       <c r="M33" t="n">
-        <v>347.7606741641412</v>
+        <v>356.9420142712426</v>
       </c>
       <c r="N33" t="n">
-        <v>524.9529720437372</v>
+        <v>534.1343121508385</v>
       </c>
       <c r="O33" t="n">
-        <v>664.8295120796092</v>
+        <v>674.0108521867105</v>
       </c>
       <c r="P33" t="n">
-        <v>757.7597009487205</v>
+        <v>766.9410410558218</v>
       </c>
       <c r="Q33" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659137</v>
       </c>
       <c r="R33" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659137</v>
       </c>
       <c r="S33" t="n">
-        <v>628.1123589390521</v>
+        <v>779.1432148659137</v>
       </c>
       <c r="T33" t="n">
-        <v>628.1123589390521</v>
+        <v>779.1432148659137</v>
       </c>
       <c r="U33" t="n">
-        <v>431.3590218517004</v>
+        <v>582.3898777785618</v>
       </c>
       <c r="V33" t="n">
-        <v>431.3590218517004</v>
+        <v>473.3028751120199</v>
       </c>
       <c r="W33" t="n">
-        <v>234.6056847643486</v>
+        <v>473.3028751120199</v>
       </c>
       <c r="X33" t="n">
-        <v>234.6056847643486</v>
+        <v>473.3028751120199</v>
       </c>
       <c r="Y33" t="n">
-        <v>174.8203193027738</v>
+        <v>276.5495380246679</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.58286429731826</v>
+        <v>142.2175067423082</v>
       </c>
       <c r="C34" t="n">
-        <v>15.58286429731826</v>
+        <v>142.2175067423082</v>
       </c>
       <c r="D34" t="n">
-        <v>15.58286429731826</v>
+        <v>142.2175067423082</v>
       </c>
       <c r="E34" t="n">
-        <v>15.58286429731826</v>
+        <v>142.2175067423082</v>
       </c>
       <c r="F34" t="n">
-        <v>15.58286429731826</v>
+        <v>142.2175067423082</v>
       </c>
       <c r="G34" t="n">
-        <v>15.58286429731826</v>
+        <v>142.2175067423082</v>
       </c>
       <c r="H34" t="n">
-        <v>15.58286429731826</v>
+        <v>142.2175067423082</v>
       </c>
       <c r="I34" t="n">
-        <v>15.58286429731826</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="J34" t="n">
-        <v>15.58286429731826</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="K34" t="n">
-        <v>98.93752671553057</v>
+        <v>108.5922173182255</v>
       </c>
       <c r="L34" t="n">
-        <v>273.4839111857788</v>
+        <v>283.1386017884737</v>
       </c>
       <c r="M34" t="n">
-        <v>466.3218568650922</v>
+        <v>472.6126274850665</v>
       </c>
       <c r="N34" t="n">
-        <v>659.1598025444056</v>
+        <v>497.7485528421827</v>
       </c>
       <c r="O34" t="n">
-        <v>662.0638090614947</v>
+        <v>662.0638090614955</v>
       </c>
       <c r="P34" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659137</v>
       </c>
       <c r="Q34" t="n">
-        <v>779.1432148659129</v>
+        <v>776.7196169866303</v>
       </c>
       <c r="R34" t="n">
-        <v>779.1432148659129</v>
+        <v>776.7196169866303</v>
       </c>
       <c r="S34" t="n">
-        <v>779.1432148659129</v>
+        <v>776.7196169866303</v>
       </c>
       <c r="T34" t="n">
-        <v>582.3898777785612</v>
+        <v>776.7196169866303</v>
       </c>
       <c r="U34" t="n">
-        <v>582.3898777785612</v>
+        <v>579.9662798992783</v>
       </c>
       <c r="V34" t="n">
-        <v>582.3898777785612</v>
+        <v>383.2129428119264</v>
       </c>
       <c r="W34" t="n">
-        <v>393.9846662149097</v>
+        <v>383.2129428119264</v>
       </c>
       <c r="X34" t="n">
-        <v>393.9846662149097</v>
+        <v>383.2129428119264</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.231329127558</v>
+        <v>323.8659715725479</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.58286429731827</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="C35" t="n">
-        <v>15.58286429731827</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="D35" t="n">
-        <v>15.58286429731827</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="E35" t="n">
-        <v>15.58286429731827</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="F35" t="n">
-        <v>15.58286429731827</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="G35" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H35" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I35" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="J35" t="n">
-        <v>23.72564365049357</v>
+        <v>23.72564365049361</v>
       </c>
       <c r="K35" t="n">
-        <v>86.66807734908707</v>
+        <v>86.66807734908649</v>
       </c>
       <c r="L35" t="n">
-        <v>201.655493960842</v>
+        <v>201.6554939608415</v>
       </c>
       <c r="M35" t="n">
-        <v>361.2705880887438</v>
+        <v>361.2705880887434</v>
       </c>
       <c r="N35" t="n">
-        <v>528.0822296909115</v>
+        <v>528.0822296909109</v>
       </c>
       <c r="O35" t="n">
-        <v>672.2624713871362</v>
+        <v>672.2624713871356</v>
       </c>
       <c r="P35" t="n">
-        <v>760.8159710881247</v>
+        <v>760.8159710881243</v>
       </c>
       <c r="Q35" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="R35" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="S35" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="T35" t="n">
-        <v>779.1432148659135</v>
+        <v>582.3898777785613</v>
       </c>
       <c r="U35" t="n">
-        <v>582.3898777785616</v>
+        <v>582.3898777785613</v>
       </c>
       <c r="V35" t="n">
-        <v>385.6365406912097</v>
+        <v>582.3898777785613</v>
       </c>
       <c r="W35" t="n">
-        <v>385.6365406912097</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="X35" t="n">
-        <v>212.3362013846702</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.58286429731827</v>
+        <v>385.6365406912095</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>236.8037027138433</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="C36" t="n">
-        <v>62.35067343271632</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="D36" t="n">
-        <v>62.35067343271632</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="E36" t="n">
-        <v>62.35067343271632</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="F36" t="n">
-        <v>62.35067343271632</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G36" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H36" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I36" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="J36" t="n">
-        <v>24.76420440441936</v>
+        <v>24.76420440441902</v>
       </c>
       <c r="K36" t="n">
-        <v>79.04538405035498</v>
+        <v>79.04538405035464</v>
       </c>
       <c r="L36" t="n">
-        <v>198.3556699530998</v>
+        <v>198.3556699530995</v>
       </c>
       <c r="M36" t="n">
-        <v>356.9420142712423</v>
+        <v>356.942014271242</v>
       </c>
       <c r="N36" t="n">
-        <v>534.1343121508382</v>
+        <v>534.1343121508379</v>
       </c>
       <c r="O36" t="n">
-        <v>674.0108521867103</v>
+        <v>674.0108521867099</v>
       </c>
       <c r="P36" t="n">
-        <v>766.9410410558215</v>
+        <v>766.9410410558212</v>
       </c>
       <c r="Q36" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="R36" t="n">
-        <v>752.8032327481241</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="S36" t="n">
-        <v>601.7723768212633</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="T36" t="n">
-        <v>601.7723768212633</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="U36" t="n">
-        <v>601.7723768212633</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="V36" t="n">
-        <v>405.0190397339114</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="W36" t="n">
-        <v>405.0190397339114</v>
+        <v>582.3898777785613</v>
       </c>
       <c r="X36" t="n">
-        <v>405.0190397339114</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="Y36" t="n">
-        <v>405.0190397339114</v>
+        <v>188.8832036038577</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.80746099949766</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="C37" t="n">
-        <v>52.80746099949766</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="D37" t="n">
-        <v>52.80746099949766</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="E37" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="F37" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G37" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H37" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I37" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="J37" t="n">
-        <v>15.58286429731827</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="K37" t="n">
-        <v>108.5922173182255</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="L37" t="n">
-        <v>283.1386017884737</v>
+        <v>190.1292487675665</v>
       </c>
       <c r="M37" t="n">
-        <v>304.9106071628689</v>
+        <v>382.9671944468799</v>
       </c>
       <c r="N37" t="n">
-        <v>497.7485528421824</v>
+        <v>497.7485528421821</v>
       </c>
       <c r="O37" t="n">
-        <v>662.0638090614952</v>
+        <v>662.0638090614949</v>
       </c>
       <c r="P37" t="n">
-        <v>779.1432148659135</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="Q37" t="n">
-        <v>776.7196169866301</v>
+        <v>776.7196169866297</v>
       </c>
       <c r="R37" t="n">
-        <v>643.0674722615533</v>
+        <v>776.7196169866297</v>
       </c>
       <c r="S37" t="n">
-        <v>446.3141351742015</v>
+        <v>776.7196169866297</v>
       </c>
       <c r="T37" t="n">
-        <v>249.5607980868496</v>
+        <v>776.7196169866297</v>
       </c>
       <c r="U37" t="n">
-        <v>52.80746099949766</v>
+        <v>579.9662798992779</v>
       </c>
       <c r="V37" t="n">
-        <v>52.80746099949766</v>
+        <v>383.212942811926</v>
       </c>
       <c r="W37" t="n">
-        <v>52.80746099949766</v>
+        <v>383.212942811926</v>
       </c>
       <c r="X37" t="n">
-        <v>52.80746099949766</v>
+        <v>186.4596057245742</v>
       </c>
       <c r="Y37" t="n">
-        <v>52.80746099949766</v>
+        <v>186.4596057245742</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>212.33620138467</v>
       </c>
       <c r="F38" t="n">
-        <v>15.58286429731826</v>
+        <v>212.33620138467</v>
       </c>
       <c r="G38" t="n">
-        <v>15.58286429731826</v>
+        <v>212.33620138467</v>
       </c>
       <c r="H38" t="n">
         <v>15.58286429731826</v>
@@ -7174,13 +7174,13 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J38" t="n">
-        <v>23.72564365049345</v>
+        <v>23.72564365049362</v>
       </c>
       <c r="K38" t="n">
-        <v>86.66807734908645</v>
+        <v>86.6680773490865</v>
       </c>
       <c r="L38" t="n">
-        <v>201.6554939608415</v>
+        <v>201.6554939608412</v>
       </c>
       <c r="M38" t="n">
         <v>361.2705880887434</v>
@@ -7192,34 +7192,34 @@
         <v>672.2624713871355</v>
       </c>
       <c r="P38" t="n">
-        <v>760.8159710881242</v>
+        <v>760.8159710881241</v>
       </c>
       <c r="Q38" t="n">
-        <v>779.143214865913</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="R38" t="n">
-        <v>769.2573046448109</v>
+        <v>769.2573046448108</v>
       </c>
       <c r="S38" t="n">
-        <v>609.4560107324556</v>
+        <v>769.2573046448108</v>
       </c>
       <c r="T38" t="n">
-        <v>609.4560107324556</v>
+        <v>769.2573046448108</v>
       </c>
       <c r="U38" t="n">
-        <v>605.8428755593736</v>
+        <v>769.2573046448108</v>
       </c>
       <c r="V38" t="n">
-        <v>605.8428755593736</v>
+        <v>769.2573046448108</v>
       </c>
       <c r="W38" t="n">
-        <v>409.0895384720218</v>
+        <v>572.5039675574591</v>
       </c>
       <c r="X38" t="n">
-        <v>212.33620138467</v>
+        <v>375.7506304701074</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.33620138467</v>
+        <v>375.7506304701074</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>191.0812215533521</v>
+        <v>164.5172739585695</v>
       </c>
       <c r="C39" t="n">
-        <v>191.0812215533521</v>
+        <v>164.5172739585695</v>
       </c>
       <c r="D39" t="n">
-        <v>42.1468118921008</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="E39" t="n">
-        <v>42.1468118921008</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="F39" t="n">
         <v>15.58286429731826</v>
@@ -7253,52 +7253,52 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J39" t="n">
-        <v>15.58286429731826</v>
+        <v>24.76420440441879</v>
       </c>
       <c r="K39" t="n">
-        <v>69.86404394325389</v>
+        <v>79.04538405035441</v>
       </c>
       <c r="L39" t="n">
-        <v>198.3556699530994</v>
+        <v>198.3556699530993</v>
       </c>
       <c r="M39" t="n">
-        <v>356.9420142712419</v>
+        <v>356.9420142712418</v>
       </c>
       <c r="N39" t="n">
-        <v>534.1343121508378</v>
+        <v>534.1343121508377</v>
       </c>
       <c r="O39" t="n">
-        <v>674.0108521867098</v>
+        <v>674.0108521867097</v>
       </c>
       <c r="P39" t="n">
-        <v>766.9410410558211</v>
+        <v>766.941041055821</v>
       </c>
       <c r="Q39" t="n">
-        <v>779.143214865913</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="R39" t="n">
-        <v>752.8032327481236</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="S39" t="n">
-        <v>752.8032327481236</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="T39" t="n">
-        <v>556.0498956607719</v>
+        <v>582.3898777785612</v>
       </c>
       <c r="U39" t="n">
-        <v>556.0498956607719</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="V39" t="n">
-        <v>359.2965585734201</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="W39" t="n">
-        <v>359.2965585734201</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="X39" t="n">
-        <v>359.2965585734201</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="Y39" t="n">
-        <v>359.2965585734201</v>
+        <v>188.8832036038577</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>184.5190472252252</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="C40" t="n">
-        <v>15.58286429731826</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="D40" t="n">
-        <v>15.58286429731826</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="E40" t="n">
-        <v>15.58286429731826</v>
+        <v>362.0082115394761</v>
       </c>
       <c r="F40" t="n">
-        <v>15.58286429731826</v>
+        <v>362.0082115394761</v>
       </c>
       <c r="G40" t="n">
-        <v>15.58286429731826</v>
+        <v>193.3307720789572</v>
       </c>
       <c r="H40" t="n">
-        <v>15.58286429731826</v>
+        <v>38.44848008897279</v>
       </c>
       <c r="I40" t="n">
-        <v>15.58286429731826</v>
+        <v>38.44848008897279</v>
       </c>
       <c r="J40" t="n">
         <v>15.58286429731826</v>
       </c>
       <c r="K40" t="n">
-        <v>108.5922173182255</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="L40" t="n">
-        <v>279.7746818057524</v>
+        <v>190.1292487675665</v>
       </c>
       <c r="M40" t="n">
-        <v>472.6126274850658</v>
+        <v>382.9671944468799</v>
       </c>
       <c r="N40" t="n">
-        <v>497.748552842182</v>
+        <v>575.8051401261934</v>
       </c>
       <c r="O40" t="n">
-        <v>662.0638090614948</v>
+        <v>740.1203963455062</v>
       </c>
       <c r="P40" t="n">
-        <v>779.143214865913</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="Q40" t="n">
-        <v>776.7196169866296</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="R40" t="n">
-        <v>643.0674722615529</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="S40" t="n">
-        <v>446.3141351742011</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="T40" t="n">
-        <v>249.5607980868493</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="U40" t="n">
-        <v>184.5190472252252</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="V40" t="n">
-        <v>184.5190472252252</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="W40" t="n">
-        <v>184.5190472252252</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="X40" t="n">
-        <v>184.5190472252252</v>
+        <v>582.3898777785612</v>
       </c>
       <c r="Y40" t="n">
-        <v>184.5190472252252</v>
+        <v>385.6365406912095</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>225.8352467788542</v>
+        <v>412.7026736451038</v>
       </c>
       <c r="C41" t="n">
-        <v>29.0819096915024</v>
+        <v>412.7026736451038</v>
       </c>
       <c r="D41" t="n">
-        <v>29.0819096915024</v>
+        <v>412.7026736451038</v>
       </c>
       <c r="E41" t="n">
-        <v>29.0819096915024</v>
+        <v>412.7026736451038</v>
       </c>
       <c r="F41" t="n">
-        <v>29.0819096915024</v>
+        <v>409.0895384720218</v>
       </c>
       <c r="G41" t="n">
-        <v>29.0819096915024</v>
+        <v>212.33620138467</v>
       </c>
       <c r="H41" t="n">
         <v>15.58286429731826</v>
@@ -7414,49 +7414,49 @@
         <v>23.72564365049359</v>
       </c>
       <c r="K41" t="n">
-        <v>86.66807734908649</v>
+        <v>86.66807734908647</v>
       </c>
       <c r="L41" t="n">
         <v>201.6554939608415</v>
       </c>
       <c r="M41" t="n">
-        <v>361.2705880887436</v>
+        <v>361.2705880887435</v>
       </c>
       <c r="N41" t="n">
-        <v>528.0822296909112</v>
+        <v>528.0822296909107</v>
       </c>
       <c r="O41" t="n">
-        <v>672.2624713871359</v>
+        <v>672.2624713871354</v>
       </c>
       <c r="P41" t="n">
-        <v>760.8159710881246</v>
+        <v>760.8159710881241</v>
       </c>
       <c r="Q41" t="n">
-        <v>779.143214865913</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="R41" t="n">
-        <v>779.143214865913</v>
+        <v>769.2573046448108</v>
       </c>
       <c r="S41" t="n">
-        <v>619.3419209535577</v>
+        <v>609.4560107324555</v>
       </c>
       <c r="T41" t="n">
-        <v>619.3419209535577</v>
+        <v>412.7026736451038</v>
       </c>
       <c r="U41" t="n">
-        <v>619.3419209535577</v>
+        <v>412.7026736451038</v>
       </c>
       <c r="V41" t="n">
-        <v>422.588583866206</v>
+        <v>412.7026736451038</v>
       </c>
       <c r="W41" t="n">
-        <v>422.588583866206</v>
+        <v>412.7026736451038</v>
       </c>
       <c r="X41" t="n">
-        <v>422.588583866206</v>
+        <v>412.7026736451038</v>
       </c>
       <c r="Y41" t="n">
-        <v>225.8352467788542</v>
+        <v>412.7026736451038</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>236.803702713843</v>
+        <v>656.6189020422757</v>
       </c>
       <c r="C42" t="n">
-        <v>236.803702713843</v>
+        <v>656.6189020422757</v>
       </c>
       <c r="D42" t="n">
-        <v>117.3120830192124</v>
+        <v>507.6844923810245</v>
       </c>
       <c r="E42" t="n">
-        <v>117.3120830192124</v>
+        <v>348.447037375569</v>
       </c>
       <c r="F42" t="n">
-        <v>117.3120830192124</v>
+        <v>201.912479402454</v>
       </c>
       <c r="G42" t="n">
-        <v>117.3120830192124</v>
+        <v>64.3868769852875</v>
       </c>
       <c r="H42" t="n">
-        <v>15.58286429731826</v>
+        <v>64.3868769852875</v>
       </c>
       <c r="I42" t="n">
         <v>15.58286429731826</v>
@@ -7493,49 +7493,49 @@
         <v>15.58286429731826</v>
       </c>
       <c r="K42" t="n">
-        <v>69.86404394325389</v>
+        <v>69.86404394325388</v>
       </c>
       <c r="L42" t="n">
         <v>189.1743298459987</v>
       </c>
       <c r="M42" t="n">
-        <v>356.9420142712419</v>
+        <v>356.9420142712418</v>
       </c>
       <c r="N42" t="n">
-        <v>534.1343121508378</v>
+        <v>534.1343121508377</v>
       </c>
       <c r="O42" t="n">
-        <v>674.0108521867098</v>
+        <v>674.0108521867097</v>
       </c>
       <c r="P42" t="n">
-        <v>766.9410410558211</v>
+        <v>766.941041055821</v>
       </c>
       <c r="Q42" t="n">
-        <v>779.143214865913</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="R42" t="n">
-        <v>752.8032327481236</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="S42" t="n">
-        <v>601.7723768212628</v>
+        <v>656.6189020422757</v>
       </c>
       <c r="T42" t="n">
-        <v>405.019039733911</v>
+        <v>656.6189020422757</v>
       </c>
       <c r="U42" t="n">
-        <v>405.019039733911</v>
+        <v>656.6189020422757</v>
       </c>
       <c r="V42" t="n">
-        <v>405.019039733911</v>
+        <v>656.6189020422757</v>
       </c>
       <c r="W42" t="n">
-        <v>405.019039733911</v>
+        <v>656.6189020422757</v>
       </c>
       <c r="X42" t="n">
-        <v>405.019039733911</v>
+        <v>656.6189020422757</v>
       </c>
       <c r="Y42" t="n">
-        <v>405.019039733911</v>
+        <v>656.6189020422757</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>579.9662798992779</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="C43" t="n">
-        <v>411.030096971371</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="D43" t="n">
-        <v>411.030096971371</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="E43" t="n">
-        <v>263.1170033889779</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="F43" t="n">
-        <v>116.2270558910675</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G43" t="n">
         <v>15.58286429731826</v>
@@ -7575,46 +7575,46 @@
         <v>108.5922173182255</v>
       </c>
       <c r="L43" t="n">
-        <v>273.4839111857788</v>
+        <v>283.1386017884736</v>
       </c>
       <c r="M43" t="n">
-        <v>466.3218568650922</v>
+        <v>472.6126274850657</v>
       </c>
       <c r="N43" t="n">
-        <v>659.1598025444057</v>
+        <v>497.7485528421819</v>
       </c>
       <c r="O43" t="n">
-        <v>662.0638090614948</v>
+        <v>662.0638090614947</v>
       </c>
       <c r="P43" t="n">
-        <v>779.143214865913</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="Q43" t="n">
-        <v>776.7196169866296</v>
+        <v>776.7196169866295</v>
       </c>
       <c r="R43" t="n">
-        <v>776.7196169866296</v>
+        <v>776.7196169866295</v>
       </c>
       <c r="S43" t="n">
-        <v>776.7196169866296</v>
+        <v>776.7196169866295</v>
       </c>
       <c r="T43" t="n">
-        <v>776.7196169866296</v>
+        <v>579.9662798992778</v>
       </c>
       <c r="U43" t="n">
-        <v>776.7196169866296</v>
+        <v>579.9662798992778</v>
       </c>
       <c r="V43" t="n">
-        <v>776.7196169866296</v>
+        <v>383.212942811926</v>
       </c>
       <c r="W43" t="n">
-        <v>776.7196169866296</v>
+        <v>383.212942811926</v>
       </c>
       <c r="X43" t="n">
-        <v>776.7196169866296</v>
+        <v>186.4596057245743</v>
       </c>
       <c r="Y43" t="n">
-        <v>579.9662798992779</v>
+        <v>15.58286429731826</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>609.4560107324556</v>
+        <v>572.5039675574592</v>
       </c>
       <c r="C44" t="n">
-        <v>412.7026736451039</v>
+        <v>572.5039675574592</v>
       </c>
       <c r="D44" t="n">
-        <v>412.7026736451039</v>
+        <v>572.5039675574592</v>
       </c>
       <c r="E44" t="n">
-        <v>412.7026736451039</v>
+        <v>534.849833272242</v>
       </c>
       <c r="F44" t="n">
         <v>338.0964961848902</v>
       </c>
       <c r="G44" t="n">
-        <v>338.0964961848902</v>
+        <v>141.3431590975384</v>
       </c>
       <c r="H44" t="n">
         <v>141.3431590975384</v>
@@ -7648,19 +7648,19 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J44" t="n">
-        <v>23.72564365049359</v>
+        <v>23.72564365049345</v>
       </c>
       <c r="K44" t="n">
-        <v>86.66807734908649</v>
+        <v>86.66807734908645</v>
       </c>
       <c r="L44" t="n">
-        <v>201.6554939608412</v>
+        <v>201.6554939608415</v>
       </c>
       <c r="M44" t="n">
-        <v>361.2705880887432</v>
+        <v>361.2705880887434</v>
       </c>
       <c r="N44" t="n">
-        <v>528.0822296909108</v>
+        <v>528.0822296909109</v>
       </c>
       <c r="O44" t="n">
         <v>672.2624713871355</v>
@@ -7675,25 +7675,25 @@
         <v>769.2573046448109</v>
       </c>
       <c r="S44" t="n">
-        <v>609.4560107324556</v>
+        <v>769.2573046448109</v>
       </c>
       <c r="T44" t="n">
-        <v>609.4560107324556</v>
+        <v>769.2573046448109</v>
       </c>
       <c r="U44" t="n">
-        <v>609.4560107324556</v>
+        <v>769.2573046448109</v>
       </c>
       <c r="V44" t="n">
-        <v>609.4560107324556</v>
+        <v>572.5039675574592</v>
       </c>
       <c r="W44" t="n">
-        <v>609.4560107324556</v>
+        <v>572.5039675574592</v>
       </c>
       <c r="X44" t="n">
-        <v>609.4560107324556</v>
+        <v>572.5039675574592</v>
       </c>
       <c r="Y44" t="n">
-        <v>609.4560107324556</v>
+        <v>572.5039675574592</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>405.019039733911</v>
+        <v>162.5432214860683</v>
       </c>
       <c r="C45" t="n">
-        <v>405.019039733911</v>
+        <v>162.5432214860683</v>
       </c>
       <c r="D45" t="n">
-        <v>405.019039733911</v>
+        <v>162.5432214860683</v>
       </c>
       <c r="E45" t="n">
-        <v>405.019039733911</v>
+        <v>162.5432214860683</v>
       </c>
       <c r="F45" t="n">
-        <v>258.484481760796</v>
+        <v>162.5432214860683</v>
       </c>
       <c r="G45" t="n">
-        <v>166.1160957071817</v>
+        <v>162.5432214860683</v>
       </c>
       <c r="H45" t="n">
-        <v>64.38687698528751</v>
+        <v>60.81400276417416</v>
       </c>
       <c r="I45" t="n">
         <v>15.58286429731826</v>
@@ -7754,25 +7754,25 @@
         <v>752.8032327481236</v>
       </c>
       <c r="S45" t="n">
-        <v>601.7723768212628</v>
+        <v>752.8032327481236</v>
       </c>
       <c r="T45" t="n">
-        <v>601.7723768212628</v>
+        <v>752.8032327481236</v>
       </c>
       <c r="U45" t="n">
-        <v>601.7723768212628</v>
+        <v>752.8032327481236</v>
       </c>
       <c r="V45" t="n">
-        <v>405.019039733911</v>
+        <v>556.0498956607719</v>
       </c>
       <c r="W45" t="n">
-        <v>405.019039733911</v>
+        <v>359.2965585734201</v>
       </c>
       <c r="X45" t="n">
-        <v>405.019039733911</v>
+        <v>162.5432214860683</v>
       </c>
       <c r="Y45" t="n">
-        <v>405.019039733911</v>
+        <v>162.5432214860683</v>
       </c>
     </row>
     <row r="46">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.91233325660963</v>
+        <v>201.5644779816864</v>
       </c>
       <c r="C46" t="n">
-        <v>67.91233325660963</v>
+        <v>201.5644779816864</v>
       </c>
       <c r="D46" t="n">
-        <v>67.91233325660963</v>
+        <v>201.5644779816864</v>
       </c>
       <c r="E46" t="n">
-        <v>67.91233325660963</v>
+        <v>201.5644779816864</v>
       </c>
       <c r="F46" t="n">
-        <v>67.91233325660963</v>
+        <v>184.2603037578372</v>
       </c>
       <c r="G46" t="n">
-        <v>67.91233325660963</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H46" t="n">
-        <v>38.44848008897279</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I46" t="n">
-        <v>38.44848008897279</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="J46" t="n">
         <v>15.58286429731826</v>
       </c>
       <c r="K46" t="n">
-        <v>108.5922173182255</v>
+        <v>54.6056828177251</v>
       </c>
       <c r="L46" t="n">
-        <v>283.1386017884737</v>
+        <v>229.1520672879733</v>
       </c>
       <c r="M46" t="n">
-        <v>304.9106071628685</v>
+        <v>421.9900129672868</v>
       </c>
       <c r="N46" t="n">
-        <v>497.748552842182</v>
+        <v>614.8279586466002</v>
       </c>
       <c r="O46" t="n">
-        <v>662.0638090614948</v>
+        <v>779.143214865913</v>
       </c>
       <c r="P46" t="n">
         <v>779.143214865913</v>
@@ -7830,28 +7830,28 @@
         <v>776.7196169866296</v>
       </c>
       <c r="R46" t="n">
-        <v>643.0674722615529</v>
+        <v>776.7196169866296</v>
       </c>
       <c r="S46" t="n">
-        <v>446.3141351742011</v>
+        <v>776.7196169866296</v>
       </c>
       <c r="T46" t="n">
-        <v>446.3141351742011</v>
+        <v>776.7196169866296</v>
       </c>
       <c r="U46" t="n">
-        <v>446.3141351742011</v>
+        <v>579.9662798992779</v>
       </c>
       <c r="V46" t="n">
-        <v>446.3141351742011</v>
+        <v>383.2129428119261</v>
       </c>
       <c r="W46" t="n">
-        <v>446.3141351742011</v>
+        <v>383.2129428119261</v>
       </c>
       <c r="X46" t="n">
-        <v>249.5607980868493</v>
+        <v>383.2129428119261</v>
       </c>
       <c r="Y46" t="n">
-        <v>249.5607980868493</v>
+        <v>383.2129428119261</v>
       </c>
     </row>
   </sheetData>
@@ -8777,19 +8777,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>9.274080916263387</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,19 +8850,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>96.99155361465769</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>176.9077754244994</v>
+        <v>4.113896328622008</v>
       </c>
       <c r="N13" t="n">
         <v>169.3959801234317</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -9014,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>9.2740809162635</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,10 +9087,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>52.21191331384419</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
         <v>176.9077754244994</v>
@@ -9102,7 +9102,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>124.6873857597184</v>
+        <v>16.74453724897222</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9245,13 +9245,13 @@
         <v>14.10915490693394</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>9.274080916263387</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>9.274080916263387</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>96.42458879032961</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9336,7 +9336,7 @@
         <v>169.3959801234317</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>152.7224888115596</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>9.274080916263728</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>9.274080916263156</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9567,16 +9567,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>4.113896328622296</v>
+        <v>176.9077754244993</v>
       </c>
       <c r="N22" t="n">
-        <v>169.3959801234317</v>
+        <v>169.3959801234316</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>108.509813335074</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>16.74453724897222</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>14.10915490693394</v>
+        <v>23.38323582319733</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>9.274080916263713</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9798,13 +9798,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>96.42458879032961</v>
       </c>
       <c r="L25" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>4.113896328622296</v>
+        <v>176.9077754244994</v>
       </c>
       <c r="N25" t="n">
         <v>169.3959801234317</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>14.10915490693394</v>
+        <v>23.38323582319733</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>9.274080916263159</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>52.21191331384406</v>
+        <v>12.79492490939273</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>176.9077754244993</v>
+        <v>176.9077754244994</v>
       </c>
       <c r="N28" t="n">
-        <v>169.3959801234316</v>
+        <v>169.3959801234317</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>16.74453724897222</v>
+        <v>56.16152565342361</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>14.10915490693394</v>
+        <v>23.38323582319733</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>9.274080916263159</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>12.79492490939273</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>107.942848510746</v>
       </c>
       <c r="M31" t="n">
-        <v>176.9077754244993</v>
+        <v>176.9077754244994</v>
       </c>
       <c r="N31" t="n">
-        <v>169.3959801234316</v>
+        <v>169.3959801234317</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>56.1615256534235</v>
+        <v>16.74453724897222</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>9.274080916263927</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.274080916263156</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,19 +10509,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>96.9915536146577</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>176.9077754244993</v>
+        <v>173.5098764520543</v>
       </c>
       <c r="N34" t="n">
-        <v>169.3959801234316</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>23.38323582319767</v>
+        <v>23.38323582319733</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10746,16 +10746,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>12.79492490939273</v>
       </c>
       <c r="L37" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>4.113896328622296</v>
+        <v>176.9077754244994</v>
       </c>
       <c r="N37" t="n">
-        <v>169.3959801234317</v>
+        <v>90.55094246281415</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>14.10915490693394</v>
+        <v>23.3832358231971</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>9.274080916263273</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>12.79492490939273</v>
       </c>
       <c r="L40" t="n">
-        <v>159.0768025691087</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>176.9077754244994</v>
+        <v>176.9077754244993</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>169.3959801234316</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>56.1615256534235</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>9.274080916263273</v>
+        <v>9.274080916263159</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11223,16 +11223,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>152.7224888115596</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>176.9077754244994</v>
+        <v>173.5098764520535</v>
       </c>
       <c r="N43" t="n">
-        <v>169.3959801234316</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -11457,13 +11457,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>52.21191331384409</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>4.113896328621951</v>
+        <v>176.9077754244994</v>
       </c>
       <c r="N46" t="n">
         <v>169.3959801234316</v>
@@ -11472,7 +11472,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>16.74453724897222</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.35889816588482</v>
+        <v>14.3588981658848</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>170.4870880545293</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>317.405448678318</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.0727083933352</v>
+        <v>366.0080643320792</v>
       </c>
       <c r="H11" t="n">
-        <v>316.6365163721347</v>
+        <v>121.8507126556564</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>9.7870511188911</v>
       </c>
       <c r="S11" t="n">
         <v>158.2032809732317</v>
@@ -23317,16 +23317,16 @@
         <v>251.1672505780925</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>132.9664547536566</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>154.4551650009347</v>
       </c>
       <c r="X11" t="n">
-        <v>174.9452969619907</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>191.4521349395753</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>109.0696522071483</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1503463929948</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>100.7119265346752</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>48.31597256108955</v>
+        <v>30.7528725595627</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.07658229661151</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>149.5205473675921</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5696094615523464</v>
+        <v>195.3554131780306</v>
       </c>
       <c r="U12" t="n">
         <v>225.8628840039869</v>
@@ -23399,7 +23399,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>56.90917944444132</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.9906650659137</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.399361900490533</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>132.3156232778259</v>
@@ -23469,22 +23469,22 @@
         <v>206.5838480478009</v>
       </c>
       <c r="T13" t="n">
-        <v>223.6715192692254</v>
+        <v>28.88571555274711</v>
       </c>
       <c r="U13" t="n">
-        <v>91.4786630422374</v>
+        <v>214.1656996987544</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>91.73719462011272</v>
       </c>
       <c r="X13" t="n">
-        <v>30.92385167255887</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.06349390407982</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>212.0902420252331</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.0727083933352</v>
@@ -23515,7 +23515,7 @@
         <v>121.8507126556564</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>124.5026918522179</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>158.2032809732317</v>
       </c>
       <c r="T14" t="n">
-        <v>166.2692530221965</v>
+        <v>41.7665611699785</v>
       </c>
       <c r="U14" t="n">
         <v>56.38144686161419</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>132.9664547536566</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23576,16 +23576,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>113.5209871813565</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.1503463929948</v>
@@ -23624,22 +23624,22 @@
         <v>26.07658229661151</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>149.5205473675921</v>
       </c>
       <c r="T15" t="n">
         <v>195.3554131780306</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8628840039869</v>
+        <v>31.07708028750864</v>
       </c>
       <c r="V15" t="n">
         <v>38.01478343294696</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>188.056136379752</v>
       </c>
       <c r="X15" t="n">
-        <v>10.98718148699916</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.9906650659137</v>
       </c>
       <c r="H16" t="n">
-        <v>67.91142573617034</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>125.36829602054</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>22.63695963373799</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.399361900490533</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>132.3156232778259</v>
       </c>
       <c r="S16" t="n">
         <v>206.5838480478009</v>
       </c>
       <c r="T16" t="n">
-        <v>223.6715192692254</v>
+        <v>40.70290986693189</v>
       </c>
       <c r="U16" t="n">
-        <v>91.47866304223737</v>
+        <v>286.2644667587157</v>
       </c>
       <c r="V16" t="n">
-        <v>57.35183960734969</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>211.1665057500066</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23752,7 +23752,7 @@
         <v>316.6365163721347</v>
       </c>
       <c r="I17" t="n">
-        <v>124.5026918522179</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>9.7870511188911</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>158.2032809732317</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.3338970834526</v>
+        <v>18.54809336697431</v>
       </c>
       <c r="U17" t="n">
         <v>56.38144686161422</v>
       </c>
       <c r="V17" t="n">
-        <v>132.9664547536566</v>
+        <v>253.8921427845234</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>174.9452969619907</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>90.78894864505115</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23828,7 +23828,7 @@
         <v>136.1503463929948</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>100.7119265346752</v>
       </c>
       <c r="I18" t="n">
         <v>48.31597256108955</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>26.07658229661151</v>
       </c>
       <c r="S18" t="n">
         <v>149.5205473675921</v>
@@ -23867,19 +23867,19 @@
         <v>195.3554131780306</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8628840039869</v>
+        <v>54.29554809051297</v>
       </c>
       <c r="V18" t="n">
-        <v>38.01478343294698</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>56.90917944444132</v>
       </c>
       <c r="X18" t="n">
         <v>10.98718148699919</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>10.89689206082608</v>
       </c>
     </row>
     <row r="19">
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>120.2876747560264</v>
       </c>
       <c r="G19" t="n">
         <v>166.9906650659137</v>
@@ -23943,7 +23943,7 @@
         <v>206.5838480478009</v>
       </c>
       <c r="T19" t="n">
-        <v>52.10418335575142</v>
+        <v>223.6715192692254</v>
       </c>
       <c r="U19" t="n">
         <v>91.4786630422374</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>379.1568378421293</v>
+        <v>187.9480379470023</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>210.3630341587877</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>9.7870511188911</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>158.2032809732317</v>
       </c>
       <c r="T20" t="n">
-        <v>213.3338970834526</v>
+        <v>18.54809336697437</v>
       </c>
       <c r="U20" t="n">
-        <v>56.38144686161414</v>
+        <v>56.38144686161428</v>
       </c>
       <c r="V20" t="n">
-        <v>132.9664547536565</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>191.4521349395752</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,13 +24053,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.1503463929948</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>26.07658229661151</v>
       </c>
       <c r="S21" t="n">
         <v>149.5205473675921</v>
       </c>
       <c r="T21" t="n">
-        <v>195.3554131780306</v>
+        <v>0.5696094615524032</v>
       </c>
       <c r="U21" t="n">
-        <v>31.07708028750858</v>
+        <v>31.07708028750872</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>166.7919805245239</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>10.98718148699925</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>34.11535986383032</v>
       </c>
     </row>
     <row r="22">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24150,7 +24150,7 @@
         <v>125.36829602054</v>
       </c>
       <c r="J22" t="n">
-        <v>22.63695963373799</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.399361900490533</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>132.3156232778259</v>
+        <v>91.90727576440152</v>
       </c>
       <c r="S22" t="n">
         <v>206.5838480478009</v>
       </c>
       <c r="T22" t="n">
-        <v>28.88571555274703</v>
+        <v>223.6715192692254</v>
       </c>
       <c r="U22" t="n">
-        <v>114.6971308452415</v>
+        <v>286.2644667587157</v>
       </c>
       <c r="V22" t="n">
-        <v>57.35183960734963</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>30.92385167255878</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>23.79884963561656</v>
       </c>
     </row>
     <row r="23">
@@ -24211,13 +24211,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>183.115705707209</v>
       </c>
       <c r="E23" t="n">
-        <v>187.1445663557834</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>235.3087098282373</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.0727083933352</v>
@@ -24265,7 +24265,7 @@
         <v>251.1672505780925</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>132.9664547536566</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>174.9452969619907</v>
       </c>
       <c r="Y23" t="n">
-        <v>191.4521349395752</v>
+        <v>191.4521349395753</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.1503463929948</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>100.7119265346752</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>48.31597256108955</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>26.07658229661151</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>92.02625311895039</v>
       </c>
       <c r="T24" t="n">
-        <v>195.3554131780306</v>
+        <v>0.5696094615523464</v>
       </c>
       <c r="U24" t="n">
         <v>225.8628840039869</v>
       </c>
       <c r="V24" t="n">
-        <v>38.0147834329469</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>56.90917944444132</v>
       </c>
       <c r="X24" t="n">
-        <v>10.98718148699911</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>137.8780026107088</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24366,28 +24366,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>82.02976510491352</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9906650659137</v>
+        <v>115.8896021888673</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.3334690700845</v>
       </c>
       <c r="I25" t="n">
-        <v>125.36829602054</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>22.63695963373799</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>132.3156232778259</v>
       </c>
       <c r="S25" t="n">
-        <v>206.5838480478009</v>
+        <v>11.79804433132259</v>
       </c>
       <c r="T25" t="n">
         <v>223.6715192692254</v>
       </c>
       <c r="U25" t="n">
-        <v>91.47866304223732</v>
+        <v>91.4786630422374</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>91.73719462011263</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>187.9480379470023</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>159.8972379042047</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>220.1500852776789</v>
       </c>
       <c r="F26" t="n">
-        <v>245.0957609471285</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.0727083933352</v>
       </c>
       <c r="H26" t="n">
-        <v>316.6365163721347</v>
+        <v>121.8507126556564</v>
       </c>
       <c r="I26" t="n">
         <v>124.5026918522179</v>
@@ -24496,10 +24496,10 @@
         <v>158.2032809732317</v>
       </c>
       <c r="T26" t="n">
-        <v>213.3338970834526</v>
+        <v>18.54809336697431</v>
       </c>
       <c r="U26" t="n">
-        <v>56.38144686161428</v>
+        <v>56.38144686161422</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.1503463929948</v>
       </c>
       <c r="H27" t="n">
-        <v>100.7119265346752</v>
+        <v>15.19559042660065</v>
       </c>
       <c r="I27" t="n">
         <v>48.31597256108955</v>
@@ -24575,7 +24575,7 @@
         <v>149.5205473675921</v>
       </c>
       <c r="T27" t="n">
-        <v>186.0150059541629</v>
+        <v>195.3554131780306</v>
       </c>
       <c r="U27" t="n">
         <v>225.8628840039869</v>
@@ -24584,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>56.90917944444138</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>10.98718148699925</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.89689206082613</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>166.9906650659137</v>
       </c>
       <c r="H28" t="n">
-        <v>116.4811183349269</v>
+        <v>27.81798148426955</v>
       </c>
       <c r="I28" t="n">
         <v>125.36829602054</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>11.79804433132264</v>
+        <v>206.5838480478009</v>
       </c>
       <c r="T28" t="n">
         <v>223.6715192692254</v>
       </c>
       <c r="U28" t="n">
-        <v>91.47866304223746</v>
+        <v>286.2644667587157</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>91.73719462011277</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>170.4870880545293</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>212.0902420252332</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.0727083933352</v>
       </c>
       <c r="H29" t="n">
-        <v>316.6365163721347</v>
+        <v>121.8507126556564</v>
       </c>
       <c r="I29" t="n">
         <v>124.5026918522179</v>
@@ -24733,10 +24733,10 @@
         <v>158.2032809732317</v>
       </c>
       <c r="T29" t="n">
-        <v>213.3338970834526</v>
+        <v>18.54809336697431</v>
       </c>
       <c r="U29" t="n">
-        <v>56.38144686161428</v>
+        <v>56.38144686161422</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24809,22 +24809,22 @@
         <v>26.07658229661151</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>149.5205473675921</v>
       </c>
       <c r="T30" t="n">
-        <v>0.5696094615524032</v>
+        <v>0.5696094615523464</v>
       </c>
       <c r="U30" t="n">
-        <v>203.8160954581051</v>
+        <v>225.8628840039869</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>227.7664348858186</v>
       </c>
       <c r="W30" t="n">
-        <v>56.90917944444138</v>
+        <v>56.90917944444132</v>
       </c>
       <c r="X30" t="n">
-        <v>10.98718148699925</v>
+        <v>10.98718148699919</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9906650659137</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>153.3334690700845</v>
       </c>
       <c r="I31" t="n">
-        <v>125.36829602054</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>22.63695963373799</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>132.3156232778259</v>
+        <v>60.72080663481781</v>
       </c>
       <c r="S31" t="n">
         <v>206.5838480478009</v>
       </c>
       <c r="T31" t="n">
-        <v>28.88571555274717</v>
+        <v>223.6715192692254</v>
       </c>
       <c r="U31" t="n">
         <v>286.2644667587157</v>
       </c>
       <c r="V31" t="n">
-        <v>57.35183960734977</v>
+        <v>57.35183960734972</v>
       </c>
       <c r="W31" t="n">
-        <v>263.7889869701767</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>30.92385167255887</v>
       </c>
       <c r="Y31" t="n">
-        <v>23.79884963561656</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>187.9480379470023</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>170.4870880545291</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>159.8972379042045</v>
       </c>
       <c r="E32" t="n">
-        <v>187.1445663557836</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.0727083933352</v>
+        <v>399.7086534530928</v>
       </c>
       <c r="H32" t="n">
         <v>316.6365163721347</v>
@@ -24967,25 +24967,25 @@
         <v>9.7870511188911</v>
       </c>
       <c r="S32" t="n">
-        <v>158.2032809732317</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>213.3338970834526</v>
       </c>
       <c r="U32" t="n">
-        <v>56.38144686161428</v>
+        <v>251.1672505780925</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>177.673632803939</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>191.4521349395752</v>
       </c>
     </row>
     <row r="33">
@@ -25013,7 +25013,7 @@
         <v>136.1503463929948</v>
       </c>
       <c r="H33" t="n">
-        <v>100.7119265346752</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>48.31597256108955</v>
@@ -25046,25 +25046,25 @@
         <v>26.07658229661151</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>149.5205473675921</v>
       </c>
       <c r="T33" t="n">
         <v>195.3554131780306</v>
       </c>
       <c r="U33" t="n">
-        <v>31.07708028750872</v>
+        <v>31.07708028750852</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>124.8044545095488</v>
       </c>
       <c r="W33" t="n">
-        <v>56.90917944444138</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>146.4951839703452</v>
+        <v>10.89689206082593</v>
       </c>
     </row>
     <row r="34">
@@ -25095,7 +25095,7 @@
         <v>153.3334690700845</v>
       </c>
       <c r="I34" t="n">
-        <v>125.36829602054</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>22.63695963373799</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.399361900490533</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>132.3156232778259</v>
@@ -25128,22 +25128,22 @@
         <v>206.5838480478009</v>
       </c>
       <c r="T34" t="n">
-        <v>28.88571555274717</v>
+        <v>223.6715192692254</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2644667587157</v>
+        <v>91.47866304223726</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>57.35183960734958</v>
       </c>
       <c r="W34" t="n">
-        <v>100.001838888576</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>23.79884963561656</v>
+        <v>159.8311518251101</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>159.8972379042047</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.0727083933352</v>
+        <v>241.5053724798613</v>
       </c>
       <c r="H35" t="n">
         <v>316.6365163721347</v>
@@ -25207,22 +25207,22 @@
         <v>158.2032809732317</v>
       </c>
       <c r="T35" t="n">
-        <v>213.3338970834526</v>
+        <v>18.54809336697431</v>
       </c>
       <c r="U35" t="n">
-        <v>56.38144686161414</v>
+        <v>251.1672505780925</v>
       </c>
       <c r="V35" t="n">
-        <v>132.9664547536565</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>154.4551650009347</v>
       </c>
       <c r="X35" t="n">
-        <v>198.1637647649949</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>191.4521349395752</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1.141163074841756</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25247,7 +25247,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>89.85021534895074</v>
+        <v>136.1503463929948</v>
       </c>
       <c r="H36" t="n">
         <v>100.7119265346752</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>26.07658229661151</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>149.5205473675921</v>
       </c>
       <c r="T36" t="n">
         <v>195.3554131780306</v>
@@ -25292,16 +25292,16 @@
         <v>225.8628840039869</v>
       </c>
       <c r="V36" t="n">
-        <v>38.0147834329469</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>56.90917944444132</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>10.98718148699919</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>10.89689206082608</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>10.66400616895388</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>109.5816119114116</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>132.3156232778259</v>
       </c>
       <c r="S37" t="n">
-        <v>11.7980443313225</v>
+        <v>206.5838480478009</v>
       </c>
       <c r="T37" t="n">
-        <v>28.88571555274703</v>
+        <v>223.6715192692254</v>
       </c>
       <c r="U37" t="n">
-        <v>91.47866304223732</v>
+        <v>91.4786630422374</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>57.35183960734972</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>30.92385167255887</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>220.9535568688976</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>212.0902420252332</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.0727083933352</v>
       </c>
       <c r="H38" t="n">
-        <v>316.6365163721347</v>
+        <v>121.8507126556565</v>
       </c>
       <c r="I38" t="n">
         <v>124.5026918522179</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>158.2032809732317</v>
       </c>
       <c r="T38" t="n">
         <v>213.3338970834526</v>
       </c>
       <c r="U38" t="n">
-        <v>247.5902467567413</v>
+        <v>251.1672505780925</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>142.410913301032</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25481,7 +25481,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>118.7709042745492</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.1503463929948</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>26.07658229661151</v>
       </c>
       <c r="S39" t="n">
         <v>149.5205473675921</v>
       </c>
       <c r="T39" t="n">
-        <v>0.5696094615523748</v>
+        <v>0.5696094615524032</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8628840039869</v>
+        <v>31.07708028750872</v>
       </c>
       <c r="V39" t="n">
-        <v>38.01478343294701</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>10.98718148699925</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25551,28 +25551,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>123.0419167863531</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9906650659137</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.3334690700845</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>125.36829602054</v>
       </c>
       <c r="J40" t="n">
-        <v>22.63695963373799</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>2.399361900490533</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>132.3156232778259</v>
       </c>
       <c r="S40" t="n">
-        <v>11.79804433132261</v>
+        <v>206.5838480478009</v>
       </c>
       <c r="T40" t="n">
-        <v>28.88571555274714</v>
+        <v>223.6715192692254</v>
       </c>
       <c r="U40" t="n">
-        <v>221.8731334057078</v>
+        <v>286.2644667587157</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>30.92385167255892</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>23.79884963561656</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>170.4870880545293</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,13 +25639,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>403.2990419203603</v>
       </c>
       <c r="G41" t="n">
-        <v>413.0727083933352</v>
+        <v>218.286904676857</v>
       </c>
       <c r="H41" t="n">
-        <v>303.2724614318924</v>
+        <v>121.8507126556565</v>
       </c>
       <c r="I41" t="n">
         <v>124.5026918522179</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>9.7870511188911</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>213.3338970834526</v>
+        <v>18.54809336697437</v>
       </c>
       <c r="U41" t="n">
         <v>251.1672505780925</v>
       </c>
       <c r="V41" t="n">
-        <v>132.9664547536566</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>191.4521349395753</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>29.14836206695449</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.1503463929948</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>100.7119265346752</v>
       </c>
       <c r="I42" t="n">
-        <v>48.31597256108955</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>26.07658229661151</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>28.22147767219137</v>
       </c>
       <c r="T42" t="n">
-        <v>0.5696094615523748</v>
+        <v>195.3554131780306</v>
       </c>
       <c r="U42" t="n">
         <v>225.8628840039869</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>67.35291538810195</v>
+        <v>166.9906650659137</v>
       </c>
       <c r="H43" t="n">
         <v>153.3334690700845</v>
@@ -25839,22 +25839,22 @@
         <v>206.5838480478009</v>
       </c>
       <c r="T43" t="n">
-        <v>223.6715192692254</v>
+        <v>28.88571555274717</v>
       </c>
       <c r="U43" t="n">
         <v>286.2644667587157</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>57.35183960734977</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>30.92385167255892</v>
       </c>
       <c r="Y43" t="n">
-        <v>23.79884963561653</v>
+        <v>49.41667933911131</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>170.4870880545293</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>344.6527771298968</v>
       </c>
       <c r="F44" t="n">
-        <v>333.0159300560999</v>
+        <v>212.0902420252332</v>
       </c>
       <c r="G44" t="n">
-        <v>413.0727083933352</v>
+        <v>218.286904676857</v>
       </c>
       <c r="H44" t="n">
-        <v>121.8507126556564</v>
+        <v>316.6365163721347</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>158.2032809732317</v>
       </c>
       <c r="T44" t="n">
         <v>213.3338970834526</v>
@@ -25924,7 +25924,7 @@
         <v>251.1672505780925</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>132.9664547536566</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25955,16 +25955,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>44.70564419991659</v>
+        <v>136.1503463929948</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.537145478902211</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>149.5205473675921</v>
       </c>
       <c r="T45" t="n">
         <v>195.3554131780306</v>
@@ -26006,10 +26006,10 @@
         <v>38.01478343294701</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>56.90917944444135</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>10.98718148699922</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26034,19 +26034,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>128.2899155413205</v>
       </c>
       <c r="G46" t="n">
-        <v>166.9906650659137</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>124.1642544341241</v>
+        <v>153.3334690700845</v>
       </c>
       <c r="I46" t="n">
         <v>125.36829602054</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>22.63695963373799</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>132.3156232778259</v>
       </c>
       <c r="S46" t="n">
-        <v>11.79804433132261</v>
+        <v>206.5838480478009</v>
       </c>
       <c r="T46" t="n">
         <v>223.6715192692254</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2644667587157</v>
+        <v>91.47866304223743</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>57.35183960734975</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>30.9238516725589</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>372808.8956422561</v>
+        <v>372808.8956422562</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>372808.8956422563</v>
+        <v>372808.8956422561</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372808.8956422562</v>
+        <v>372808.8956422563</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>372808.8956422561</v>
+        <v>372808.8956422562</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>372808.8956422561</v>
+        <v>372808.8956422562</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>372808.8956422561</v>
+        <v>372808.8956422563</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>372808.8956422563</v>
+        <v>372808.8956422562</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>372808.8956422562</v>
+        <v>372808.8956422561</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>372808.8956422561</v>
+        <v>372808.895642256</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057047</v>
+        <v>634939.1625057046</v>
       </c>
       <c r="C2" t="n">
         <v>634939.1625057046</v>
@@ -26322,7 +26322,7 @@
         <v>634997.38795516</v>
       </c>
       <c r="E2" t="n">
-        <v>283201.4205509616</v>
+        <v>283201.4205509617</v>
       </c>
       <c r="F2" t="n">
         <v>283201.4205509616</v>
@@ -26331,16 +26331,16 @@
         <v>283201.4205509615</v>
       </c>
       <c r="H2" t="n">
+        <v>283201.4205509616</v>
+      </c>
+      <c r="I2" t="n">
         <v>283201.4205509617</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>283201.4205509617</v>
+      </c>
+      <c r="K2" t="n">
         <v>283201.4205509616</v>
-      </c>
-      <c r="J2" t="n">
-        <v>283201.4205509616</v>
-      </c>
-      <c r="K2" t="n">
-        <v>283201.4205509617</v>
       </c>
       <c r="L2" t="n">
         <v>283201.4205509617</v>
@@ -26349,7 +26349,7 @@
         <v>283201.4205509617</v>
       </c>
       <c r="N2" t="n">
-        <v>283201.4205509617</v>
+        <v>283201.4205509616</v>
       </c>
       <c r="O2" t="n">
         <v>283201.4205509616</v>
@@ -26426,7 +26426,7 @@
         <v>385783.8405692248</v>
       </c>
       <c r="E4" t="n">
-        <v>16692.14633457871</v>
+        <v>16692.1463345787</v>
       </c>
       <c r="F4" t="n">
         <v>16692.14633457871</v>
@@ -26435,28 +26435,28 @@
         <v>16692.14633457871</v>
       </c>
       <c r="H4" t="n">
+        <v>16692.1463345787</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16692.14633457871</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16692.14633457871</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16692.14633457871</v>
+      </c>
+      <c r="L4" t="n">
         <v>16692.14633457872</v>
       </c>
-      <c r="I4" t="n">
-        <v>16692.14633457872</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>16692.14633457871</v>
+      </c>
+      <c r="N4" t="n">
         <v>16692.14633457869</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>16692.14633457869</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16692.1463345787</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16692.14633457872</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16692.1463345787</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16692.1463345787</v>
       </c>
       <c r="P4" t="n">
         <v>16692.1463345787</v>
@@ -26487,10 +26487,10 @@
         <v>23935.8672862019</v>
       </c>
       <c r="H5" t="n">
-        <v>23935.86728620191</v>
+        <v>23935.8672862019</v>
       </c>
       <c r="I5" t="n">
-        <v>23935.86728620191</v>
+        <v>23935.8672862019</v>
       </c>
       <c r="J5" t="n">
         <v>23935.8672862019</v>
@@ -26499,10 +26499,10 @@
         <v>23935.8672862019</v>
       </c>
       <c r="L5" t="n">
+        <v>23935.86728620192</v>
+      </c>
+      <c r="M5" t="n">
         <v>23935.8672862019</v>
-      </c>
-      <c r="M5" t="n">
-        <v>23935.86728620191</v>
       </c>
       <c r="N5" t="n">
         <v>23935.8672862019</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133695.6025739734</v>
+        <v>133651.4667952922</v>
       </c>
       <c r="C6" t="n">
-        <v>133695.6025739733</v>
+        <v>133651.4667952922</v>
       </c>
       <c r="D6" t="n">
-        <v>9398.83098315337</v>
+        <v>9356.573444777254</v>
       </c>
       <c r="E6" t="n">
-        <v>-72625.86832850002</v>
+        <v>-84016.38287991473</v>
       </c>
       <c r="F6" t="n">
-        <v>242573.406930181</v>
+        <v>231182.8923787663</v>
       </c>
       <c r="G6" t="n">
-        <v>242573.4069301808</v>
+        <v>231182.8923787661</v>
       </c>
       <c r="H6" t="n">
-        <v>242573.4069301811</v>
+        <v>231182.8923787663</v>
       </c>
       <c r="I6" t="n">
-        <v>242573.406930181</v>
+        <v>231182.8923787663</v>
       </c>
       <c r="J6" t="n">
-        <v>242573.406930181</v>
+        <v>231182.8923787664</v>
       </c>
       <c r="K6" t="n">
-        <v>242573.4069301811</v>
+        <v>231182.8923787663</v>
       </c>
       <c r="L6" t="n">
-        <v>242573.4069301811</v>
+        <v>231182.8923787663</v>
       </c>
       <c r="M6" t="n">
-        <v>194032.0055008199</v>
+        <v>182641.4909494051</v>
       </c>
       <c r="N6" t="n">
-        <v>242573.4069301811</v>
+        <v>231182.8923787662</v>
       </c>
       <c r="O6" t="n">
-        <v>242573.406930181</v>
+        <v>231182.8923787663</v>
       </c>
       <c r="P6" t="n">
-        <v>242573.406930181</v>
+        <v>231182.8923787662</v>
       </c>
     </row>
   </sheetData>
@@ -26807,28 +26807,28 @@
         <v>194.7858037164783</v>
       </c>
       <c r="H4" t="n">
+        <v>194.7858037164782</v>
+      </c>
+      <c r="I4" t="n">
+        <v>194.7858037164783</v>
+      </c>
+      <c r="J4" t="n">
+        <v>194.7858037164783</v>
+      </c>
+      <c r="K4" t="n">
+        <v>194.7858037164783</v>
+      </c>
+      <c r="L4" t="n">
         <v>194.7858037164784</v>
       </c>
-      <c r="I4" t="n">
-        <v>194.7858037164784</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>194.7858037164783</v>
+      </c>
+      <c r="N4" t="n">
         <v>194.7858037164782</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>194.7858037164782</v>
-      </c>
-      <c r="L4" t="n">
-        <v>194.7858037164782</v>
-      </c>
-      <c r="M4" t="n">
-        <v>194.7858037164784</v>
-      </c>
-      <c r="N4" t="n">
-        <v>194.7858037164783</v>
-      </c>
-      <c r="O4" t="n">
-        <v>194.7858037164783</v>
       </c>
       <c r="P4" t="n">
         <v>194.7858037164783</v>
@@ -27882,16 +27882,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L8" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M8" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N8" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O8" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P8" t="n">
         <v>95.50771753390021</v>
@@ -27976,7 +27976,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R9" t="n">
         <v>114.3252943440434</v>
@@ -28043,7 +28043,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M10" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N10" t="n">
         <v>62.89780050171086</v>
@@ -31530,7 +31530,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L8" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M8" t="n">
         <v>165.7299311340341</v>
@@ -31539,7 +31539,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O8" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P8" t="n">
         <v>135.7252782213693</v>
@@ -31554,7 +31554,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T8" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U8" t="n">
         <v>0.07550714794001816</v>
@@ -31624,7 +31624,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R9" t="n">
         <v>31.35420961992052</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H10" t="n">
         <v>3.764178316183975</v>
@@ -31691,7 +31691,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M10" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N10" t="n">
         <v>64.78774396352233</v>
@@ -31703,13 +31703,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R10" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S10" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T10" t="n">
         <v>1.808960949495364</v>
@@ -34143,7 +34143,7 @@
         <v>391.5736010332344</v>
       </c>
       <c r="N41" t="n">
-        <v>397.9096712755481</v>
+        <v>397.9096712755477</v>
       </c>
       <c r="O41" t="n">
         <v>375.7348191956511</v>
@@ -34152,7 +34152,7 @@
         <v>320.6809752512178</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.818057326761</v>
+        <v>240.8180573267614</v>
       </c>
       <c r="R41" t="n">
         <v>140.0820668222586</v>
@@ -34374,7 +34374,7 @@
         <v>283.6680669021451</v>
       </c>
       <c r="L44" t="n">
-        <v>351.9153206384263</v>
+        <v>351.9153206384267</v>
       </c>
       <c r="M44" t="n">
         <v>391.5736010332344</v>
@@ -35497,7 +35497,7 @@
         <v>120.5154403058029</v>
       </c>
       <c r="M12" t="n">
-        <v>169.4623075002457</v>
+        <v>160.1882265839823</v>
       </c>
       <c r="N12" t="n">
         <v>178.9821190702989</v>
@@ -35509,7 +35509,7 @@
         <v>93.8688776455669</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.32542809100192</v>
+        <v>21.59950900726531</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>84.19662870526496</v>
+        <v>93.94884143525979</v>
       </c>
       <c r="L13" t="n">
         <v>176.309479262877</v>
       </c>
       <c r="M13" t="n">
-        <v>194.7858037164783</v>
+        <v>21.9919246206009</v>
       </c>
       <c r="N13" t="n">
         <v>194.7858037164783</v>
       </c>
       <c r="O13" t="n">
-        <v>2.93333991625164</v>
+        <v>165.9750062821341</v>
       </c>
       <c r="P13" t="n">
         <v>118.2620260650689</v>
@@ -35734,7 +35734,7 @@
         <v>120.5154403058029</v>
       </c>
       <c r="M15" t="n">
-        <v>169.4623075002458</v>
+        <v>160.1882265839823</v>
       </c>
       <c r="N15" t="n">
         <v>178.9821190702989</v>
@@ -35746,7 +35746,7 @@
         <v>93.8688776455669</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.32542809100192</v>
+        <v>21.59950900726542</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>93.94884143525979</v>
+        <v>39.41698840445146</v>
       </c>
       <c r="L16" t="n">
-        <v>13.83477772132255</v>
+        <v>176.309479262877</v>
       </c>
       <c r="M16" t="n">
         <v>194.7858037164783</v>
@@ -35822,7 +35822,7 @@
         <v>165.9750062821341</v>
       </c>
       <c r="P16" t="n">
-        <v>107.9428485107461</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>54.82947438983396</v>
+        <v>64.10355530609735</v>
       </c>
       <c r="L18" t="n">
         <v>120.5154403058029</v>
       </c>
       <c r="M18" t="n">
-        <v>169.4623075002457</v>
+        <v>160.1882265839823</v>
       </c>
       <c r="N18" t="n">
         <v>178.9821190702989</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>83.62966388093687</v>
+        <v>93.94884143525979</v>
       </c>
       <c r="L19" t="n">
         <v>13.83477772132255</v>
@@ -36056,7 +36056,7 @@
         <v>194.7858037164783</v>
       </c>
       <c r="O19" t="n">
-        <v>165.9750062821341</v>
+        <v>155.6558287278112</v>
       </c>
       <c r="P19" t="n">
         <v>118.2620260650689</v>
@@ -36211,7 +36211,7 @@
         <v>160.1882265839823</v>
       </c>
       <c r="N21" t="n">
-        <v>188.2561999865626</v>
+        <v>178.9821190702989</v>
       </c>
       <c r="O21" t="n">
         <v>141.2894343796688</v>
@@ -36220,7 +36220,7 @@
         <v>93.8688776455669</v>
       </c>
       <c r="Q21" t="n">
-        <v>12.32542809100192</v>
+        <v>21.59950900726508</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36287,16 +36287,16 @@
         <v>176.309479262877</v>
       </c>
       <c r="M22" t="n">
-        <v>21.99192462060119</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="N22" t="n">
-        <v>194.7858037164784</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="O22" t="n">
-        <v>165.9750062821341</v>
+        <v>111.4431532513257</v>
       </c>
       <c r="P22" t="n">
-        <v>118.2620260650689</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>8.225029649672052</v>
       </c>
       <c r="K23" t="n">
-        <v>63.57821585716461</v>
+        <v>63.57821585716454</v>
       </c>
       <c r="L23" t="n">
         <v>116.1489056684395</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>9.27408091626339</v>
       </c>
       <c r="K24" t="n">
         <v>54.82947438983396</v>
@@ -36454,7 +36454,7 @@
         <v>141.2894343796688</v>
       </c>
       <c r="P24" t="n">
-        <v>103.1429585618306</v>
+        <v>93.8688776455669</v>
       </c>
       <c r="Q24" t="n">
         <v>12.32542809100192</v>
@@ -36518,16 +36518,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>93.94884143525979</v>
+        <v>83.62966388093687</v>
       </c>
       <c r="L25" t="n">
-        <v>176.309479262877</v>
+        <v>13.83477772132255</v>
       </c>
       <c r="M25" t="n">
-        <v>21.99192462060119</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="N25" t="n">
-        <v>194.7858037164784</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="O25" t="n">
         <v>165.9750062821341</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>8.225029649672052</v>
+        <v>8.225029649671795</v>
       </c>
       <c r="K26" t="n">
         <v>63.57821585716454</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>9.27408091626339</v>
       </c>
       <c r="K27" t="n">
         <v>54.82947438983396</v>
@@ -36685,7 +36685,7 @@
         <v>160.1882265839823</v>
       </c>
       <c r="N27" t="n">
-        <v>188.2561999865621</v>
+        <v>178.9821190702989</v>
       </c>
       <c r="O27" t="n">
         <v>141.2894343796688</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>39.41698840445132</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>176.309479262877</v>
       </c>
       <c r="M28" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="N28" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="O28" t="n">
         <v>165.9750062821341</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39.41698840445139</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>8.225029649671569</v>
+        <v>8.225029649672052</v>
       </c>
       <c r="K29" t="n">
         <v>63.57821585716454</v>
@@ -36852,7 +36852,7 @@
         <v>89.44797949594823</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.51236745231188</v>
+        <v>18.51236745231168</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>9.27408091626339</v>
       </c>
       <c r="K30" t="n">
         <v>54.82947438983396</v>
@@ -36919,7 +36919,7 @@
         <v>120.5154403058029</v>
       </c>
       <c r="M30" t="n">
-        <v>169.4623075002455</v>
+        <v>160.1882265839823</v>
       </c>
       <c r="N30" t="n">
         <v>178.9821190702989</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>93.94884143525979</v>
       </c>
       <c r="L31" t="n">
-        <v>176.309479262877</v>
+        <v>121.7776262320685</v>
       </c>
       <c r="M31" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="N31" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="O31" t="n">
         <v>165.9750062821341</v>
       </c>
       <c r="P31" t="n">
-        <v>39.41698840445127</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>145.6366077739644</v>
       </c>
       <c r="P32" t="n">
-        <v>89.44797949594773</v>
+        <v>89.44797949594823</v>
       </c>
       <c r="Q32" t="n">
         <v>18.51236745231188</v>
@@ -37156,7 +37156,7 @@
         <v>120.5154403058029</v>
       </c>
       <c r="M33" t="n">
-        <v>160.1882265839823</v>
+        <v>169.4623075002463</v>
       </c>
       <c r="N33" t="n">
         <v>178.9821190702989</v>
@@ -37168,7 +37168,7 @@
         <v>93.8688776455669</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.59950900726508</v>
+        <v>12.32542809100192</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,19 +37229,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>84.19662870526497</v>
+        <v>93.94884143525979</v>
       </c>
       <c r="L34" t="n">
         <v>176.309479262877</v>
       </c>
       <c r="M34" t="n">
-        <v>194.7858037164782</v>
+        <v>191.3879047440332</v>
       </c>
       <c r="N34" t="n">
-        <v>194.7858037164782</v>
+        <v>25.38982359304663</v>
       </c>
       <c r="O34" t="n">
-        <v>2.93333991625164</v>
+        <v>165.9750062821341</v>
       </c>
       <c r="P34" t="n">
         <v>118.2620260650689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>9.274080916263726</v>
+        <v>9.27408091626339</v>
       </c>
       <c r="K36" t="n">
         <v>54.82947438983396</v>
@@ -37466,16 +37466,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>93.94884143525979</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>176.309479262877</v>
       </c>
       <c r="M37" t="n">
-        <v>21.99192462060119</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="N37" t="n">
-        <v>194.7858037164784</v>
+        <v>115.9407660558608</v>
       </c>
       <c r="O37" t="n">
         <v>165.9750062821341</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>9.274080916263165</v>
       </c>
       <c r="K39" t="n">
         <v>54.82947438983396</v>
       </c>
       <c r="L39" t="n">
-        <v>129.7895212220662</v>
+        <v>120.5154403058029</v>
       </c>
       <c r="M39" t="n">
         <v>160.1882265839823</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>93.94884143525979</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>172.9115802904312</v>
+        <v>176.309479262877</v>
       </c>
       <c r="M40" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="N40" t="n">
-        <v>25.38982359304663</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="O40" t="n">
         <v>165.9750062821341</v>
       </c>
       <c r="P40" t="n">
-        <v>118.2620260650689</v>
+        <v>39.41698840445127</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>161.2273678059616</v>
       </c>
       <c r="N41" t="n">
-        <v>168.4966076789572</v>
+        <v>168.4966076789568</v>
       </c>
       <c r="O41" t="n">
         <v>145.6366077739644</v>
@@ -37800,7 +37800,7 @@
         <v>89.44797949594823</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.51236745231157</v>
+        <v>18.51236745231188</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>120.5154403058029</v>
       </c>
       <c r="M42" t="n">
-        <v>169.4623075002456</v>
+        <v>169.4623075002455</v>
       </c>
       <c r="N42" t="n">
         <v>178.9821190702989</v>
@@ -37943,16 +37943,16 @@
         <v>93.94884143525979</v>
       </c>
       <c r="L43" t="n">
-        <v>166.5572665328821</v>
+        <v>176.309479262877</v>
       </c>
       <c r="M43" t="n">
-        <v>194.7858037164783</v>
+        <v>191.3879047440324</v>
       </c>
       <c r="N43" t="n">
-        <v>194.7858037164783</v>
+        <v>25.38982359304663</v>
       </c>
       <c r="O43" t="n">
-        <v>2.93333991625164</v>
+        <v>165.9750062821341</v>
       </c>
       <c r="P43" t="n">
         <v>118.2620260650689</v>
@@ -38022,7 +38022,7 @@
         <v>63.57821585716454</v>
       </c>
       <c r="L44" t="n">
-        <v>116.1489056684391</v>
+        <v>116.1489056684395</v>
       </c>
       <c r="M44" t="n">
         <v>161.2273678059616</v>
@@ -38177,13 +38177,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>93.94884143525979</v>
+        <v>39.41698840445135</v>
       </c>
       <c r="L46" t="n">
         <v>176.309479262877</v>
       </c>
       <c r="M46" t="n">
-        <v>21.99192462060084</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="N46" t="n">
         <v>194.7858037164783</v>
@@ -38192,7 +38192,7 @@
         <v>165.9750062821341</v>
       </c>
       <c r="P46" t="n">
-        <v>118.2620260650689</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_23_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_23_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1359902.678534756</v>
+        <v>1417737.472204359</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13681670.37127157</v>
+        <v>13681670.37127156</v>
       </c>
     </row>
     <row r="9">
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="G11" t="n">
-        <v>47.064644061256</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>124.5026918522179</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>9.7870511188911</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>158.2032809732317</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>194.7858037164783</v>
+        <v>3.577003821351363</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1503463929948</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>100.7119265346752</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>17.56310000152686</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.07658229661151</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>149.5205473675921</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>22.04678854588199</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>53.94142654110763</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9906650659137</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.399361900490533</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="U13" t="n">
-        <v>72.09876705996126</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>47.064644061256</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>124.5026918522179</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>171.5673359134741</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1691,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>24.12227034883522</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="U15" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>194.7858037164783</v>
       </c>
       <c r="W15" t="n">
-        <v>63.63884678116758</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
     </row>
     <row r="16">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.3334690700845</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>125.36829602054</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.399361900490533</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>182.9686094022935</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>65.44466904765309</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="I17" t="n">
-        <v>124.5026918522179</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>158.2032809732317</v>
       </c>
       <c r="T17" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="U17" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>73.86011568561153</v>
+        <v>3.577003821351194</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>69.38752669772133</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>149.5205473675921</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>171.567335913474</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="W18" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>25.13337326690481</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>153.3334690700845</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="U19" t="n">
-        <v>194.7858037164783</v>
+        <v>64.40419754165534</v>
       </c>
       <c r="V19" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>171.567335913474</v>
+        <v>3.577003821351222</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>9.7870511188911</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>158.2032809732317</v>
       </c>
       <c r="T20" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="U20" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
     </row>
     <row r="21">
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.1503463929948</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>149.5205473675921</v>
       </c>
       <c r="T21" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>150.1002887493675</v>
       </c>
       <c r="X21" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>171.567335913474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>22.63695963373799</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,22 +2283,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.399361900490533</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>40.40834751342435</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>4.32051481484619</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>171.567335913474</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>171.5673359134741</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>194.7858037164783</v>
       </c>
       <c r="Y23" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.1503463929948</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>26.07658229661151</v>
       </c>
       <c r="S24" t="n">
-        <v>57.49429424864176</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>145.4907536168626</v>
       </c>
       <c r="W24" t="n">
         <v>194.7858037164783</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
     </row>
     <row r="25">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>171.5673359134741</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>51.10106287704645</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>125.36829602054</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>22.63695963373799</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>194.7858037164783</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,67 +2563,67 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>161.7802847945829</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>171.5673359134741</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>194.7858037164783</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>9.7870511188911</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>194.7858037164783</v>
-      </c>
-      <c r="U26" t="n">
-        <v>194.7858037164783</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51633610807457</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>26.07658229661151</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>171.5673359134741</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>125.515487585815</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>2.399361900490533</v>
       </c>
       <c r="R28" t="n">
-        <v>132.3156232778259</v>
+        <v>69.91725668831816</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>161.780284794583</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>161.7802847945829</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>194.7858037164782</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.1503463929948</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>72.55771278155648</v>
       </c>
       <c r="V30" t="n">
-        <v>5.034152263606708</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="W30" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="X30" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>138.1518153616382</v>
       </c>
       <c r="G31" t="n">
         <v>166.9906650659137</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.3334690700845</v>
       </c>
       <c r="I31" t="n">
-        <v>125.36829602054</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>2.399361900490533</v>
       </c>
       <c r="R31" t="n">
-        <v>71.59481664300806</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>194.7858037164784</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>13.36405494024246</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>9.7870511188911</v>
       </c>
       <c r="S32" t="n">
         <v>158.2032809732317</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>194.7858037164784</v>
+        <v>3.577003821351306</v>
       </c>
     </row>
     <row r="33">
@@ -3122,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.1503463929948</v>
       </c>
       <c r="H33" t="n">
-        <v>100.7119265346752</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>194.7858037164784</v>
       </c>
       <c r="V33" t="n">
-        <v>107.9961326398764</v>
+        <v>72.55771278155676</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>194.7858037164784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>125.36829602054</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.399361900490533</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="U34" t="n">
         <v>194.7858037164784</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>58.7535015269847</v>
+        <v>171.5673359134742</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>194.7858037164783</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>171.567335913474</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>13.3640549402423</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>158.2032809732317</v>
       </c>
       <c r="T35" t="n">
         <v>194.7858037164783</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.567335913474</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3356,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>9.340407223867748</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.1503463929948</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>26.07658229661151</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="W36" t="n">
         <v>194.7858037164783</v>
       </c>
       <c r="X36" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>169.1679740129834</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.3334690700845</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3468,28 +3468,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.399361900490533</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>194.7858037164783</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>45.77284946123987</v>
       </c>
       <c r="X37" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>161.780284794583</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.577003821351213</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>9.7870511188911</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>158.2032809732317</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>24.12227034883531</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>117.8229691304426</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.1503463929948</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>149.5205473675921</v>
       </c>
       <c r="T39" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
     </row>
     <row r="40">
@@ -3669,22 +3669,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>23.39204586021606</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9906650659137</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.3334690700845</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>22.63695963373799</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>171.567335913474</v>
       </c>
       <c r="X40" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3.577003821351194</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="H41" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>9.7870511188911</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>158.2032809732317</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>171.567335913474</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3824,22 +3824,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.1503463929948</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>48.31597256108955</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>121.2990696954008</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>171.567335913474</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.3334690700845</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3942,31 +3942,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.399361900490533</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="T43" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>45.77284946123993</v>
       </c>
       <c r="V43" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="X43" t="n">
-        <v>194.7858037164782</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>169.1679740129835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>161.780284794583</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>37.27759294236503</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>194.7858037164783</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>124.5026918522179</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="V44" t="n">
         <v>194.7858037164783</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4067,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>100.7119265346752</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>44.77882708218734</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>26.07658229661151</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>149.5205473675921</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>194.7858037164783</v>
+        <v>93.84068459713878</v>
       </c>
       <c r="X45" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>17.13113248161074</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.9906650659137</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.399361900490533</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>194.7858037164783</v>
+        <v>148.4635983092822</v>
       </c>
       <c r="V46" t="n">
-        <v>194.7858037164783</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>385.6365406912095</v>
+        <v>409.0895384720222</v>
       </c>
       <c r="C11" t="n">
-        <v>385.6365406912095</v>
+        <v>409.0895384720222</v>
       </c>
       <c r="D11" t="n">
-        <v>385.6365406912095</v>
+        <v>409.0895384720222</v>
       </c>
       <c r="E11" t="n">
-        <v>385.6365406912095</v>
+        <v>212.3362013846702</v>
       </c>
       <c r="F11" t="n">
-        <v>385.6365406912095</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="G11" t="n">
-        <v>338.0964961848903</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="H11" t="n">
-        <v>141.3431590975384</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="I11" t="n">
-        <v>15.58286429731826</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="J11" t="n">
-        <v>23.72564365049351</v>
+        <v>23.72564365049357</v>
       </c>
       <c r="K11" t="n">
-        <v>86.6680773490865</v>
+        <v>86.66807734908707</v>
       </c>
       <c r="L11" t="n">
-        <v>201.6554939608416</v>
+        <v>201.6554939608421</v>
       </c>
       <c r="M11" t="n">
-        <v>361.2705880887434</v>
+        <v>361.2705880887443</v>
       </c>
       <c r="N11" t="n">
-        <v>528.0822296909109</v>
+        <v>528.0822296909118</v>
       </c>
       <c r="O11" t="n">
-        <v>672.2624713871356</v>
+        <v>672.2624713871364</v>
       </c>
       <c r="P11" t="n">
-        <v>760.8159710881243</v>
+        <v>760.8159710881249</v>
       </c>
       <c r="Q11" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659137</v>
       </c>
       <c r="R11" t="n">
-        <v>779.1432148659131</v>
+        <v>769.2573046448116</v>
       </c>
       <c r="S11" t="n">
-        <v>779.1432148659131</v>
+        <v>609.4560107324563</v>
       </c>
       <c r="T11" t="n">
-        <v>779.1432148659131</v>
+        <v>412.7026736451044</v>
       </c>
       <c r="U11" t="n">
-        <v>779.1432148659131</v>
+        <v>412.7026736451044</v>
       </c>
       <c r="V11" t="n">
-        <v>582.3898777785613</v>
+        <v>412.7026736451044</v>
       </c>
       <c r="W11" t="n">
-        <v>385.6365406912095</v>
+        <v>409.0895384720222</v>
       </c>
       <c r="X11" t="n">
-        <v>385.6365406912095</v>
+        <v>409.0895384720222</v>
       </c>
       <c r="Y11" t="n">
-        <v>385.6365406912095</v>
+        <v>409.0895384720222</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>752.8032327481237</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="C12" t="n">
-        <v>578.3502034669967</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="D12" t="n">
-        <v>578.3502034669967</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="E12" t="n">
-        <v>419.1127484615412</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="F12" t="n">
-        <v>272.5781904884262</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="G12" t="n">
-        <v>135.0525880712597</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="H12" t="n">
-        <v>33.32336934936559</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="I12" t="n">
-        <v>15.58286429731826</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="J12" t="n">
-        <v>15.58286429731826</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="K12" t="n">
-        <v>69.86404394325389</v>
+        <v>69.8640439432539</v>
       </c>
       <c r="L12" t="n">
-        <v>189.1743298459987</v>
+        <v>189.1743298459988</v>
       </c>
       <c r="M12" t="n">
-        <v>347.7606741641412</v>
+        <v>347.7606741641413</v>
       </c>
       <c r="N12" t="n">
         <v>524.9529720437372</v>
@@ -5138,34 +5138,34 @@
         <v>664.8295120796092</v>
       </c>
       <c r="P12" t="n">
-        <v>757.7597009487205</v>
+        <v>766.9410410558218</v>
       </c>
       <c r="Q12" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659137</v>
       </c>
       <c r="R12" t="n">
-        <v>752.8032327481237</v>
+        <v>779.1432148659137</v>
       </c>
       <c r="S12" t="n">
-        <v>752.8032327481237</v>
+        <v>628.1123589390529</v>
       </c>
       <c r="T12" t="n">
-        <v>752.8032327481237</v>
+        <v>431.359021851701</v>
       </c>
       <c r="U12" t="n">
-        <v>752.8032327481237</v>
+        <v>234.605684764349</v>
       </c>
       <c r="V12" t="n">
-        <v>752.8032327481237</v>
+        <v>37.85234767699706</v>
       </c>
       <c r="W12" t="n">
-        <v>752.8032327481237</v>
+        <v>37.85234767699706</v>
       </c>
       <c r="X12" t="n">
-        <v>752.8032327481237</v>
+        <v>37.85234767699706</v>
       </c>
       <c r="Y12" t="n">
-        <v>752.8032327481237</v>
+        <v>15.58286429731827</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>310.3859053776217</v>
+        <v>331.1502512557475</v>
       </c>
       <c r="C13" t="n">
-        <v>310.3859053776217</v>
+        <v>331.1502512557475</v>
       </c>
       <c r="D13" t="n">
-        <v>310.3859053776217</v>
+        <v>331.1502512557475</v>
       </c>
       <c r="E13" t="n">
-        <v>162.4728117952286</v>
+        <v>331.1502512557475</v>
       </c>
       <c r="F13" t="n">
-        <v>15.58286429731826</v>
+        <v>184.2603037578372</v>
       </c>
       <c r="G13" t="n">
-        <v>15.58286429731826</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="H13" t="n">
-        <v>15.58286429731826</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="I13" t="n">
-        <v>15.58286429731826</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="J13" t="n">
-        <v>15.58286429731826</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="K13" t="n">
-        <v>108.5922173182255</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="L13" t="n">
-        <v>283.1386017884737</v>
+        <v>190.1292487675665</v>
       </c>
       <c r="M13" t="n">
-        <v>304.9106071628686</v>
+        <v>382.9671944468801</v>
       </c>
       <c r="N13" t="n">
-        <v>497.7485528421821</v>
+        <v>575.8051401261937</v>
       </c>
       <c r="O13" t="n">
-        <v>662.0638090614949</v>
+        <v>740.1203963455065</v>
       </c>
       <c r="P13" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659137</v>
       </c>
       <c r="Q13" t="n">
-        <v>776.7196169866297</v>
+        <v>779.1432148659137</v>
       </c>
       <c r="R13" t="n">
-        <v>776.7196169866297</v>
+        <v>779.1432148659137</v>
       </c>
       <c r="S13" t="n">
-        <v>776.7196169866297</v>
+        <v>779.1432148659137</v>
       </c>
       <c r="T13" t="n">
-        <v>579.9662798992779</v>
+        <v>582.3898777785618</v>
       </c>
       <c r="U13" t="n">
-        <v>507.1392424649736</v>
+        <v>385.6365406912098</v>
       </c>
       <c r="V13" t="n">
-        <v>507.1392424649736</v>
+        <v>385.6365406912098</v>
       </c>
       <c r="W13" t="n">
-        <v>310.3859053776217</v>
+        <v>385.6365406912098</v>
       </c>
       <c r="X13" t="n">
-        <v>310.3859053776217</v>
+        <v>385.6365406912098</v>
       </c>
       <c r="Y13" t="n">
-        <v>310.3859053776217</v>
+        <v>385.6365406912098</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212.3362013846701</v>
+        <v>582.3898777785612</v>
       </c>
       <c r="C14" t="n">
-        <v>212.3362013846701</v>
+        <v>385.6365406912094</v>
       </c>
       <c r="D14" t="n">
-        <v>212.3362013846701</v>
+        <v>188.8832036038576</v>
       </c>
       <c r="E14" t="n">
-        <v>212.3362013846701</v>
+        <v>141.3431590975384</v>
       </c>
       <c r="F14" t="n">
-        <v>212.3362013846701</v>
+        <v>141.3431590975384</v>
       </c>
       <c r="G14" t="n">
-        <v>212.3362013846701</v>
+        <v>141.3431590975384</v>
       </c>
       <c r="H14" t="n">
-        <v>15.58286429731826</v>
+        <v>141.3431590975384</v>
       </c>
       <c r="I14" t="n">
         <v>15.58286429731826</v>
@@ -5284,46 +5284,46 @@
         <v>86.66807734908649</v>
       </c>
       <c r="L14" t="n">
-        <v>201.6554939608418</v>
+        <v>201.6554939608416</v>
       </c>
       <c r="M14" t="n">
-        <v>361.2705880887436</v>
+        <v>361.2705880887434</v>
       </c>
       <c r="N14" t="n">
-        <v>528.0822296909113</v>
+        <v>528.082229690911</v>
       </c>
       <c r="O14" t="n">
-        <v>672.262471387136</v>
+        <v>672.2624713871357</v>
       </c>
       <c r="P14" t="n">
-        <v>760.8159710881245</v>
+        <v>760.8159710881242</v>
       </c>
       <c r="Q14" t="n">
-        <v>779.1432148659133</v>
+        <v>779.143214865913</v>
       </c>
       <c r="R14" t="n">
-        <v>779.1432148659133</v>
+        <v>779.143214865913</v>
       </c>
       <c r="S14" t="n">
-        <v>779.1432148659133</v>
+        <v>779.143214865913</v>
       </c>
       <c r="T14" t="n">
-        <v>605.8428755593737</v>
+        <v>779.143214865913</v>
       </c>
       <c r="U14" t="n">
-        <v>409.0895384720219</v>
+        <v>779.143214865913</v>
       </c>
       <c r="V14" t="n">
-        <v>212.3362013846701</v>
+        <v>779.143214865913</v>
       </c>
       <c r="W14" t="n">
-        <v>212.3362013846701</v>
+        <v>779.143214865913</v>
       </c>
       <c r="X14" t="n">
-        <v>212.3362013846701</v>
+        <v>779.143214865913</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.3362013846701</v>
+        <v>779.143214865913</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>321.3548772758888</v>
+        <v>188.8832036038576</v>
       </c>
       <c r="C15" t="n">
-        <v>321.3548772758888</v>
+        <v>188.8832036038576</v>
       </c>
       <c r="D15" t="n">
-        <v>321.3548772758888</v>
+        <v>39.94879394260636</v>
       </c>
       <c r="E15" t="n">
-        <v>162.1174222704333</v>
+        <v>39.94879394260636</v>
       </c>
       <c r="F15" t="n">
-        <v>15.58286429731826</v>
+        <v>39.94879394260636</v>
       </c>
       <c r="G15" t="n">
-        <v>15.58286429731826</v>
+        <v>39.94879394260636</v>
       </c>
       <c r="H15" t="n">
-        <v>15.58286429731826</v>
+        <v>39.94879394260636</v>
       </c>
       <c r="I15" t="n">
         <v>15.58286429731826</v>
@@ -5363,46 +5363,46 @@
         <v>69.86404394325389</v>
       </c>
       <c r="L15" t="n">
-        <v>189.1743298459987</v>
+        <v>198.3556699530994</v>
       </c>
       <c r="M15" t="n">
-        <v>347.7606741641412</v>
+        <v>356.9420142712419</v>
       </c>
       <c r="N15" t="n">
-        <v>524.9529720437372</v>
+        <v>534.1343121508378</v>
       </c>
       <c r="O15" t="n">
-        <v>664.8295120796092</v>
+        <v>674.0108521867098</v>
       </c>
       <c r="P15" t="n">
-        <v>757.7597009487205</v>
+        <v>766.9410410558211</v>
       </c>
       <c r="Q15" t="n">
-        <v>779.1432148659133</v>
+        <v>779.143214865913</v>
       </c>
       <c r="R15" t="n">
-        <v>779.1432148659133</v>
+        <v>779.143214865913</v>
       </c>
       <c r="S15" t="n">
-        <v>779.1432148659133</v>
+        <v>779.143214865913</v>
       </c>
       <c r="T15" t="n">
-        <v>779.1432148659133</v>
+        <v>582.3898777785612</v>
       </c>
       <c r="U15" t="n">
-        <v>582.3898777785614</v>
+        <v>582.3898777785612</v>
       </c>
       <c r="V15" t="n">
-        <v>385.6365406912096</v>
+        <v>385.6365406912094</v>
       </c>
       <c r="W15" t="n">
-        <v>321.3548772758888</v>
+        <v>385.6365406912094</v>
       </c>
       <c r="X15" t="n">
-        <v>321.3548772758888</v>
+        <v>385.6365406912094</v>
       </c>
       <c r="Y15" t="n">
-        <v>321.3548772758888</v>
+        <v>188.8832036038576</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>591.902839812596</v>
+        <v>334.6356866375609</v>
       </c>
       <c r="C16" t="n">
-        <v>591.902839812596</v>
+        <v>165.699503709654</v>
       </c>
       <c r="D16" t="n">
-        <v>591.902839812596</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="E16" t="n">
-        <v>443.9897462302029</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="F16" t="n">
-        <v>297.0997987322925</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G16" t="n">
-        <v>297.0997987322925</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H16" t="n">
-        <v>142.2175067423081</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I16" t="n">
         <v>15.58286429731826</v>
@@ -5439,49 +5439,49 @@
         <v>15.58286429731826</v>
       </c>
       <c r="K16" t="n">
-        <v>54.60568281772521</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="L16" t="n">
-        <v>229.1520672879734</v>
+        <v>112.0726614835551</v>
       </c>
       <c r="M16" t="n">
-        <v>421.9900129672869</v>
+        <v>304.9106071628685</v>
       </c>
       <c r="N16" t="n">
-        <v>614.8279586466005</v>
+        <v>497.748552842182</v>
       </c>
       <c r="O16" t="n">
-        <v>779.1432148659133</v>
+        <v>662.0638090614948</v>
       </c>
       <c r="P16" t="n">
-        <v>779.1432148659133</v>
+        <v>779.143214865913</v>
       </c>
       <c r="Q16" t="n">
-        <v>776.7196169866298</v>
+        <v>779.143214865913</v>
       </c>
       <c r="R16" t="n">
-        <v>776.7196169866298</v>
+        <v>779.143214865913</v>
       </c>
       <c r="S16" t="n">
-        <v>776.7196169866298</v>
+        <v>779.143214865913</v>
       </c>
       <c r="T16" t="n">
-        <v>591.902839812596</v>
+        <v>779.143214865913</v>
       </c>
       <c r="U16" t="n">
-        <v>591.902839812596</v>
+        <v>713.0374885551523</v>
       </c>
       <c r="V16" t="n">
-        <v>591.902839812596</v>
+        <v>516.2841514678006</v>
       </c>
       <c r="W16" t="n">
-        <v>591.902839812596</v>
+        <v>516.2841514678006</v>
       </c>
       <c r="X16" t="n">
-        <v>591.902839812596</v>
+        <v>516.2841514678006</v>
       </c>
       <c r="Y16" t="n">
-        <v>591.902839812596</v>
+        <v>516.2841514678006</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.3431590975384</v>
+        <v>212.33620138467</v>
       </c>
       <c r="C17" t="n">
-        <v>141.3431590975384</v>
+        <v>212.33620138467</v>
       </c>
       <c r="D17" t="n">
-        <v>141.3431590975384</v>
+        <v>212.33620138467</v>
       </c>
       <c r="E17" t="n">
-        <v>141.3431590975384</v>
+        <v>212.33620138467</v>
       </c>
       <c r="F17" t="n">
-        <v>141.3431590975384</v>
+        <v>212.33620138467</v>
       </c>
       <c r="G17" t="n">
-        <v>141.3431590975384</v>
+        <v>212.33620138467</v>
       </c>
       <c r="H17" t="n">
-        <v>141.3431590975384</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I17" t="n">
         <v>15.58286429731826</v>
       </c>
       <c r="J17" t="n">
-        <v>23.72564365049361</v>
+        <v>23.72564365049351</v>
       </c>
       <c r="K17" t="n">
-        <v>86.66807734908649</v>
+        <v>86.6680773490865</v>
       </c>
       <c r="L17" t="n">
-        <v>201.6554939608414</v>
+        <v>201.6554939608416</v>
       </c>
       <c r="M17" t="n">
         <v>361.2705880887434</v>
       </c>
       <c r="N17" t="n">
-        <v>528.0822296909109</v>
+        <v>528.0822296909107</v>
       </c>
       <c r="O17" t="n">
-        <v>672.2624713871356</v>
+        <v>672.2624713871354</v>
       </c>
       <c r="P17" t="n">
-        <v>760.8159710881243</v>
+        <v>760.8159710881241</v>
       </c>
       <c r="Q17" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="R17" t="n">
-        <v>769.257304644811</v>
+        <v>769.2573046448108</v>
       </c>
       <c r="S17" t="n">
-        <v>609.4560107324558</v>
+        <v>609.4560107324555</v>
       </c>
       <c r="T17" t="n">
-        <v>412.7026736451039</v>
+        <v>412.7026736451038</v>
       </c>
       <c r="U17" t="n">
-        <v>215.9493365577521</v>
+        <v>412.7026736451038</v>
       </c>
       <c r="V17" t="n">
-        <v>141.3431590975384</v>
+        <v>409.0895384720218</v>
       </c>
       <c r="W17" t="n">
-        <v>141.3431590975384</v>
+        <v>409.0895384720218</v>
       </c>
       <c r="X17" t="n">
-        <v>141.3431590975384</v>
+        <v>409.0895384720218</v>
       </c>
       <c r="Y17" t="n">
-        <v>141.3431590975384</v>
+        <v>409.0895384720218</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.58286429731826</v>
+        <v>234.6056847643486</v>
       </c>
       <c r="C18" t="n">
-        <v>15.58286429731826</v>
+        <v>234.6056847643486</v>
       </c>
       <c r="D18" t="n">
-        <v>15.58286429731826</v>
+        <v>85.67127510309737</v>
       </c>
       <c r="E18" t="n">
-        <v>15.58286429731826</v>
+        <v>85.67127510309737</v>
       </c>
       <c r="F18" t="n">
-        <v>15.58286429731826</v>
+        <v>85.67127510309737</v>
       </c>
       <c r="G18" t="n">
         <v>15.58286429731826</v>
@@ -5594,52 +5594,52 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J18" t="n">
-        <v>15.58286429731826</v>
+        <v>24.76420440441879</v>
       </c>
       <c r="K18" t="n">
-        <v>79.04538405035464</v>
+        <v>79.04538405035441</v>
       </c>
       <c r="L18" t="n">
-        <v>198.3556699530995</v>
+        <v>198.3556699530993</v>
       </c>
       <c r="M18" t="n">
-        <v>356.942014271242</v>
+        <v>356.9420142712418</v>
       </c>
       <c r="N18" t="n">
-        <v>534.1343121508379</v>
+        <v>534.1343121508377</v>
       </c>
       <c r="O18" t="n">
-        <v>674.0108521867099</v>
+        <v>674.0108521867097</v>
       </c>
       <c r="P18" t="n">
-        <v>766.9410410558212</v>
+        <v>766.941041055821</v>
       </c>
       <c r="Q18" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="R18" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="S18" t="n">
-        <v>779.1432148659131</v>
+        <v>628.1123589390521</v>
       </c>
       <c r="T18" t="n">
-        <v>779.1432148659131</v>
+        <v>628.1123589390521</v>
       </c>
       <c r="U18" t="n">
-        <v>605.8428755593737</v>
+        <v>431.3590218517004</v>
       </c>
       <c r="V18" t="n">
-        <v>605.8428755593737</v>
+        <v>234.6056847643486</v>
       </c>
       <c r="W18" t="n">
-        <v>409.0895384720219</v>
+        <v>234.6056847643486</v>
       </c>
       <c r="X18" t="n">
-        <v>212.3362013846701</v>
+        <v>234.6056847643486</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.58286429731826</v>
+        <v>234.6056847643486</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.8832036038577</v>
+        <v>320.5817956996384</v>
       </c>
       <c r="C19" t="n">
-        <v>188.8832036038577</v>
+        <v>320.5817956996384</v>
       </c>
       <c r="D19" t="n">
-        <v>188.8832036038577</v>
+        <v>170.4651562873026</v>
       </c>
       <c r="E19" t="n">
-        <v>40.97011002146454</v>
+        <v>170.4651562873026</v>
       </c>
       <c r="F19" t="n">
-        <v>15.58286429731826</v>
+        <v>170.4651562873026</v>
       </c>
       <c r="G19" t="n">
-        <v>15.58286429731826</v>
+        <v>170.4651562873026</v>
       </c>
       <c r="H19" t="n">
         <v>15.58286429731826</v>
@@ -5682,43 +5682,43 @@
         <v>122.2886472623348</v>
       </c>
       <c r="M19" t="n">
-        <v>315.1265929416483</v>
+        <v>315.1265929416482</v>
       </c>
       <c r="N19" t="n">
-        <v>507.9645386209618</v>
+        <v>507.9645386209617</v>
       </c>
       <c r="O19" t="n">
-        <v>662.0638090614949</v>
+        <v>662.0638090614947</v>
       </c>
       <c r="P19" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="Q19" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="R19" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="S19" t="n">
-        <v>779.1432148659131</v>
+        <v>582.3898777785612</v>
       </c>
       <c r="T19" t="n">
-        <v>779.1432148659131</v>
+        <v>385.6365406912095</v>
       </c>
       <c r="U19" t="n">
-        <v>582.3898777785613</v>
+        <v>320.5817956996384</v>
       </c>
       <c r="V19" t="n">
-        <v>385.6365406912095</v>
+        <v>320.5817956996384</v>
       </c>
       <c r="W19" t="n">
-        <v>188.8832036038577</v>
+        <v>320.5817956996384</v>
       </c>
       <c r="X19" t="n">
-        <v>188.8832036038577</v>
+        <v>320.5817956996384</v>
       </c>
       <c r="Y19" t="n">
-        <v>188.8832036038577</v>
+        <v>320.5817956996384</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>188.8832036038577</v>
+        <v>215.9493365577521</v>
       </c>
       <c r="C20" t="n">
-        <v>188.8832036038577</v>
+        <v>215.9493365577521</v>
       </c>
       <c r="D20" t="n">
-        <v>188.8832036038577</v>
+        <v>215.9493365577521</v>
       </c>
       <c r="E20" t="n">
-        <v>15.58286429731826</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="F20" t="n">
-        <v>15.58286429731826</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="G20" t="n">
         <v>15.58286429731826</v>
@@ -5752,13 +5752,13 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J20" t="n">
-        <v>23.72564365049362</v>
+        <v>23.72564365049351</v>
       </c>
       <c r="K20" t="n">
         <v>86.6680773490865</v>
       </c>
       <c r="L20" t="n">
-        <v>201.6554939608412</v>
+        <v>201.6554939608416</v>
       </c>
       <c r="M20" t="n">
         <v>361.2705880887434</v>
@@ -5767,37 +5767,37 @@
         <v>528.0822296909109</v>
       </c>
       <c r="O20" t="n">
-        <v>672.2624713871355</v>
+        <v>672.2624713871356</v>
       </c>
       <c r="P20" t="n">
-        <v>760.8159710881241</v>
+        <v>760.8159710881243</v>
       </c>
       <c r="Q20" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="R20" t="n">
-        <v>779.1432148659129</v>
+        <v>769.257304644811</v>
       </c>
       <c r="S20" t="n">
-        <v>779.1432148659129</v>
+        <v>609.4560107324558</v>
       </c>
       <c r="T20" t="n">
-        <v>582.3898777785612</v>
+        <v>412.7026736451039</v>
       </c>
       <c r="U20" t="n">
-        <v>385.6365406912095</v>
+        <v>412.7026736451039</v>
       </c>
       <c r="V20" t="n">
-        <v>385.6365406912095</v>
+        <v>412.7026736451039</v>
       </c>
       <c r="W20" t="n">
-        <v>385.6365406912095</v>
+        <v>412.7026736451039</v>
       </c>
       <c r="X20" t="n">
-        <v>385.6365406912095</v>
+        <v>412.7026736451039</v>
       </c>
       <c r="Y20" t="n">
-        <v>385.6365406912095</v>
+        <v>215.9493365577521</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.58286429731826</v>
+        <v>476.495905656863</v>
       </c>
       <c r="C21" t="n">
-        <v>15.58286429731826</v>
+        <v>302.042876375736</v>
       </c>
       <c r="D21" t="n">
-        <v>15.58286429731826</v>
+        <v>153.1084667144847</v>
       </c>
       <c r="E21" t="n">
-        <v>15.58286429731826</v>
+        <v>153.1084667144847</v>
       </c>
       <c r="F21" t="n">
-        <v>15.58286429731826</v>
+        <v>153.1084667144847</v>
       </c>
       <c r="G21" t="n">
         <v>15.58286429731826</v>
@@ -5831,52 +5831,52 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J21" t="n">
-        <v>15.58286429731826</v>
+        <v>24.76420440441902</v>
       </c>
       <c r="K21" t="n">
-        <v>69.86404394325388</v>
+        <v>79.04538405035464</v>
       </c>
       <c r="L21" t="n">
-        <v>189.1743298459987</v>
+        <v>198.3556699530995</v>
       </c>
       <c r="M21" t="n">
-        <v>347.7606741641412</v>
+        <v>356.942014271242</v>
       </c>
       <c r="N21" t="n">
-        <v>524.9529720437372</v>
+        <v>534.1343121508379</v>
       </c>
       <c r="O21" t="n">
-        <v>664.8295120796092</v>
+        <v>674.0108521867099</v>
       </c>
       <c r="P21" t="n">
-        <v>757.7597009487205</v>
+        <v>766.9410410558212</v>
       </c>
       <c r="Q21" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="R21" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="S21" t="n">
-        <v>779.1432148659129</v>
+        <v>628.1123589390523</v>
       </c>
       <c r="T21" t="n">
-        <v>582.3898777785612</v>
+        <v>628.1123589390523</v>
       </c>
       <c r="U21" t="n">
-        <v>385.6365406912095</v>
+        <v>628.1123589390523</v>
       </c>
       <c r="V21" t="n">
-        <v>385.6365406912095</v>
+        <v>628.1123589390523</v>
       </c>
       <c r="W21" t="n">
-        <v>385.6365406912095</v>
+        <v>476.495905656863</v>
       </c>
       <c r="X21" t="n">
-        <v>188.8832036038577</v>
+        <v>476.495905656863</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.58286429731826</v>
+        <v>476.495905656863</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>357.5013024292155</v>
+        <v>184.5190472252252</v>
       </c>
       <c r="C22" t="n">
-        <v>188.5651195013085</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="D22" t="n">
-        <v>38.44848008897279</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="E22" t="n">
-        <v>38.44848008897279</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="F22" t="n">
-        <v>38.44848008897279</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G22" t="n">
-        <v>38.44848008897279</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H22" t="n">
-        <v>38.44848008897279</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I22" t="n">
-        <v>38.44848008897279</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="J22" t="n">
         <v>15.58286429731826</v>
@@ -5916,46 +5916,46 @@
         <v>108.5922173182255</v>
       </c>
       <c r="L22" t="n">
-        <v>283.1386017884736</v>
+        <v>283.1386017884737</v>
       </c>
       <c r="M22" t="n">
-        <v>475.9765474677871</v>
+        <v>475.9765474677872</v>
       </c>
       <c r="N22" t="n">
-        <v>668.8144931471005</v>
+        <v>668.8144931471007</v>
       </c>
       <c r="O22" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="P22" t="n">
-        <v>779.1432148659129</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="Q22" t="n">
-        <v>776.7196169866295</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="R22" t="n">
-        <v>735.9031043468069</v>
+        <v>779.1432148659131</v>
       </c>
       <c r="S22" t="n">
-        <v>735.9031043468069</v>
+        <v>774.7790584872806</v>
       </c>
       <c r="T22" t="n">
-        <v>735.9031043468069</v>
+        <v>578.0257213999288</v>
       </c>
       <c r="U22" t="n">
-        <v>735.9031043468069</v>
+        <v>381.2723843125769</v>
       </c>
       <c r="V22" t="n">
-        <v>735.9031043468069</v>
+        <v>184.5190472252252</v>
       </c>
       <c r="W22" t="n">
-        <v>735.9031043468069</v>
+        <v>184.5190472252252</v>
       </c>
       <c r="X22" t="n">
-        <v>735.9031043468069</v>
+        <v>184.5190472252252</v>
       </c>
       <c r="Y22" t="n">
-        <v>539.1497672594552</v>
+        <v>184.5190472252252</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>188.8832036038577</v>
+        <v>385.6365406912096</v>
       </c>
       <c r="C23" t="n">
-        <v>188.8832036038577</v>
+        <v>385.6365406912096</v>
       </c>
       <c r="D23" t="n">
-        <v>15.58286429731826</v>
+        <v>385.6365406912096</v>
       </c>
       <c r="E23" t="n">
-        <v>15.58286429731826</v>
+        <v>385.6365406912096</v>
       </c>
       <c r="F23" t="n">
-        <v>15.58286429731826</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="G23" t="n">
         <v>15.58286429731826</v>
@@ -5989,52 +5989,52 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J23" t="n">
-        <v>23.72564365049351</v>
+        <v>23.72564365049359</v>
       </c>
       <c r="K23" t="n">
-        <v>86.6680773490865</v>
+        <v>86.66807734908649</v>
       </c>
       <c r="L23" t="n">
-        <v>201.6554939608416</v>
+        <v>201.6554939608415</v>
       </c>
       <c r="M23" t="n">
-        <v>361.2705880887434</v>
+        <v>361.2705880887436</v>
       </c>
       <c r="N23" t="n">
-        <v>528.0822296909109</v>
+        <v>528.0822296909112</v>
       </c>
       <c r="O23" t="n">
-        <v>672.2624713871356</v>
+        <v>672.2624713871359</v>
       </c>
       <c r="P23" t="n">
-        <v>760.8159710881243</v>
+        <v>760.8159710881246</v>
       </c>
       <c r="Q23" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="R23" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="S23" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="T23" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="U23" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="V23" t="n">
-        <v>582.3898777785613</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="W23" t="n">
-        <v>582.3898777785613</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="X23" t="n">
-        <v>385.6365406912095</v>
+        <v>582.3898777785614</v>
       </c>
       <c r="Y23" t="n">
-        <v>188.8832036038577</v>
+        <v>582.3898777785614</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>327.5614959956117</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="C24" t="n">
-        <v>153.1084667144847</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="D24" t="n">
-        <v>153.1084667144847</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="E24" t="n">
-        <v>153.1084667144847</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="F24" t="n">
-        <v>153.1084667144847</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G24" t="n">
         <v>15.58286429731826</v>
@@ -6068,52 +6068,52 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J24" t="n">
-        <v>24.76420440441902</v>
+        <v>24.76420440441913</v>
       </c>
       <c r="K24" t="n">
-        <v>79.04538405035464</v>
+        <v>79.04538405035476</v>
       </c>
       <c r="L24" t="n">
-        <v>198.3556699530995</v>
+        <v>198.3556699530996</v>
       </c>
       <c r="M24" t="n">
-        <v>356.942014271242</v>
+        <v>356.9420142712421</v>
       </c>
       <c r="N24" t="n">
-        <v>534.1343121508379</v>
+        <v>534.134312150838</v>
       </c>
       <c r="O24" t="n">
-        <v>674.0108521867099</v>
+        <v>674.0108521867101</v>
       </c>
       <c r="P24" t="n">
-        <v>766.9410410558212</v>
+        <v>766.9410410558213</v>
       </c>
       <c r="Q24" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="R24" t="n">
-        <v>779.1432148659131</v>
+        <v>752.8032327481238</v>
       </c>
       <c r="S24" t="n">
-        <v>721.0681701703154</v>
+        <v>752.8032327481238</v>
       </c>
       <c r="T24" t="n">
-        <v>524.3148330829636</v>
+        <v>752.8032327481238</v>
       </c>
       <c r="U24" t="n">
-        <v>524.3148330829636</v>
+        <v>752.8032327481238</v>
       </c>
       <c r="V24" t="n">
-        <v>524.3148330829636</v>
+        <v>605.8428755593737</v>
       </c>
       <c r="W24" t="n">
-        <v>327.5614959956117</v>
+        <v>409.0895384720219</v>
       </c>
       <c r="X24" t="n">
-        <v>327.5614959956117</v>
+        <v>212.3362013846701</v>
       </c>
       <c r="Y24" t="n">
-        <v>327.5614959956117</v>
+        <v>15.58286429731826</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>385.6365406912095</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="C25" t="n">
-        <v>216.7003577633025</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="D25" t="n">
-        <v>216.7003577633025</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="E25" t="n">
-        <v>216.7003577633025</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="F25" t="n">
-        <v>216.7003577633025</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G25" t="n">
-        <v>165.0831225339627</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H25" t="n">
-        <v>165.0831225339627</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I25" t="n">
-        <v>38.4484800889728</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="J25" t="n">
         <v>15.58286429731826</v>
       </c>
       <c r="K25" t="n">
-        <v>98.37623153944577</v>
+        <v>108.5922173182255</v>
       </c>
       <c r="L25" t="n">
-        <v>112.0726614835551</v>
+        <v>283.1386017884737</v>
       </c>
       <c r="M25" t="n">
-        <v>304.9106071628686</v>
+        <v>466.3218568650924</v>
       </c>
       <c r="N25" t="n">
-        <v>497.7485528421821</v>
+        <v>659.1598025444059</v>
       </c>
       <c r="O25" t="n">
-        <v>662.0638090614949</v>
+        <v>662.063809061495</v>
       </c>
       <c r="P25" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="Q25" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="R25" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="S25" t="n">
-        <v>582.3898777785613</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="T25" t="n">
-        <v>582.3898777785613</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="U25" t="n">
-        <v>385.6365406912095</v>
+        <v>582.3898777785614</v>
       </c>
       <c r="V25" t="n">
-        <v>385.6365406912095</v>
+        <v>385.6365406912096</v>
       </c>
       <c r="W25" t="n">
-        <v>385.6365406912095</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="X25" t="n">
-        <v>385.6365406912095</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="Y25" t="n">
-        <v>385.6365406912095</v>
+        <v>188.8832036038577</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>375.7506304701074</v>
+        <v>409.0895384720219</v>
       </c>
       <c r="C26" t="n">
-        <v>375.7506304701074</v>
+        <v>409.0895384720219</v>
       </c>
       <c r="D26" t="n">
-        <v>375.7506304701074</v>
+        <v>409.0895384720219</v>
       </c>
       <c r="E26" t="n">
-        <v>212.3362013846701</v>
+        <v>409.0895384720219</v>
       </c>
       <c r="F26" t="n">
         <v>212.3362013846701</v>
       </c>
       <c r="G26" t="n">
-        <v>212.3362013846701</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H26" t="n">
         <v>15.58286429731826</v>
@@ -6226,52 +6226,52 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J26" t="n">
-        <v>23.72564365049334</v>
+        <v>23.72564365049361</v>
       </c>
       <c r="K26" t="n">
-        <v>86.66807734908623</v>
+        <v>86.66807734908649</v>
       </c>
       <c r="L26" t="n">
-        <v>201.6554939608413</v>
+        <v>201.6554939608418</v>
       </c>
       <c r="M26" t="n">
-        <v>361.2705880887433</v>
+        <v>361.2705880887436</v>
       </c>
       <c r="N26" t="n">
-        <v>528.0822296909109</v>
+        <v>528.0822296909113</v>
       </c>
       <c r="O26" t="n">
-        <v>672.2624713871356</v>
+        <v>672.262471387136</v>
       </c>
       <c r="P26" t="n">
-        <v>760.8159710881243</v>
+        <v>760.8159710881245</v>
       </c>
       <c r="Q26" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="R26" t="n">
-        <v>769.257304644811</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="S26" t="n">
-        <v>769.257304644811</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="T26" t="n">
-        <v>572.5039675574592</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="U26" t="n">
-        <v>375.7506304701074</v>
+        <v>605.8428755593737</v>
       </c>
       <c r="V26" t="n">
-        <v>375.7506304701074</v>
+        <v>605.8428755593737</v>
       </c>
       <c r="W26" t="n">
-        <v>375.7506304701074</v>
+        <v>605.8428755593737</v>
       </c>
       <c r="X26" t="n">
-        <v>375.7506304701074</v>
+        <v>605.8428755593737</v>
       </c>
       <c r="Y26" t="n">
-        <v>375.7506304701074</v>
+        <v>409.0895384720219</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>584.5878957280556</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="C27" t="n">
-        <v>410.1348664469286</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="D27" t="n">
-        <v>261.2004567856774</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="E27" t="n">
-        <v>101.9630017802219</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="F27" t="n">
-        <v>101.9630017802219</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G27" t="n">
-        <v>101.9630017802219</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H27" t="n">
         <v>15.58286429731826</v>
@@ -6305,52 +6305,52 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J27" t="n">
-        <v>24.76420440441902</v>
+        <v>24.76420440441913</v>
       </c>
       <c r="K27" t="n">
-        <v>79.04538405035464</v>
+        <v>79.04538405035476</v>
       </c>
       <c r="L27" t="n">
-        <v>198.3556699530995</v>
+        <v>198.3556699530996</v>
       </c>
       <c r="M27" t="n">
-        <v>356.942014271242</v>
+        <v>356.9420142712421</v>
       </c>
       <c r="N27" t="n">
-        <v>534.1343121508379</v>
+        <v>534.134312150838</v>
       </c>
       <c r="O27" t="n">
-        <v>674.0108521867099</v>
+        <v>674.0108521867101</v>
       </c>
       <c r="P27" t="n">
-        <v>766.9410410558212</v>
+        <v>766.9410410558213</v>
       </c>
       <c r="Q27" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="R27" t="n">
-        <v>752.8032327481237</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="S27" t="n">
-        <v>752.8032327481237</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="T27" t="n">
-        <v>752.8032327481237</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="U27" t="n">
-        <v>752.8032327481237</v>
+        <v>582.3898777785614</v>
       </c>
       <c r="V27" t="n">
-        <v>752.8032327481237</v>
+        <v>385.6365406912096</v>
       </c>
       <c r="W27" t="n">
-        <v>752.8032327481237</v>
+        <v>188.8832036038577</v>
       </c>
       <c r="X27" t="n">
-        <v>752.8032327481237</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="Y27" t="n">
-        <v>752.8032327481237</v>
+        <v>15.58286429731826</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>461.4190074313134</v>
+        <v>312.5894512075644</v>
       </c>
       <c r="C28" t="n">
-        <v>292.4828245034065</v>
+        <v>312.5894512075644</v>
       </c>
       <c r="D28" t="n">
-        <v>142.3661850910708</v>
+        <v>162.4728117952286</v>
       </c>
       <c r="E28" t="n">
-        <v>142.3661850910708</v>
+        <v>162.4728117952286</v>
       </c>
       <c r="F28" t="n">
-        <v>142.3661850910708</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G28" t="n">
-        <v>142.3661850910708</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H28" t="n">
         <v>15.58286429731826</v>
@@ -6387,49 +6387,49 @@
         <v>15.58286429731826</v>
       </c>
       <c r="K28" t="n">
-        <v>15.58286429731826</v>
+        <v>108.5922173182255</v>
       </c>
       <c r="L28" t="n">
-        <v>190.1292487675665</v>
+        <v>283.1386017884737</v>
       </c>
       <c r="M28" t="n">
-        <v>382.9671944468799</v>
+        <v>304.9106071628687</v>
       </c>
       <c r="N28" t="n">
-        <v>575.8051401261935</v>
+        <v>497.7485528421822</v>
       </c>
       <c r="O28" t="n">
-        <v>740.1203963455063</v>
+        <v>662.063809061495</v>
       </c>
       <c r="P28" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659133</v>
       </c>
       <c r="Q28" t="n">
-        <v>776.7196169866297</v>
+        <v>776.7196169866298</v>
       </c>
       <c r="R28" t="n">
-        <v>643.0674722615531</v>
+        <v>706.096125382268</v>
       </c>
       <c r="S28" t="n">
-        <v>643.0674722615531</v>
+        <v>706.096125382268</v>
       </c>
       <c r="T28" t="n">
-        <v>643.0674722615531</v>
+        <v>509.3427882949162</v>
       </c>
       <c r="U28" t="n">
-        <v>643.0674722615531</v>
+        <v>509.3427882949162</v>
       </c>
       <c r="V28" t="n">
-        <v>643.0674722615531</v>
+        <v>312.5894512075644</v>
       </c>
       <c r="W28" t="n">
-        <v>643.0674722615531</v>
+        <v>312.5894512075644</v>
       </c>
       <c r="X28" t="n">
-        <v>643.0674722615531</v>
+        <v>312.5894512075644</v>
       </c>
       <c r="Y28" t="n">
-        <v>643.0674722615531</v>
+        <v>312.5894512075644</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.3362013846701</v>
+        <v>375.7506304701074</v>
       </c>
       <c r="C29" t="n">
-        <v>212.3362013846701</v>
+        <v>375.7506304701074</v>
       </c>
       <c r="D29" t="n">
-        <v>212.3362013846701</v>
+        <v>178.9972933827556</v>
       </c>
       <c r="E29" t="n">
-        <v>212.3362013846701</v>
+        <v>178.9972933827556</v>
       </c>
       <c r="F29" t="n">
-        <v>212.3362013846701</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G29" t="n">
-        <v>212.3362013846701</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H29" t="n">
         <v>15.58286429731826</v>
@@ -6466,49 +6466,49 @@
         <v>23.72564365049359</v>
       </c>
       <c r="K29" t="n">
-        <v>86.66807734908649</v>
+        <v>86.66807734908647</v>
       </c>
       <c r="L29" t="n">
         <v>201.6554939608415</v>
       </c>
       <c r="M29" t="n">
-        <v>361.2705880887436</v>
+        <v>361.2705880887432</v>
       </c>
       <c r="N29" t="n">
-        <v>528.0822296909112</v>
+        <v>528.0822296909108</v>
       </c>
       <c r="O29" t="n">
-        <v>672.2624713871359</v>
+        <v>672.2624713871355</v>
       </c>
       <c r="P29" t="n">
-        <v>760.8159710881246</v>
+        <v>760.8159710881241</v>
       </c>
       <c r="Q29" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="R29" t="n">
-        <v>769.257304644811</v>
+        <v>769.2573046448108</v>
       </c>
       <c r="S29" t="n">
-        <v>769.257304644811</v>
+        <v>769.2573046448108</v>
       </c>
       <c r="T29" t="n">
-        <v>572.5039675574592</v>
+        <v>769.2573046448108</v>
       </c>
       <c r="U29" t="n">
+        <v>769.2573046448108</v>
+      </c>
+      <c r="V29" t="n">
+        <v>572.5039675574591</v>
+      </c>
+      <c r="W29" t="n">
+        <v>572.5039675574591</v>
+      </c>
+      <c r="X29" t="n">
+        <v>572.5039675574591</v>
+      </c>
+      <c r="Y29" t="n">
         <v>375.7506304701074</v>
-      </c>
-      <c r="V29" t="n">
-        <v>375.7506304701074</v>
-      </c>
-      <c r="W29" t="n">
-        <v>375.7506304701074</v>
-      </c>
-      <c r="X29" t="n">
-        <v>212.3362013846701</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>212.3362013846701</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15.58286429731826</v>
+        <v>312.3459217199402</v>
       </c>
       <c r="C30" t="n">
-        <v>15.58286429731826</v>
+        <v>312.3459217199402</v>
       </c>
       <c r="D30" t="n">
-        <v>15.58286429731826</v>
+        <v>312.3459217199402</v>
       </c>
       <c r="E30" t="n">
-        <v>15.58286429731826</v>
+        <v>153.1084667144847</v>
       </c>
       <c r="F30" t="n">
-        <v>15.58286429731826</v>
+        <v>153.1084667144847</v>
       </c>
       <c r="G30" t="n">
         <v>15.58286429731826</v>
@@ -6542,52 +6542,52 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J30" t="n">
-        <v>24.76420440441902</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="K30" t="n">
-        <v>79.04538405035464</v>
+        <v>79.04538405035441</v>
       </c>
       <c r="L30" t="n">
-        <v>198.3556699530995</v>
+        <v>198.3556699530993</v>
       </c>
       <c r="M30" t="n">
-        <v>356.942014271242</v>
+        <v>356.9420142712418</v>
       </c>
       <c r="N30" t="n">
-        <v>534.1343121508379</v>
+        <v>534.1343121508377</v>
       </c>
       <c r="O30" t="n">
-        <v>674.0108521867099</v>
+        <v>674.0108521867097</v>
       </c>
       <c r="P30" t="n">
-        <v>766.9410410558212</v>
+        <v>766.941041055821</v>
       </c>
       <c r="Q30" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="R30" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="S30" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="T30" t="n">
-        <v>582.3898777785613</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="U30" t="n">
-        <v>582.3898777785613</v>
+        <v>705.8525958946437</v>
       </c>
       <c r="V30" t="n">
-        <v>577.3048754920899</v>
+        <v>509.099258807292</v>
       </c>
       <c r="W30" t="n">
-        <v>380.5515384047381</v>
+        <v>312.3459217199402</v>
       </c>
       <c r="X30" t="n">
-        <v>183.7982013173863</v>
+        <v>312.3459217199402</v>
       </c>
       <c r="Y30" t="n">
-        <v>183.7982013173863</v>
+        <v>312.3459217199402</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>310.894946202827</v>
+        <v>776.7196169866295</v>
       </c>
       <c r="C31" t="n">
-        <v>310.894946202827</v>
+        <v>776.7196169866295</v>
       </c>
       <c r="D31" t="n">
-        <v>310.894946202827</v>
+        <v>626.6029775742937</v>
       </c>
       <c r="E31" t="n">
-        <v>310.894946202827</v>
+        <v>478.6898839919006</v>
       </c>
       <c r="F31" t="n">
-        <v>310.894946202827</v>
+        <v>339.1425957478216</v>
       </c>
       <c r="G31" t="n">
-        <v>142.2175067423081</v>
+        <v>170.4651562873026</v>
       </c>
       <c r="H31" t="n">
-        <v>142.2175067423081</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I31" t="n">
         <v>15.58286429731826</v>
@@ -6624,49 +6624,49 @@
         <v>15.58286429731826</v>
       </c>
       <c r="K31" t="n">
-        <v>108.5922173182255</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="L31" t="n">
-        <v>229.1520672879733</v>
+        <v>112.072661483555</v>
       </c>
       <c r="M31" t="n">
-        <v>421.9900129672868</v>
+        <v>304.9106071628685</v>
       </c>
       <c r="N31" t="n">
-        <v>614.8279586466003</v>
+        <v>497.7485528421819</v>
       </c>
       <c r="O31" t="n">
-        <v>779.1432148659131</v>
+        <v>662.0638090614947</v>
       </c>
       <c r="P31" t="n">
-        <v>779.1432148659131</v>
+        <v>779.1432148659129</v>
       </c>
       <c r="Q31" t="n">
-        <v>776.7196169866297</v>
+        <v>776.7196169866295</v>
       </c>
       <c r="R31" t="n">
-        <v>704.4016203775307</v>
+        <v>776.7196169866295</v>
       </c>
       <c r="S31" t="n">
-        <v>704.4016203775307</v>
+        <v>776.7196169866295</v>
       </c>
       <c r="T31" t="n">
-        <v>704.4016203775307</v>
+        <v>776.7196169866295</v>
       </c>
       <c r="U31" t="n">
-        <v>704.4016203775307</v>
+        <v>776.7196169866295</v>
       </c>
       <c r="V31" t="n">
-        <v>507.6482832901788</v>
+        <v>776.7196169866295</v>
       </c>
       <c r="W31" t="n">
-        <v>507.6482832901788</v>
+        <v>776.7196169866295</v>
       </c>
       <c r="X31" t="n">
-        <v>310.894946202827</v>
+        <v>776.7196169866295</v>
       </c>
       <c r="Y31" t="n">
-        <v>310.894946202827</v>
+        <v>776.7196169866295</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.5885838662065</v>
+        <v>212.3362013846702</v>
       </c>
       <c r="C32" t="n">
-        <v>225.8352467788545</v>
+        <v>212.3362013846702</v>
       </c>
       <c r="D32" t="n">
-        <v>29.08190969150257</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="E32" t="n">
-        <v>29.08190969150257</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="F32" t="n">
-        <v>29.08190969150257</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="G32" t="n">
         <v>15.58286429731827</v>
@@ -6706,46 +6706,46 @@
         <v>86.66807734908707</v>
       </c>
       <c r="L32" t="n">
-        <v>201.6554939608421</v>
+        <v>201.655493960842</v>
       </c>
       <c r="M32" t="n">
-        <v>361.2705880887443</v>
+        <v>361.2705880887438</v>
       </c>
       <c r="N32" t="n">
-        <v>528.0822296909118</v>
+        <v>528.0822296909115</v>
       </c>
       <c r="O32" t="n">
-        <v>672.2624713871364</v>
+        <v>672.2624713871362</v>
       </c>
       <c r="P32" t="n">
-        <v>760.8159710881249</v>
+        <v>760.8159710881247</v>
       </c>
       <c r="Q32" t="n">
-        <v>779.1432148659137</v>
+        <v>779.1432148659135</v>
       </c>
       <c r="R32" t="n">
-        <v>779.1432148659137</v>
+        <v>769.2573046448114</v>
       </c>
       <c r="S32" t="n">
-        <v>619.3419209535584</v>
+        <v>609.4560107324561</v>
       </c>
       <c r="T32" t="n">
-        <v>619.3419209535584</v>
+        <v>412.7026736451042</v>
       </c>
       <c r="U32" t="n">
-        <v>619.3419209535584</v>
+        <v>412.7026736451042</v>
       </c>
       <c r="V32" t="n">
-        <v>619.3419209535584</v>
+        <v>215.9493365577523</v>
       </c>
       <c r="W32" t="n">
-        <v>619.3419209535584</v>
+        <v>215.9493365577523</v>
       </c>
       <c r="X32" t="n">
-        <v>619.3419209535584</v>
+        <v>215.9493365577523</v>
       </c>
       <c r="Y32" t="n">
-        <v>422.5885838662065</v>
+        <v>212.3362013846702</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>276.5495380246679</v>
+        <v>312.3459217199403</v>
       </c>
       <c r="C33" t="n">
-        <v>276.5495380246679</v>
+        <v>312.3459217199403</v>
       </c>
       <c r="D33" t="n">
-        <v>276.5495380246679</v>
+        <v>312.3459217199403</v>
       </c>
       <c r="E33" t="n">
-        <v>117.3120830192124</v>
+        <v>153.1084667144848</v>
       </c>
       <c r="F33" t="n">
-        <v>117.3120830192124</v>
+        <v>153.1084667144848</v>
       </c>
       <c r="G33" t="n">
-        <v>117.3120830192124</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="H33" t="n">
         <v>15.58286429731827</v>
@@ -6779,52 +6779,52 @@
         <v>15.58286429731827</v>
       </c>
       <c r="J33" t="n">
-        <v>15.58286429731827</v>
+        <v>24.76420440441936</v>
       </c>
       <c r="K33" t="n">
-        <v>69.8640439432539</v>
+        <v>79.04538405035498</v>
       </c>
       <c r="L33" t="n">
-        <v>189.1743298459988</v>
+        <v>198.3556699530998</v>
       </c>
       <c r="M33" t="n">
-        <v>356.9420142712426</v>
+        <v>356.9420142712423</v>
       </c>
       <c r="N33" t="n">
-        <v>534.1343121508385</v>
+        <v>534.1343121508382</v>
       </c>
       <c r="O33" t="n">
-        <v>674.0108521867105</v>
+        <v>674.0108521867103</v>
       </c>
       <c r="P33" t="n">
-        <v>766.9410410558218</v>
+        <v>766.9410410558215</v>
       </c>
       <c r="Q33" t="n">
-        <v>779.1432148659137</v>
+        <v>779.1432148659135</v>
       </c>
       <c r="R33" t="n">
-        <v>779.1432148659137</v>
+        <v>779.1432148659135</v>
       </c>
       <c r="S33" t="n">
-        <v>779.1432148659137</v>
+        <v>779.1432148659135</v>
       </c>
       <c r="T33" t="n">
-        <v>779.1432148659137</v>
+        <v>779.1432148659135</v>
       </c>
       <c r="U33" t="n">
-        <v>582.3898777785618</v>
+        <v>582.3898777785616</v>
       </c>
       <c r="V33" t="n">
-        <v>473.3028751120199</v>
+        <v>509.0992588072922</v>
       </c>
       <c r="W33" t="n">
-        <v>473.3028751120199</v>
+        <v>312.3459217199403</v>
       </c>
       <c r="X33" t="n">
-        <v>473.3028751120199</v>
+        <v>312.3459217199403</v>
       </c>
       <c r="Y33" t="n">
-        <v>276.5495380246679</v>
+        <v>312.3459217199403</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.2175067423082</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="C34" t="n">
-        <v>142.2175067423082</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="D34" t="n">
-        <v>142.2175067423082</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="E34" t="n">
-        <v>142.2175067423082</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="F34" t="n">
-        <v>142.2175067423082</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="G34" t="n">
-        <v>142.2175067423082</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="H34" t="n">
-        <v>142.2175067423082</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="I34" t="n">
         <v>15.58286429731827</v>
@@ -6861,49 +6861,49 @@
         <v>15.58286429731827</v>
       </c>
       <c r="K34" t="n">
-        <v>108.5922173182255</v>
+        <v>15.58286429731827</v>
       </c>
       <c r="L34" t="n">
-        <v>283.1386017884737</v>
+        <v>112.0726614835553</v>
       </c>
       <c r="M34" t="n">
-        <v>472.6126274850665</v>
+        <v>304.9106071628689</v>
       </c>
       <c r="N34" t="n">
-        <v>497.7485528421827</v>
+        <v>497.7485528421824</v>
       </c>
       <c r="O34" t="n">
-        <v>662.0638090614955</v>
+        <v>662.0638090614952</v>
       </c>
       <c r="P34" t="n">
-        <v>779.1432148659137</v>
+        <v>779.1432148659135</v>
       </c>
       <c r="Q34" t="n">
-        <v>776.7196169866303</v>
+        <v>779.1432148659135</v>
       </c>
       <c r="R34" t="n">
-        <v>776.7196169866303</v>
+        <v>779.1432148659135</v>
       </c>
       <c r="S34" t="n">
-        <v>776.7196169866303</v>
+        <v>779.1432148659135</v>
       </c>
       <c r="T34" t="n">
-        <v>776.7196169866303</v>
+        <v>582.3898777785616</v>
       </c>
       <c r="U34" t="n">
-        <v>579.9662798992783</v>
+        <v>385.6365406912097</v>
       </c>
       <c r="V34" t="n">
-        <v>383.2129428119264</v>
+        <v>188.8832036038579</v>
       </c>
       <c r="W34" t="n">
-        <v>383.2129428119264</v>
+        <v>188.8832036038579</v>
       </c>
       <c r="X34" t="n">
-        <v>383.2129428119264</v>
+        <v>188.8832036038579</v>
       </c>
       <c r="Y34" t="n">
-        <v>323.8659715725479</v>
+        <v>15.58286429731827</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>385.6365406912095</v>
+        <v>225.8352467788542</v>
       </c>
       <c r="C35" t="n">
-        <v>385.6365406912095</v>
+        <v>225.8352467788542</v>
       </c>
       <c r="D35" t="n">
-        <v>188.8832036038577</v>
+        <v>225.8352467788542</v>
       </c>
       <c r="E35" t="n">
-        <v>188.8832036038577</v>
+        <v>225.8352467788542</v>
       </c>
       <c r="F35" t="n">
-        <v>188.8832036038577</v>
+        <v>29.0819096915024</v>
       </c>
       <c r="G35" t="n">
-        <v>15.58286429731826</v>
+        <v>29.0819096915024</v>
       </c>
       <c r="H35" t="n">
-        <v>15.58286429731826</v>
+        <v>29.0819096915024</v>
       </c>
       <c r="I35" t="n">
         <v>15.58286429731826</v>
       </c>
       <c r="J35" t="n">
-        <v>23.72564365049361</v>
+        <v>23.72564365049345</v>
       </c>
       <c r="K35" t="n">
-        <v>86.66807734908649</v>
+        <v>86.66807734908645</v>
       </c>
       <c r="L35" t="n">
         <v>201.6554939608415</v>
@@ -6952,37 +6952,37 @@
         <v>528.0822296909109</v>
       </c>
       <c r="O35" t="n">
-        <v>672.2624713871356</v>
+        <v>672.2624713871355</v>
       </c>
       <c r="P35" t="n">
-        <v>760.8159710881243</v>
+        <v>760.8159710881242</v>
       </c>
       <c r="Q35" t="n">
-        <v>779.1432148659131</v>
+        <v>779.143214865913</v>
       </c>
       <c r="R35" t="n">
-        <v>779.1432148659131</v>
+        <v>779.143214865913</v>
       </c>
       <c r="S35" t="n">
-        <v>779.1432148659131</v>
+        <v>619.3419209535577</v>
       </c>
       <c r="T35" t="n">
-        <v>582.3898777785613</v>
+        <v>422.588583866206</v>
       </c>
       <c r="U35" t="n">
-        <v>582.3898777785613</v>
+        <v>225.8352467788542</v>
       </c>
       <c r="V35" t="n">
-        <v>582.3898777785613</v>
+        <v>225.8352467788542</v>
       </c>
       <c r="W35" t="n">
-        <v>385.6365406912095</v>
+        <v>225.8352467788542</v>
       </c>
       <c r="X35" t="n">
-        <v>385.6365406912095</v>
+        <v>225.8352467788542</v>
       </c>
       <c r="Y35" t="n">
-        <v>385.6365406912095</v>
+        <v>225.8352467788542</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>188.8832036038577</v>
+        <v>162.5432214860683</v>
       </c>
       <c r="C36" t="n">
-        <v>15.58286429731826</v>
+        <v>162.5432214860683</v>
       </c>
       <c r="D36" t="n">
-        <v>15.58286429731826</v>
+        <v>162.5432214860683</v>
       </c>
       <c r="E36" t="n">
-        <v>15.58286429731826</v>
+        <v>162.5432214860683</v>
       </c>
       <c r="F36" t="n">
-        <v>15.58286429731826</v>
+        <v>153.1084667144847</v>
       </c>
       <c r="G36" t="n">
         <v>15.58286429731826</v>
@@ -7016,52 +7016,52 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J36" t="n">
-        <v>24.76420440441902</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="K36" t="n">
-        <v>79.04538405035464</v>
+        <v>69.86404394325389</v>
       </c>
       <c r="L36" t="n">
-        <v>198.3556699530995</v>
+        <v>198.3556699530994</v>
       </c>
       <c r="M36" t="n">
-        <v>356.942014271242</v>
+        <v>356.9420142712419</v>
       </c>
       <c r="N36" t="n">
-        <v>534.1343121508379</v>
+        <v>534.1343121508378</v>
       </c>
       <c r="O36" t="n">
-        <v>674.0108521867099</v>
+        <v>674.0108521867098</v>
       </c>
       <c r="P36" t="n">
-        <v>766.9410410558212</v>
+        <v>766.9410410558211</v>
       </c>
       <c r="Q36" t="n">
-        <v>779.1432148659131</v>
+        <v>779.143214865913</v>
       </c>
       <c r="R36" t="n">
-        <v>779.1432148659131</v>
+        <v>752.8032327481236</v>
       </c>
       <c r="S36" t="n">
-        <v>779.1432148659131</v>
+        <v>752.8032327481236</v>
       </c>
       <c r="T36" t="n">
-        <v>779.1432148659131</v>
+        <v>556.0498956607719</v>
       </c>
       <c r="U36" t="n">
-        <v>779.1432148659131</v>
+        <v>556.0498956607719</v>
       </c>
       <c r="V36" t="n">
-        <v>779.1432148659131</v>
+        <v>359.2965585734201</v>
       </c>
       <c r="W36" t="n">
-        <v>582.3898777785613</v>
+        <v>162.5432214860683</v>
       </c>
       <c r="X36" t="n">
-        <v>385.6365406912095</v>
+        <v>162.5432214860683</v>
       </c>
       <c r="Y36" t="n">
-        <v>188.8832036038577</v>
+        <v>162.5432214860683</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.58286429731826</v>
+        <v>339.4013392152095</v>
       </c>
       <c r="C37" t="n">
-        <v>15.58286429731826</v>
+        <v>170.4651562873026</v>
       </c>
       <c r="D37" t="n">
-        <v>15.58286429731826</v>
+        <v>170.4651562873026</v>
       </c>
       <c r="E37" t="n">
-        <v>15.58286429731826</v>
+        <v>170.4651562873026</v>
       </c>
       <c r="F37" t="n">
-        <v>15.58286429731826</v>
+        <v>170.4651562873026</v>
       </c>
       <c r="G37" t="n">
-        <v>15.58286429731826</v>
+        <v>170.4651562873026</v>
       </c>
       <c r="H37" t="n">
         <v>15.58286429731826</v>
@@ -7107,40 +7107,40 @@
         <v>382.9671944468799</v>
       </c>
       <c r="N37" t="n">
-        <v>497.7485528421821</v>
+        <v>575.8051401261935</v>
       </c>
       <c r="O37" t="n">
-        <v>662.0638090614949</v>
+        <v>740.1203963455063</v>
       </c>
       <c r="P37" t="n">
-        <v>779.1432148659131</v>
+        <v>779.143214865913</v>
       </c>
       <c r="Q37" t="n">
-        <v>776.7196169866297</v>
+        <v>779.143214865913</v>
       </c>
       <c r="R37" t="n">
-        <v>776.7196169866297</v>
+        <v>779.143214865913</v>
       </c>
       <c r="S37" t="n">
-        <v>776.7196169866297</v>
+        <v>582.3898777785612</v>
       </c>
       <c r="T37" t="n">
-        <v>776.7196169866297</v>
+        <v>582.3898777785612</v>
       </c>
       <c r="U37" t="n">
-        <v>579.9662798992779</v>
+        <v>582.3898777785612</v>
       </c>
       <c r="V37" t="n">
-        <v>383.212942811926</v>
+        <v>385.6365406912094</v>
       </c>
       <c r="W37" t="n">
-        <v>383.212942811926</v>
+        <v>339.4013392152095</v>
       </c>
       <c r="X37" t="n">
-        <v>186.4596057245742</v>
+        <v>339.4013392152095</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.4596057245742</v>
+        <v>339.4013392152095</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.33620138467</v>
+        <v>215.9493365577521</v>
       </c>
       <c r="C38" t="n">
-        <v>212.33620138467</v>
+        <v>215.9493365577521</v>
       </c>
       <c r="D38" t="n">
-        <v>212.33620138467</v>
+        <v>215.9493365577521</v>
       </c>
       <c r="E38" t="n">
-        <v>212.33620138467</v>
+        <v>215.9493365577521</v>
       </c>
       <c r="F38" t="n">
-        <v>212.33620138467</v>
+        <v>215.9493365577521</v>
       </c>
       <c r="G38" t="n">
-        <v>212.33620138467</v>
+        <v>215.9493365577521</v>
       </c>
       <c r="H38" t="n">
-        <v>15.58286429731826</v>
+        <v>19.1959994704003</v>
       </c>
       <c r="I38" t="n">
         <v>15.58286429731826</v>
       </c>
       <c r="J38" t="n">
-        <v>23.72564365049362</v>
+        <v>23.72564365049359</v>
       </c>
       <c r="K38" t="n">
-        <v>86.6680773490865</v>
+        <v>86.66807734908649</v>
       </c>
       <c r="L38" t="n">
-        <v>201.6554939608412</v>
+        <v>201.6554939608415</v>
       </c>
       <c r="M38" t="n">
-        <v>361.2705880887434</v>
+        <v>361.2705880887436</v>
       </c>
       <c r="N38" t="n">
-        <v>528.0822296909109</v>
+        <v>528.0822296909112</v>
       </c>
       <c r="O38" t="n">
-        <v>672.2624713871355</v>
+        <v>672.2624713871359</v>
       </c>
       <c r="P38" t="n">
-        <v>760.8159710881241</v>
+        <v>760.8159710881246</v>
       </c>
       <c r="Q38" t="n">
-        <v>779.1432148659129</v>
+        <v>779.143214865913</v>
       </c>
       <c r="R38" t="n">
-        <v>769.2573046448108</v>
+        <v>769.2573046448109</v>
       </c>
       <c r="S38" t="n">
-        <v>769.2573046448108</v>
+        <v>609.4560107324556</v>
       </c>
       <c r="T38" t="n">
-        <v>769.2573046448108</v>
+        <v>412.7026736451039</v>
       </c>
       <c r="U38" t="n">
-        <v>769.2573046448108</v>
+        <v>215.9493365577521</v>
       </c>
       <c r="V38" t="n">
-        <v>769.2573046448108</v>
+        <v>215.9493365577521</v>
       </c>
       <c r="W38" t="n">
-        <v>572.5039675574591</v>
+        <v>215.9493365577521</v>
       </c>
       <c r="X38" t="n">
-        <v>375.7506304701074</v>
+        <v>215.9493365577521</v>
       </c>
       <c r="Y38" t="n">
-        <v>375.7506304701074</v>
+        <v>215.9493365577521</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>164.5172739585695</v>
+        <v>431.3590218517004</v>
       </c>
       <c r="C39" t="n">
-        <v>164.5172739585695</v>
+        <v>431.3590218517004</v>
       </c>
       <c r="D39" t="n">
-        <v>15.58286429731826</v>
+        <v>312.3459217199402</v>
       </c>
       <c r="E39" t="n">
-        <v>15.58286429731826</v>
+        <v>153.1084667144847</v>
       </c>
       <c r="F39" t="n">
-        <v>15.58286429731826</v>
+        <v>153.1084667144847</v>
       </c>
       <c r="G39" t="n">
         <v>15.58286429731826</v>
@@ -7253,52 +7253,52 @@
         <v>15.58286429731826</v>
       </c>
       <c r="J39" t="n">
-        <v>24.76420440441879</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="K39" t="n">
-        <v>79.04538405035441</v>
+        <v>69.86404394325389</v>
       </c>
       <c r="L39" t="n">
-        <v>198.3556699530993</v>
+        <v>189.1743298459987</v>
       </c>
       <c r="M39" t="n">
-        <v>356.9420142712418</v>
+        <v>347.7606741641412</v>
       </c>
       <c r="N39" t="n">
-        <v>534.1343121508377</v>
+        <v>524.9529720437372</v>
       </c>
       <c r="O39" t="n">
-        <v>674.0108521867097</v>
+        <v>664.8295120796092</v>
       </c>
       <c r="P39" t="n">
-        <v>766.941041055821</v>
+        <v>757.7597009487205</v>
       </c>
       <c r="Q39" t="n">
-        <v>779.1432148659129</v>
+        <v>779.143214865913</v>
       </c>
       <c r="R39" t="n">
-        <v>779.1432148659129</v>
+        <v>779.143214865913</v>
       </c>
       <c r="S39" t="n">
-        <v>779.1432148659129</v>
+        <v>628.1123589390522</v>
       </c>
       <c r="T39" t="n">
-        <v>582.3898777785612</v>
+        <v>628.1123589390522</v>
       </c>
       <c r="U39" t="n">
-        <v>385.6365406912095</v>
+        <v>628.1123589390522</v>
       </c>
       <c r="V39" t="n">
-        <v>385.6365406912095</v>
+        <v>628.1123589390522</v>
       </c>
       <c r="W39" t="n">
-        <v>385.6365406912095</v>
+        <v>628.1123589390522</v>
       </c>
       <c r="X39" t="n">
-        <v>188.8832036038577</v>
+        <v>628.1123589390522</v>
       </c>
       <c r="Y39" t="n">
-        <v>188.8832036038577</v>
+        <v>431.3590218517004</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>385.6365406912095</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="C40" t="n">
-        <v>385.6365406912095</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="D40" t="n">
-        <v>385.6365406912095</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="E40" t="n">
-        <v>362.0082115394761</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="F40" t="n">
-        <v>362.0082115394761</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G40" t="n">
-        <v>193.3307720789572</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H40" t="n">
-        <v>38.44848008897279</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I40" t="n">
-        <v>38.44848008897279</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="J40" t="n">
         <v>15.58286429731826</v>
       </c>
       <c r="K40" t="n">
+        <v>108.5922173182255</v>
+      </c>
+      <c r="L40" t="n">
+        <v>122.2886472623348</v>
+      </c>
+      <c r="M40" t="n">
+        <v>315.1265929416483</v>
+      </c>
+      <c r="N40" t="n">
+        <v>507.9645386209617</v>
+      </c>
+      <c r="O40" t="n">
+        <v>672.2797948402745</v>
+      </c>
+      <c r="P40" t="n">
+        <v>779.143214865913</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>779.143214865913</v>
+      </c>
+      <c r="R40" t="n">
+        <v>779.143214865913</v>
+      </c>
+      <c r="S40" t="n">
+        <v>779.143214865913</v>
+      </c>
+      <c r="T40" t="n">
+        <v>582.3898777785612</v>
+      </c>
+      <c r="U40" t="n">
+        <v>385.6365406912094</v>
+      </c>
+      <c r="V40" t="n">
+        <v>188.8832036038576</v>
+      </c>
+      <c r="W40" t="n">
         <v>15.58286429731826</v>
       </c>
-      <c r="L40" t="n">
-        <v>190.1292487675665</v>
-      </c>
-      <c r="M40" t="n">
-        <v>382.9671944468799</v>
-      </c>
-      <c r="N40" t="n">
-        <v>575.8051401261934</v>
-      </c>
-      <c r="O40" t="n">
-        <v>740.1203963455062</v>
-      </c>
-      <c r="P40" t="n">
-        <v>779.1432148659129</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>779.1432148659129</v>
-      </c>
-      <c r="R40" t="n">
-        <v>779.1432148659129</v>
-      </c>
-      <c r="S40" t="n">
-        <v>779.1432148659129</v>
-      </c>
-      <c r="T40" t="n">
-        <v>779.1432148659129</v>
-      </c>
-      <c r="U40" t="n">
-        <v>779.1432148659129</v>
-      </c>
-      <c r="V40" t="n">
-        <v>779.1432148659129</v>
-      </c>
-      <c r="W40" t="n">
-        <v>779.1432148659129</v>
-      </c>
       <c r="X40" t="n">
-        <v>582.3898777785612</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="Y40" t="n">
-        <v>385.6365406912095</v>
+        <v>15.58286429731826</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>412.7026736451038</v>
+        <v>409.0895384720218</v>
       </c>
       <c r="C41" t="n">
-        <v>412.7026736451038</v>
+        <v>212.33620138467</v>
       </c>
       <c r="D41" t="n">
-        <v>412.7026736451038</v>
+        <v>212.33620138467</v>
       </c>
       <c r="E41" t="n">
-        <v>412.7026736451038</v>
+        <v>212.33620138467</v>
       </c>
       <c r="F41" t="n">
-        <v>409.0895384720218</v>
+        <v>212.33620138467</v>
       </c>
       <c r="G41" t="n">
-        <v>212.33620138467</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H41" t="n">
         <v>15.58286429731826</v>
@@ -7414,49 +7414,49 @@
         <v>23.72564365049359</v>
       </c>
       <c r="K41" t="n">
-        <v>86.66807734908647</v>
+        <v>86.66807734908649</v>
       </c>
       <c r="L41" t="n">
         <v>201.6554939608415</v>
       </c>
       <c r="M41" t="n">
-        <v>361.2705880887435</v>
+        <v>361.2705880887432</v>
       </c>
       <c r="N41" t="n">
-        <v>528.0822296909107</v>
+        <v>528.0822296909108</v>
       </c>
       <c r="O41" t="n">
-        <v>672.2624713871354</v>
+        <v>672.2624713871355</v>
       </c>
       <c r="P41" t="n">
-        <v>760.8159710881241</v>
+        <v>760.8159710881242</v>
       </c>
       <c r="Q41" t="n">
-        <v>779.1432148659129</v>
+        <v>779.143214865913</v>
       </c>
       <c r="R41" t="n">
-        <v>769.2573046448108</v>
+        <v>779.143214865913</v>
       </c>
       <c r="S41" t="n">
-        <v>609.4560107324555</v>
+        <v>779.143214865913</v>
       </c>
       <c r="T41" t="n">
-        <v>412.7026736451038</v>
+        <v>779.143214865913</v>
       </c>
       <c r="U41" t="n">
-        <v>412.7026736451038</v>
+        <v>605.8428755593736</v>
       </c>
       <c r="V41" t="n">
-        <v>412.7026736451038</v>
+        <v>605.8428755593736</v>
       </c>
       <c r="W41" t="n">
-        <v>412.7026736451038</v>
+        <v>605.8428755593736</v>
       </c>
       <c r="X41" t="n">
-        <v>412.7026736451038</v>
+        <v>409.0895384720218</v>
       </c>
       <c r="Y41" t="n">
-        <v>412.7026736451038</v>
+        <v>409.0895384720218</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>656.6189020422757</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="C42" t="n">
-        <v>656.6189020422757</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="D42" t="n">
-        <v>507.6844923810245</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="E42" t="n">
-        <v>348.447037375569</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="F42" t="n">
-        <v>201.912479402454</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G42" t="n">
-        <v>64.3868769852875</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H42" t="n">
-        <v>64.3868769852875</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I42" t="n">
         <v>15.58286429731826</v>
@@ -7493,49 +7493,49 @@
         <v>15.58286429731826</v>
       </c>
       <c r="K42" t="n">
-        <v>69.86404394325388</v>
+        <v>69.86404394325389</v>
       </c>
       <c r="L42" t="n">
         <v>189.1743298459987</v>
       </c>
       <c r="M42" t="n">
-        <v>356.9420142712418</v>
+        <v>347.7606741641412</v>
       </c>
       <c r="N42" t="n">
-        <v>534.1343121508377</v>
+        <v>524.9529720437372</v>
       </c>
       <c r="O42" t="n">
-        <v>674.0108521867097</v>
+        <v>664.8295120796092</v>
       </c>
       <c r="P42" t="n">
-        <v>766.941041055821</v>
+        <v>766.9410410558211</v>
       </c>
       <c r="Q42" t="n">
-        <v>779.1432148659129</v>
+        <v>779.143214865913</v>
       </c>
       <c r="R42" t="n">
-        <v>779.1432148659129</v>
+        <v>779.143214865913</v>
       </c>
       <c r="S42" t="n">
-        <v>656.6189020422757</v>
+        <v>779.143214865913</v>
       </c>
       <c r="T42" t="n">
-        <v>656.6189020422757</v>
+        <v>779.143214865913</v>
       </c>
       <c r="U42" t="n">
-        <v>656.6189020422757</v>
+        <v>582.3898777785612</v>
       </c>
       <c r="V42" t="n">
-        <v>656.6189020422757</v>
+        <v>385.6365406912094</v>
       </c>
       <c r="W42" t="n">
-        <v>656.6189020422757</v>
+        <v>212.33620138467</v>
       </c>
       <c r="X42" t="n">
-        <v>656.6189020422757</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="Y42" t="n">
-        <v>656.6189020422757</v>
+        <v>15.58286429731826</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.58286429731826</v>
+        <v>339.4013392152095</v>
       </c>
       <c r="C43" t="n">
-        <v>15.58286429731826</v>
+        <v>170.4651562873026</v>
       </c>
       <c r="D43" t="n">
-        <v>15.58286429731826</v>
+        <v>170.4651562873026</v>
       </c>
       <c r="E43" t="n">
-        <v>15.58286429731826</v>
+        <v>170.4651562873026</v>
       </c>
       <c r="F43" t="n">
-        <v>15.58286429731826</v>
+        <v>170.4651562873026</v>
       </c>
       <c r="G43" t="n">
-        <v>15.58286429731826</v>
+        <v>170.4651562873026</v>
       </c>
       <c r="H43" t="n">
         <v>15.58286429731826</v>
@@ -7575,46 +7575,46 @@
         <v>108.5922173182255</v>
       </c>
       <c r="L43" t="n">
-        <v>283.1386017884736</v>
+        <v>283.1386017884737</v>
       </c>
       <c r="M43" t="n">
-        <v>472.6126274850657</v>
+        <v>475.9765474677872</v>
       </c>
       <c r="N43" t="n">
-        <v>497.7485528421819</v>
+        <v>614.8279586466002</v>
       </c>
       <c r="O43" t="n">
-        <v>662.0638090614947</v>
+        <v>779.143214865913</v>
       </c>
       <c r="P43" t="n">
-        <v>779.1432148659129</v>
+        <v>779.143214865913</v>
       </c>
       <c r="Q43" t="n">
-        <v>776.7196169866295</v>
+        <v>779.143214865913</v>
       </c>
       <c r="R43" t="n">
-        <v>776.7196169866295</v>
+        <v>779.143214865913</v>
       </c>
       <c r="S43" t="n">
-        <v>776.7196169866295</v>
+        <v>582.3898777785612</v>
       </c>
       <c r="T43" t="n">
-        <v>579.9662798992778</v>
+        <v>582.3898777785612</v>
       </c>
       <c r="U43" t="n">
-        <v>579.9662798992778</v>
+        <v>536.1546763025613</v>
       </c>
       <c r="V43" t="n">
-        <v>383.212942811926</v>
+        <v>536.1546763025613</v>
       </c>
       <c r="W43" t="n">
-        <v>383.212942811926</v>
+        <v>339.4013392152095</v>
       </c>
       <c r="X43" t="n">
-        <v>186.4596057245743</v>
+        <v>339.4013392152095</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.58286429731826</v>
+        <v>339.4013392152095</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>572.5039675574592</v>
+        <v>212.33620138467</v>
       </c>
       <c r="C44" t="n">
-        <v>572.5039675574592</v>
+        <v>212.33620138467</v>
       </c>
       <c r="D44" t="n">
-        <v>572.5039675574592</v>
+        <v>212.33620138467</v>
       </c>
       <c r="E44" t="n">
-        <v>534.849833272242</v>
+        <v>212.33620138467</v>
       </c>
       <c r="F44" t="n">
-        <v>338.0964961848902</v>
+        <v>212.33620138467</v>
       </c>
       <c r="G44" t="n">
-        <v>141.3431590975384</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H44" t="n">
-        <v>141.3431590975384</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I44" t="n">
         <v>15.58286429731826</v>
       </c>
       <c r="J44" t="n">
-        <v>23.72564365049345</v>
+        <v>23.72564365049359</v>
       </c>
       <c r="K44" t="n">
-        <v>86.66807734908645</v>
+        <v>86.66807734908649</v>
       </c>
       <c r="L44" t="n">
         <v>201.6554939608415</v>
       </c>
       <c r="M44" t="n">
-        <v>361.2705880887434</v>
+        <v>361.2705880887436</v>
       </c>
       <c r="N44" t="n">
-        <v>528.0822296909109</v>
+        <v>528.0822296909112</v>
       </c>
       <c r="O44" t="n">
-        <v>672.2624713871355</v>
+        <v>672.2624713871359</v>
       </c>
       <c r="P44" t="n">
         <v>760.8159710881242</v>
@@ -7681,19 +7681,19 @@
         <v>769.2573046448109</v>
       </c>
       <c r="U44" t="n">
-        <v>769.2573046448109</v>
+        <v>572.5039675574592</v>
       </c>
       <c r="V44" t="n">
-        <v>572.5039675574592</v>
+        <v>375.7506304701074</v>
       </c>
       <c r="W44" t="n">
-        <v>572.5039675574592</v>
+        <v>375.7506304701074</v>
       </c>
       <c r="X44" t="n">
-        <v>572.5039675574592</v>
+        <v>375.7506304701074</v>
       </c>
       <c r="Y44" t="n">
-        <v>572.5039675574592</v>
+        <v>375.7506304701074</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>162.5432214860683</v>
+        <v>336.5704515515603</v>
       </c>
       <c r="C45" t="n">
-        <v>162.5432214860683</v>
+        <v>162.1174222704333</v>
       </c>
       <c r="D45" t="n">
-        <v>162.5432214860683</v>
+        <v>162.1174222704333</v>
       </c>
       <c r="E45" t="n">
-        <v>162.5432214860683</v>
+        <v>162.1174222704333</v>
       </c>
       <c r="F45" t="n">
-        <v>162.5432214860683</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="G45" t="n">
-        <v>162.5432214860683</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="H45" t="n">
-        <v>60.81400276417416</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="I45" t="n">
         <v>15.58286429731826</v>
       </c>
       <c r="J45" t="n">
-        <v>15.58286429731826</v>
+        <v>24.7642044044189</v>
       </c>
       <c r="K45" t="n">
-        <v>69.86404394325389</v>
+        <v>79.04538405035453</v>
       </c>
       <c r="L45" t="n">
-        <v>189.1743298459987</v>
+        <v>198.3556699530994</v>
       </c>
       <c r="M45" t="n">
         <v>356.9420142712419</v>
@@ -7751,28 +7751,28 @@
         <v>779.143214865913</v>
       </c>
       <c r="R45" t="n">
-        <v>752.8032327481236</v>
+        <v>779.143214865913</v>
       </c>
       <c r="S45" t="n">
-        <v>752.8032327481236</v>
+        <v>628.1123589390522</v>
       </c>
       <c r="T45" t="n">
-        <v>752.8032327481236</v>
+        <v>431.3590218517004</v>
       </c>
       <c r="U45" t="n">
-        <v>752.8032327481236</v>
+        <v>431.3590218517004</v>
       </c>
       <c r="V45" t="n">
-        <v>556.0498956607719</v>
+        <v>431.3590218517004</v>
       </c>
       <c r="W45" t="n">
-        <v>359.2965585734201</v>
+        <v>336.5704515515603</v>
       </c>
       <c r="X45" t="n">
-        <v>162.5432214860683</v>
+        <v>336.5704515515603</v>
       </c>
       <c r="Y45" t="n">
-        <v>162.5432214860683</v>
+        <v>336.5704515515603</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>201.5644779816864</v>
+        <v>629.1799842504764</v>
       </c>
       <c r="C46" t="n">
-        <v>201.5644779816864</v>
+        <v>629.1799842504764</v>
       </c>
       <c r="D46" t="n">
-        <v>201.5644779816864</v>
+        <v>479.0633448381407</v>
       </c>
       <c r="E46" t="n">
-        <v>201.5644779816864</v>
+        <v>331.1502512557475</v>
       </c>
       <c r="F46" t="n">
         <v>184.2603037578372</v>
@@ -7809,49 +7809,49 @@
         <v>15.58286429731826</v>
       </c>
       <c r="K46" t="n">
-        <v>54.6056828177251</v>
+        <v>15.58286429731826</v>
       </c>
       <c r="L46" t="n">
-        <v>229.1520672879733</v>
+        <v>190.1292487675665</v>
       </c>
       <c r="M46" t="n">
-        <v>421.9900129672868</v>
+        <v>382.9671944468799</v>
       </c>
       <c r="N46" t="n">
-        <v>614.8279586466002</v>
+        <v>575.8051401261935</v>
       </c>
       <c r="O46" t="n">
-        <v>779.143214865913</v>
+        <v>740.1203963455063</v>
       </c>
       <c r="P46" t="n">
         <v>779.143214865913</v>
       </c>
       <c r="Q46" t="n">
-        <v>776.7196169866296</v>
+        <v>779.143214865913</v>
       </c>
       <c r="R46" t="n">
-        <v>776.7196169866296</v>
+        <v>779.143214865913</v>
       </c>
       <c r="S46" t="n">
-        <v>776.7196169866296</v>
+        <v>779.143214865913</v>
       </c>
       <c r="T46" t="n">
-        <v>776.7196169866296</v>
+        <v>779.143214865913</v>
       </c>
       <c r="U46" t="n">
-        <v>579.9662798992779</v>
+        <v>629.1799842504764</v>
       </c>
       <c r="V46" t="n">
-        <v>383.2129428119261</v>
+        <v>629.1799842504764</v>
       </c>
       <c r="W46" t="n">
-        <v>383.2129428119261</v>
+        <v>629.1799842504764</v>
       </c>
       <c r="X46" t="n">
-        <v>383.2129428119261</v>
+        <v>629.1799842504764</v>
       </c>
       <c r="Y46" t="n">
-        <v>383.2129428119261</v>
+        <v>629.1799842504764</v>
       </c>
     </row>
   </sheetData>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>9.274080916263941</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.274080916263387</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>12.79492490939273</v>
       </c>
       <c r="L13" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>4.113896328622008</v>
+        <v>176.9077754244995</v>
       </c>
       <c r="N13" t="n">
-        <v>169.3959801234317</v>
+        <v>169.3959801234318</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>56.16152565342395</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>9.274080916263273</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.2740809162635</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>52.21191331384419</v>
+        <v>12.79492490939273</v>
       </c>
       <c r="L16" t="n">
-        <v>162.4747015415544</v>
+        <v>83.62966388093685</v>
       </c>
       <c r="M16" t="n">
         <v>176.9077754244994</v>
       </c>
       <c r="N16" t="n">
-        <v>169.3959801234317</v>
+        <v>169.3959801234316</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>16.74453724897222</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>14.10915490693394</v>
+        <v>23.3832358231971</v>
       </c>
       <c r="K18" t="n">
-        <v>9.274080916263387</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9330,13 +9330,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>176.9077754244994</v>
+        <v>176.9077754244993</v>
       </c>
       <c r="N19" t="n">
-        <v>169.3959801234317</v>
+        <v>169.3959801234316</v>
       </c>
       <c r="O19" t="n">
-        <v>152.7224888115596</v>
+        <v>152.7224888115595</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>14.10915490693394</v>
+        <v>23.38323582319733</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.274080916263156</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9567,10 +9567,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>176.9077754244993</v>
+        <v>176.9077754244994</v>
       </c>
       <c r="N22" t="n">
-        <v>169.3959801234316</v>
+        <v>169.3959801234317</v>
       </c>
       <c r="O22" t="n">
         <v>108.509813335074</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>23.38323582319733</v>
+        <v>23.38323582319744</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9798,19 +9798,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>96.42458879032961</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>176.9077754244994</v>
+        <v>167.1555626945047</v>
       </c>
       <c r="N25" t="n">
         <v>169.3959801234317</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>23.38323582319733</v>
+        <v>23.38323582319744</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10035,13 +10035,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>12.79492490939273</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>176.9077754244994</v>
+        <v>4.113896328622126</v>
       </c>
       <c r="N28" t="n">
         <v>169.3959801234317</v>
@@ -10050,7 +10050,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>56.16152565342361</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>23.38323582319733</v>
+        <v>14.10915490693394</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>9.274080916263159</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>12.79492490939273</v>
       </c>
       <c r="L31" t="n">
-        <v>107.942848510746</v>
+        <v>83.62966388093683</v>
       </c>
       <c r="M31" t="n">
-        <v>176.9077754244994</v>
+        <v>176.9077754244993</v>
       </c>
       <c r="N31" t="n">
-        <v>169.3959801234317</v>
+        <v>169.3959801234316</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>16.74453724897222</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>14.10915490693394</v>
+        <v>23.38323582319767</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>9.274080916263927</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10509,16 +10509,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>12.79492490939273</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>83.62966388093707</v>
       </c>
       <c r="M34" t="n">
-        <v>173.5098764520543</v>
+        <v>176.9077754244995</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>169.3959801234317</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>23.38323582319733</v>
+        <v>14.10915490693394</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>9.274080916263273</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10755,13 +10755,13 @@
         <v>176.9077754244994</v>
       </c>
       <c r="N37" t="n">
-        <v>90.55094246281415</v>
+        <v>169.3959801234316</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>56.1615256534235</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>23.3832358231971</v>
+        <v>14.10915490693394</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>9.274080916263273</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,13 +10983,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>12.79492490939273</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>176.9077754244993</v>
+        <v>176.9077754244994</v>
       </c>
       <c r="N40" t="n">
         <v>169.3959801234316</v>
@@ -10998,7 +10998,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>56.1615256534235</v>
+        <v>124.6873857597182</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>9.274080916263159</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>9.274080916263244</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11226,16 +11226,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>173.5098764520535</v>
+        <v>176.9077754244994</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>114.8641270926231</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>16.74453724897222</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>14.10915490693394</v>
+        <v>23.38323582319721</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>9.274080916263273</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>52.21191331384409</v>
+        <v>12.79492490939273</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
@@ -11472,7 +11472,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>16.74453724897222</v>
+        <v>56.1615256534235</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>187.1445663557834</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>212.090242025233</v>
       </c>
       <c r="G11" t="n">
-        <v>366.0080643320792</v>
+        <v>413.0727083933352</v>
       </c>
       <c r="H11" t="n">
-        <v>121.8507126556564</v>
+        <v>316.6365163721347</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>124.5026918522179</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.7870511188911</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>158.2032809732317</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.3338970834526</v>
+        <v>18.54809336697417</v>
       </c>
       <c r="U11" t="n">
         <v>251.1672505780925</v>
       </c>
       <c r="V11" t="n">
-        <v>132.9664547536566</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>154.4551650009347</v>
+        <v>345.6639648960617</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23339,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.1503463929948</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100.7119265346752</v>
       </c>
       <c r="I12" t="n">
-        <v>30.7528725595627</v>
+        <v>48.31597256108955</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>26.07658229661151</v>
       </c>
       <c r="S12" t="n">
-        <v>149.5205473675921</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>195.3554131780306</v>
+        <v>0.5696094615522043</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8628840039869</v>
+        <v>31.07708028750852</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>38.01478343294684</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>183.6359072314224</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>125.8905536408297</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9906650659137</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>153.3334690700845</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2.399361900490533</v>
       </c>
       <c r="R13" t="n">
         <v>132.3156232778259</v>
@@ -23469,16 +23469,16 @@
         <v>206.5838480478009</v>
       </c>
       <c r="T13" t="n">
-        <v>28.88571555274711</v>
+        <v>28.88571555274697</v>
       </c>
       <c r="U13" t="n">
-        <v>214.1656996987544</v>
+        <v>91.47866304223726</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>91.73719462011272</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>187.9480379470023</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>170.4870880545293</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>159.8972379042047</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>334.8657260110058</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,10 +23512,10 @@
         <v>413.0727083933352</v>
       </c>
       <c r="H14" t="n">
-        <v>121.8507126556564</v>
+        <v>316.6365163721347</v>
       </c>
       <c r="I14" t="n">
-        <v>124.5026918522179</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>158.2032809732317</v>
       </c>
       <c r="T14" t="n">
-        <v>41.7665611699785</v>
+        <v>213.3338970834526</v>
       </c>
       <c r="U14" t="n">
-        <v>56.38144686161419</v>
+        <v>251.1672505780925</v>
       </c>
       <c r="V14" t="n">
-        <v>132.9664547536566</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23579,13 +23579,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.1503463929948</v>
@@ -23594,7 +23594,7 @@
         <v>100.7119265346752</v>
       </c>
       <c r="I15" t="n">
-        <v>48.31597256108955</v>
+        <v>24.19370221225434</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,22 +23627,22 @@
         <v>149.5205473675921</v>
       </c>
       <c r="T15" t="n">
-        <v>195.3554131780306</v>
+        <v>0.5696094615523748</v>
       </c>
       <c r="U15" t="n">
-        <v>31.07708028750864</v>
+        <v>225.8628840039869</v>
       </c>
       <c r="V15" t="n">
-        <v>38.01478343294696</v>
+        <v>38.01478343294701</v>
       </c>
       <c r="W15" t="n">
-        <v>188.056136379752</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>10.8968920608261</v>
       </c>
     </row>
     <row r="16">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.9906650659137</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.3334690700845</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>125.36829602054</v>
       </c>
       <c r="J16" t="n">
         <v>22.63695963373799</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>2.399361900490533</v>
       </c>
       <c r="R16" t="n">
         <v>132.3156232778259</v>
@@ -23706,13 +23706,13 @@
         <v>206.5838480478009</v>
       </c>
       <c r="T16" t="n">
-        <v>40.70290986693189</v>
+        <v>223.6715192692254</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2644667587157</v>
+        <v>220.8197977110626</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>57.35183960734975</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>187.9480379470023</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23749,10 +23749,10 @@
         <v>413.0727083933352</v>
       </c>
       <c r="H17" t="n">
-        <v>316.6365163721347</v>
+        <v>121.8507126556565</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>124.5026918522179</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>18.54809336697431</v>
+        <v>18.54809336697437</v>
       </c>
       <c r="U17" t="n">
-        <v>56.38144686161422</v>
+        <v>251.1672505780925</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8921427845234</v>
+        <v>324.1752546487837</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23816,7 +23816,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23825,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.1503463929948</v>
+        <v>66.76281969527348</v>
       </c>
       <c r="H18" t="n">
         <v>100.7119265346752</v>
@@ -23861,25 +23861,25 @@
         <v>26.07658229661151</v>
       </c>
       <c r="S18" t="n">
-        <v>149.5205473675921</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>195.3554131780306</v>
       </c>
       <c r="U18" t="n">
-        <v>54.29554809051297</v>
+        <v>31.07708028750872</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>38.01478343294704</v>
       </c>
       <c r="W18" t="n">
-        <v>56.90917944444132</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>10.98718148699919</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.89689206082608</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23895,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>120.2876747560264</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.9906650659137</v>
       </c>
       <c r="H19" t="n">
-        <v>153.3334690700845</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>125.36829602054</v>
@@ -23940,19 +23940,19 @@
         <v>132.3156232778259</v>
       </c>
       <c r="S19" t="n">
-        <v>206.5838480478009</v>
+        <v>11.79804433132264</v>
       </c>
       <c r="T19" t="n">
-        <v>223.6715192692254</v>
+        <v>28.88571555274717</v>
       </c>
       <c r="U19" t="n">
-        <v>91.4786630422374</v>
+        <v>221.8602692170604</v>
       </c>
       <c r="V19" t="n">
-        <v>57.35183960734972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>91.73719462011272</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>187.9480379470023</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>210.3630341587877</v>
+        <v>378.3533662509105</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.0727083933352</v>
+        <v>218.2869046768569</v>
       </c>
       <c r="H20" t="n">
         <v>316.6365163721347</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>9.7870511188911</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>158.2032809732317</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>18.54809336697437</v>
+        <v>18.54809336697431</v>
       </c>
       <c r="U20" t="n">
-        <v>56.38144686161428</v>
+        <v>251.1672505780925</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>191.4521349395753</v>
       </c>
     </row>
     <row r="21">
@@ -24050,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.1503463929948</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>100.7119265346752</v>
@@ -24098,25 +24098,25 @@
         <v>26.07658229661151</v>
       </c>
       <c r="S21" t="n">
-        <v>149.5205473675921</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.5696094615524032</v>
+        <v>195.3554131780306</v>
       </c>
       <c r="U21" t="n">
-        <v>31.07708028750872</v>
+        <v>225.8628840039869</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>101.5946944115522</v>
       </c>
       <c r="X21" t="n">
-        <v>10.98718148699925</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.11535986383032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24150,7 +24150,7 @@
         <v>125.36829602054</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>22.63695963373799</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>2.399361900490533</v>
       </c>
       <c r="R22" t="n">
-        <v>91.90727576440152</v>
+        <v>132.3156232778259</v>
       </c>
       <c r="S22" t="n">
-        <v>206.5838480478009</v>
+        <v>202.2633332329547</v>
       </c>
       <c r="T22" t="n">
-        <v>223.6715192692254</v>
+        <v>28.88571555274711</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2644667587157</v>
+        <v>91.4786630422374</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>57.35183960734972</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>23.79884963561656</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>187.9480379470023</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>183.115705707209</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>235.3087098282374</v>
       </c>
       <c r="G23" t="n">
-        <v>413.0727083933352</v>
+        <v>218.2869046768569</v>
       </c>
       <c r="H23" t="n">
         <v>316.6365163721347</v>
@@ -24265,7 +24265,7 @@
         <v>251.1672505780925</v>
       </c>
       <c r="V23" t="n">
-        <v>132.9664547536566</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>174.9452969619907</v>
       </c>
       <c r="Y23" t="n">
-        <v>191.4521349395753</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24299,7 +24299,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.1503463929948</v>
       </c>
       <c r="H24" t="n">
         <v>100.7119265346752</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>26.07658229661151</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>92.02625311895039</v>
+        <v>149.5205473675921</v>
       </c>
       <c r="T24" t="n">
-        <v>0.5696094615523464</v>
+        <v>195.3554131780306</v>
       </c>
       <c r="U24" t="n">
         <v>225.8628840039869</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>87.30983353256269</v>
       </c>
       <c r="W24" t="n">
-        <v>56.90917944444132</v>
+        <v>56.90917944444129</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>10.98718148699916</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>10.89689206082605</v>
       </c>
     </row>
     <row r="25">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>8.264644268463229</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>115.8896021888673</v>
+        <v>166.9906650659137</v>
       </c>
       <c r="H25" t="n">
         <v>153.3334690700845</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>125.36829602054</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>22.63695963373799</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>132.3156232778259</v>
       </c>
       <c r="S25" t="n">
-        <v>11.79804433132259</v>
+        <v>206.5838480478009</v>
       </c>
       <c r="T25" t="n">
         <v>223.6715192692254</v>
       </c>
       <c r="U25" t="n">
-        <v>91.4786630422374</v>
+        <v>91.47866304223737</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>57.35183960734969</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>91.73719462011269</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24451,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>220.1500852776789</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>212.0902420252331</v>
       </c>
       <c r="G26" t="n">
-        <v>413.0727083933352</v>
+        <v>218.2869046768569</v>
       </c>
       <c r="H26" t="n">
-        <v>121.8507126556564</v>
+        <v>316.6365163721347</v>
       </c>
       <c r="I26" t="n">
         <v>124.5026918522179</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>9.7870511188911</v>
       </c>
       <c r="S26" t="n">
         <v>158.2032809732317</v>
       </c>
       <c r="T26" t="n">
-        <v>18.54809336697431</v>
+        <v>213.3338970834526</v>
       </c>
       <c r="U26" t="n">
-        <v>56.38144686161422</v>
+        <v>79.59991466461841</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>191.4521349395753</v>
       </c>
     </row>
     <row r="27">
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24539,7 +24539,7 @@
         <v>136.1503463929948</v>
       </c>
       <c r="H27" t="n">
-        <v>15.19559042660065</v>
+        <v>100.7119265346752</v>
       </c>
       <c r="I27" t="n">
         <v>48.31597256108955</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>26.07658229661151</v>
       </c>
       <c r="S27" t="n">
         <v>149.5205473675921</v>
@@ -24578,16 +24578,16 @@
         <v>195.3554131780306</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8628840039869</v>
+        <v>31.07708028750864</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>38.01478343294696</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>56.90917944444129</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>34.20564929000341</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.9906650659137</v>
       </c>
       <c r="H28" t="n">
-        <v>27.81798148426955</v>
+        <v>153.3334690700845</v>
       </c>
       <c r="I28" t="n">
         <v>125.36829602054</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>62.3983665895077</v>
       </c>
       <c r="S28" t="n">
         <v>206.5838480478009</v>
       </c>
       <c r="T28" t="n">
-        <v>223.6715192692254</v>
+        <v>28.88571555274709</v>
       </c>
       <c r="U28" t="n">
         <v>286.2644667587157</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>57.35183960734969</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24685,19 +24685,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>159.8972379042047</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>245.0957609471285</v>
       </c>
       <c r="G29" t="n">
         <v>413.0727083933352</v>
       </c>
       <c r="H29" t="n">
-        <v>121.8507126556564</v>
+        <v>316.6365163721347</v>
       </c>
       <c r="I29" t="n">
         <v>124.5026918522179</v>
@@ -24733,22 +24733,22 @@
         <v>158.2032809732317</v>
       </c>
       <c r="T29" t="n">
-        <v>18.54809336697431</v>
+        <v>213.3338970834526</v>
       </c>
       <c r="U29" t="n">
-        <v>56.38144686161422</v>
+        <v>251.1672505780925</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>132.9664547536567</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>207.9508158838861</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>191.4521349395754</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24767,13 +24767,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.1503463929948</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>100.7119265346752</v>
@@ -24812,19 +24812,19 @@
         <v>149.5205473675921</v>
       </c>
       <c r="T30" t="n">
-        <v>0.5696094615523464</v>
+        <v>195.3554131780306</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8628840039869</v>
+        <v>153.3051712224305</v>
       </c>
       <c r="V30" t="n">
-        <v>227.7664348858186</v>
+        <v>38.01478343294704</v>
       </c>
       <c r="W30" t="n">
-        <v>56.90917944444132</v>
+        <v>56.90917944444138</v>
       </c>
       <c r="X30" t="n">
-        <v>10.98718148699919</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>7.269232661293017</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.3334690700845</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>125.36829602054</v>
       </c>
       <c r="J31" t="n">
         <v>22.63695963373799</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>60.72080663481781</v>
+        <v>132.3156232778259</v>
       </c>
       <c r="S31" t="n">
         <v>206.5838480478009</v>
@@ -24897,13 +24897,13 @@
         <v>286.2644667587157</v>
       </c>
       <c r="V31" t="n">
-        <v>57.35183960734972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>30.92385167255887</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,10 +24919,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>170.4870880545291</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>159.8972379042045</v>
+        <v>159.8972379042046</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>399.7086534530928</v>
+        <v>413.0727083933352</v>
       </c>
       <c r="H32" t="n">
         <v>316.6365163721347</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>9.7870511188911</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>213.3338970834526</v>
+        <v>18.54809336697423</v>
       </c>
       <c r="U32" t="n">
         <v>251.1672505780925</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>132.9664547536565</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>191.4521349395752</v>
+        <v>382.6609348347023</v>
       </c>
     </row>
     <row r="33">
@@ -25010,10 +25010,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.1503463929948</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>100.7119265346752</v>
       </c>
       <c r="I33" t="n">
         <v>48.31597256108955</v>
@@ -25052,19 +25052,19 @@
         <v>195.3554131780306</v>
       </c>
       <c r="U33" t="n">
-        <v>31.07708028750852</v>
+        <v>31.07708028750858</v>
       </c>
       <c r="V33" t="n">
-        <v>124.8044545095488</v>
+        <v>160.2428743678685</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>56.90917944444124</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.89689206082593</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>153.3334690700845</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>125.36829602054</v>
       </c>
       <c r="J34" t="n">
         <v>22.63695963373799</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2.399361900490533</v>
       </c>
       <c r="R34" t="n">
         <v>132.3156232778259</v>
@@ -25128,13 +25128,13 @@
         <v>206.5838480478009</v>
       </c>
       <c r="T34" t="n">
-        <v>223.6715192692254</v>
+        <v>28.88571555274703</v>
       </c>
       <c r="U34" t="n">
-        <v>91.47866304223726</v>
+        <v>91.47866304223732</v>
       </c>
       <c r="V34" t="n">
-        <v>57.35183960734958</v>
+        <v>57.35183960734963</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>159.8311518251101</v>
+        <v>47.01731743862064</v>
       </c>
     </row>
     <row r="35">
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>159.8972379042047</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>212.0902420252332</v>
       </c>
       <c r="G35" t="n">
-        <v>241.5053724798613</v>
+        <v>413.0727083933352</v>
       </c>
       <c r="H35" t="n">
         <v>316.6365163721347</v>
       </c>
       <c r="I35" t="n">
-        <v>124.5026918522179</v>
+        <v>111.1386369119757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>9.7870511188911</v>
       </c>
       <c r="S35" t="n">
-        <v>158.2032809732317</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>18.54809336697431</v>
+        <v>18.54809336697434</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1672505780925</v>
+        <v>56.38144686161425</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>154.4551650009347</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>1.141163074841756</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25244,10 +25244,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>135.7288051695161</v>
       </c>
       <c r="G36" t="n">
-        <v>136.1503463929948</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>100.7119265346752</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>26.07658229661151</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>149.5205473675921</v>
       </c>
       <c r="T36" t="n">
-        <v>195.3554131780306</v>
+        <v>0.5696094615523748</v>
       </c>
       <c r="U36" t="n">
         <v>225.8628840039869</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>38.01478343294701</v>
       </c>
       <c r="W36" t="n">
-        <v>56.90917944444132</v>
+        <v>56.90917944444135</v>
       </c>
       <c r="X36" t="n">
-        <v>10.98718148699919</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.89689206082608</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10.66400616895388</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,7 +25329,7 @@
         <v>166.9906650659137</v>
       </c>
       <c r="H37" t="n">
-        <v>153.3334690700845</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>125.36829602054</v>
@@ -25356,28 +25356,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>2.399361900490533</v>
       </c>
       <c r="R37" t="n">
         <v>132.3156232778259</v>
       </c>
       <c r="S37" t="n">
-        <v>206.5838480478009</v>
+        <v>11.79804433132261</v>
       </c>
       <c r="T37" t="n">
         <v>223.6715192692254</v>
       </c>
       <c r="U37" t="n">
-        <v>91.4786630422374</v>
+        <v>286.2644667587157</v>
       </c>
       <c r="V37" t="n">
-        <v>57.35183960734972</v>
+        <v>57.35183960734975</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>240.7501488753511</v>
       </c>
       <c r="X37" t="n">
-        <v>30.92385167255887</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>220.9535568688976</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25408,10 +25408,10 @@
         <v>413.0727083933352</v>
       </c>
       <c r="H38" t="n">
-        <v>121.8507126556565</v>
+        <v>121.8507126556564</v>
       </c>
       <c r="I38" t="n">
-        <v>124.5026918522179</v>
+        <v>120.9256880308667</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>158.2032809732317</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.3338970834526</v>
+        <v>18.54809336697434</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1672505780925</v>
+        <v>56.38144686161425</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>154.4551650009348</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>174.9452969619908</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>142.410913301032</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>29.62209643419615</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.1503463929948</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>100.7119265346752</v>
@@ -25520,13 +25520,13 @@
         <v>26.07658229661151</v>
       </c>
       <c r="S39" t="n">
-        <v>149.5205473675921</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.5696094615524032</v>
+        <v>195.3554131780306</v>
       </c>
       <c r="U39" t="n">
-        <v>31.07708028750872</v>
+        <v>225.8628840039869</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25535,10 +25535,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>10.98718148699925</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>10.8968920608261</v>
       </c>
     </row>
     <row r="40">
@@ -25557,22 +25557,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>123.0419167863531</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.9906650659137</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.3334690700845</v>
       </c>
       <c r="I40" t="n">
         <v>125.36829602054</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>22.63695963373799</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>206.5838480478009</v>
       </c>
       <c r="T40" t="n">
-        <v>223.6715192692254</v>
+        <v>28.88571555274714</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2644667587157</v>
+        <v>91.47866304223743</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>57.35183960734975</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>114.955662423117</v>
       </c>
       <c r="X40" t="n">
-        <v>30.92385167255892</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>23.79884963561656</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>170.4870880545293</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,13 +25639,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>403.2990419203603</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>218.286904676857</v>
       </c>
       <c r="H41" t="n">
-        <v>121.8507126556565</v>
+        <v>316.6365163721347</v>
       </c>
       <c r="I41" t="n">
         <v>124.5026918522179</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>9.7870511188911</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>158.2032809732317</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54809336697437</v>
+        <v>213.3338970834526</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1672505780925</v>
+        <v>79.59991466461852</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>174.9452969619908</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25712,22 +25712,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.1503463929948</v>
       </c>
       <c r="H42" t="n">
         <v>100.7119265346752</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>48.31597256108955</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,22 +25757,22 @@
         <v>26.07658229661151</v>
       </c>
       <c r="S42" t="n">
-        <v>28.22147767219137</v>
+        <v>149.5205473675921</v>
       </c>
       <c r="T42" t="n">
         <v>195.3554131780306</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8628840039869</v>
+        <v>31.07708028750869</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>38.01478343294701</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>80.12764724744565</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>10.98718148699922</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,7 +25803,7 @@
         <v>166.9906650659137</v>
       </c>
       <c r="H43" t="n">
-        <v>153.3334690700845</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>125.36829602054</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>2.399361900490533</v>
       </c>
       <c r="R43" t="n">
         <v>132.3156232778259</v>
       </c>
       <c r="S43" t="n">
-        <v>206.5838480478009</v>
+        <v>11.79804433132261</v>
       </c>
       <c r="T43" t="n">
-        <v>28.88571555274717</v>
+        <v>223.6715192692254</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2644667587157</v>
+        <v>240.4916172974758</v>
       </c>
       <c r="V43" t="n">
-        <v>57.35183960734977</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>91.73719462011275</v>
       </c>
       <c r="X43" t="n">
-        <v>30.92385167255892</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.41667933911131</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>220.9535568688976</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,10 +25873,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>344.6527771298968</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>212.0902420252332</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>218.286904676857</v>
@@ -25885,7 +25885,7 @@
         <v>316.6365163721347</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>124.5026918522179</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>213.3338970834526</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1672505780925</v>
+        <v>56.38144686161425</v>
       </c>
       <c r="V44" t="n">
         <v>132.9664547536566</v>
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25955,16 +25955,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>136.1503463929948</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>100.7119265346752</v>
       </c>
       <c r="I45" t="n">
-        <v>3.537145478902211</v>
+        <v>48.31597256108955</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>26.07658229661151</v>
       </c>
       <c r="S45" t="n">
-        <v>149.5205473675921</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>195.3554131780306</v>
+        <v>0.5696094615523748</v>
       </c>
       <c r="U45" t="n">
         <v>225.8628840039869</v>
       </c>
       <c r="V45" t="n">
-        <v>38.01478343294701</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>56.90917944444135</v>
+        <v>157.8542985637808</v>
       </c>
       <c r="X45" t="n">
-        <v>10.98718148699922</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>128.2899155413205</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>2.399361900490533</v>
       </c>
       <c r="R46" t="n">
         <v>132.3156232778259</v>
@@ -26079,10 +26079,10 @@
         <v>223.6715192692254</v>
       </c>
       <c r="U46" t="n">
-        <v>91.47866304223743</v>
+        <v>137.8008684494335</v>
       </c>
       <c r="V46" t="n">
-        <v>57.35183960734975</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>372808.8956422562</v>
+        <v>372808.895642256</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>372808.8956422562</v>
+        <v>372808.8956422561</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>372808.8956422561</v>
+        <v>372808.8956422562</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372808.8956422563</v>
+        <v>372808.8956422562</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>372808.8956422562</v>
+        <v>372808.8956422561</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>372808.8956422562</v>
+        <v>372808.8956422561</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>372808.8956422563</v>
+        <v>372808.8956422562</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>372808.8956422562</v>
+        <v>372808.8956422561</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>372808.895642256</v>
+        <v>372808.8956422561</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057046</v>
+        <v>634939.1625057047</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057046</v>
+        <v>634939.1625057047</v>
       </c>
       <c r="D2" t="n">
-        <v>634997.38795516</v>
+        <v>634997.3879551599</v>
       </c>
       <c r="E2" t="n">
-        <v>283201.4205509617</v>
+        <v>283201.4205509616</v>
       </c>
       <c r="F2" t="n">
         <v>283201.4205509616</v>
@@ -26331,10 +26331,10 @@
         <v>283201.4205509615</v>
       </c>
       <c r="H2" t="n">
+        <v>283201.4205509617</v>
+      </c>
+      <c r="I2" t="n">
         <v>283201.4205509616</v>
-      </c>
-      <c r="I2" t="n">
-        <v>283201.4205509617</v>
       </c>
       <c r="J2" t="n">
         <v>283201.4205509617</v>
@@ -26343,10 +26343,10 @@
         <v>283201.4205509616</v>
       </c>
       <c r="L2" t="n">
-        <v>283201.4205509617</v>
+        <v>283201.4205509616</v>
       </c>
       <c r="M2" t="n">
-        <v>283201.4205509617</v>
+        <v>283201.4205509616</v>
       </c>
       <c r="N2" t="n">
         <v>283201.4205509616</v>
@@ -26355,7 +26355,7 @@
         <v>283201.4205509616</v>
       </c>
       <c r="P2" t="n">
-        <v>283201.4205509616</v>
+        <v>283201.4205509617</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>48541.40142936126</v>
+        <v>48541.4014293613</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>385783.8405692248</v>
       </c>
       <c r="E4" t="n">
+        <v>16692.14633457873</v>
+      </c>
+      <c r="F4" t="n">
         <v>16692.1463345787</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>16692.14633457869</v>
+      </c>
+      <c r="H4" t="n">
         <v>16692.14633457871</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16692.14633457871</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16692.1463345787</v>
       </c>
       <c r="I4" t="n">
         <v>16692.14633457871</v>
@@ -26444,19 +26444,19 @@
         <v>16692.14633457871</v>
       </c>
       <c r="K4" t="n">
+        <v>16692.14633457869</v>
+      </c>
+      <c r="L4" t="n">
         <v>16692.14633457871</v>
       </c>
-      <c r="L4" t="n">
-        <v>16692.14633457872</v>
-      </c>
       <c r="M4" t="n">
-        <v>16692.14633457871</v>
+        <v>16692.1463345787</v>
       </c>
       <c r="N4" t="n">
-        <v>16692.14633457869</v>
+        <v>16692.1463345787</v>
       </c>
       <c r="O4" t="n">
-        <v>16692.14633457869</v>
+        <v>16692.1463345787</v>
       </c>
       <c r="P4" t="n">
         <v>16692.1463345787</v>
@@ -26478,10 +26478,10 @@
         <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
+        <v>23935.86728620192</v>
+      </c>
+      <c r="F5" t="n">
         <v>23935.8672862019</v>
-      </c>
-      <c r="F5" t="n">
-        <v>23935.86728620191</v>
       </c>
       <c r="G5" t="n">
         <v>23935.8672862019</v>
@@ -26490,16 +26490,16 @@
         <v>23935.8672862019</v>
       </c>
       <c r="I5" t="n">
-        <v>23935.8672862019</v>
+        <v>23935.86728620191</v>
       </c>
       <c r="J5" t="n">
-        <v>23935.8672862019</v>
+        <v>23935.86728620191</v>
       </c>
       <c r="K5" t="n">
         <v>23935.8672862019</v>
       </c>
       <c r="L5" t="n">
-        <v>23935.86728620192</v>
+        <v>23935.86728620191</v>
       </c>
       <c r="M5" t="n">
         <v>23935.8672862019</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133651.4667952922</v>
+        <v>133691.1889961053</v>
       </c>
       <c r="C6" t="n">
-        <v>133651.4667952922</v>
+        <v>133691.1889961053</v>
       </c>
       <c r="D6" t="n">
-        <v>9356.573444777254</v>
+        <v>9394.605229315641</v>
       </c>
       <c r="E6" t="n">
-        <v>-84016.38287991473</v>
+        <v>-73764.91978364153</v>
       </c>
       <c r="F6" t="n">
-        <v>231182.8923787663</v>
+        <v>241434.3554750395</v>
       </c>
       <c r="G6" t="n">
-        <v>231182.8923787661</v>
+        <v>241434.3554750394</v>
       </c>
       <c r="H6" t="n">
-        <v>231182.8923787663</v>
+        <v>241434.3554750397</v>
       </c>
       <c r="I6" t="n">
-        <v>231182.8923787663</v>
+        <v>241434.3554750395</v>
       </c>
       <c r="J6" t="n">
-        <v>231182.8923787664</v>
+        <v>241434.3554750396</v>
       </c>
       <c r="K6" t="n">
-        <v>231182.8923787663</v>
+        <v>241434.3554750395</v>
       </c>
       <c r="L6" t="n">
-        <v>231182.8923787663</v>
+        <v>241434.3554750395</v>
       </c>
       <c r="M6" t="n">
-        <v>182641.4909494051</v>
+        <v>192892.9540456782</v>
       </c>
       <c r="N6" t="n">
-        <v>231182.8923787662</v>
+        <v>241434.3554750395</v>
       </c>
       <c r="O6" t="n">
-        <v>231182.8923787663</v>
+        <v>241434.3554750395</v>
       </c>
       <c r="P6" t="n">
-        <v>231182.8923787662</v>
+        <v>241434.3554750396</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="F4" t="n">
         <v>194.7858037164783</v>
       </c>
       <c r="G4" t="n">
+        <v>194.7858037164782</v>
+      </c>
+      <c r="H4" t="n">
         <v>194.7858037164783</v>
-      </c>
-      <c r="H4" t="n">
-        <v>194.7858037164782</v>
       </c>
       <c r="I4" t="n">
         <v>194.7858037164783</v>
@@ -26816,7 +26816,7 @@
         <v>194.7858037164783</v>
       </c>
       <c r="K4" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="L4" t="n">
         <v>194.7858037164784</v>
@@ -26825,10 +26825,10 @@
         <v>194.7858037164783</v>
       </c>
       <c r="N4" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="O4" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="P4" t="n">
         <v>194.7858037164783</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164785</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34140,10 +34140,10 @@
         <v>351.9153206384267</v>
       </c>
       <c r="M41" t="n">
-        <v>391.5736010332344</v>
+        <v>391.573601033234</v>
       </c>
       <c r="N41" t="n">
-        <v>397.9096712755477</v>
+        <v>397.9096712755481</v>
       </c>
       <c r="O41" t="n">
         <v>375.7348191956511</v>
@@ -34386,7 +34386,7 @@
         <v>375.7348191956511</v>
       </c>
       <c r="P44" t="n">
-        <v>320.6809752512178</v>
+        <v>320.6809752512174</v>
       </c>
       <c r="Q44" t="n">
         <v>240.8180573267614</v>
@@ -35506,10 +35506,10 @@
         <v>141.2894343796688</v>
       </c>
       <c r="P12" t="n">
-        <v>93.8688776455669</v>
+        <v>103.1429585618308</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.59950900726531</v>
+        <v>12.32542809100192</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>93.94884143525979</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>176.309479262877</v>
       </c>
       <c r="M13" t="n">
-        <v>21.9919246206009</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="N13" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="O13" t="n">
         <v>165.9750062821341</v>
       </c>
       <c r="P13" t="n">
-        <v>118.2620260650689</v>
+        <v>39.41698840445173</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>54.82947438983396</v>
       </c>
       <c r="L15" t="n">
-        <v>120.5154403058029</v>
+        <v>129.7895212220662</v>
       </c>
       <c r="M15" t="n">
         <v>160.1882265839823</v>
@@ -35746,7 +35746,7 @@
         <v>93.8688776455669</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.59950900726542</v>
+        <v>12.32542809100192</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>39.41698840445146</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>176.309479262877</v>
+        <v>97.4644416022594</v>
       </c>
       <c r="M16" t="n">
         <v>194.7858037164783</v>
@@ -35822,7 +35822,7 @@
         <v>165.9750062821341</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>118.2620260650689</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>9.274080916263165</v>
       </c>
       <c r="K18" t="n">
-        <v>64.10355530609735</v>
+        <v>54.82947438983396</v>
       </c>
       <c r="L18" t="n">
         <v>120.5154403058029</v>
@@ -36050,13 +36050,13 @@
         <v>13.83477772132255</v>
       </c>
       <c r="M19" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="N19" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="O19" t="n">
-        <v>155.6558287278112</v>
+        <v>155.6558287278111</v>
       </c>
       <c r="P19" t="n">
         <v>118.2620260650689</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>9.27408091626339</v>
       </c>
       <c r="K21" t="n">
         <v>54.82947438983396</v>
@@ -36220,7 +36220,7 @@
         <v>93.8688776455669</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.59950900726508</v>
+        <v>12.32542809100192</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36287,10 +36287,10 @@
         <v>176.309479262877</v>
       </c>
       <c r="M22" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="N22" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="O22" t="n">
         <v>111.4431532513257</v>
@@ -36378,7 +36378,7 @@
         <v>89.44797949594823</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.51236745231188</v>
+        <v>18.5123674523118</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>9.27408091626339</v>
+        <v>9.274080916263502</v>
       </c>
       <c r="K24" t="n">
         <v>54.82947438983396</v>
@@ -36518,19 +36518,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>83.62966388093687</v>
+        <v>93.94884143525979</v>
       </c>
       <c r="L25" t="n">
-        <v>13.83477772132255</v>
+        <v>176.309479262877</v>
       </c>
       <c r="M25" t="n">
-        <v>194.7858037164783</v>
+        <v>185.0335909864835</v>
       </c>
       <c r="N25" t="n">
         <v>194.7858037164783</v>
       </c>
       <c r="O25" t="n">
-        <v>165.9750062821341</v>
+        <v>2.93333991625164</v>
       </c>
       <c r="P25" t="n">
         <v>118.2620260650689</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>8.225029649671795</v>
+        <v>8.225029649672052</v>
       </c>
       <c r="K26" t="n">
         <v>63.57821585716454</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>9.27408091626339</v>
+        <v>9.274080916263502</v>
       </c>
       <c r="K27" t="n">
         <v>54.82947438983396</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>93.94884143525979</v>
       </c>
       <c r="L28" t="n">
         <v>176.309479262877</v>
       </c>
       <c r="M28" t="n">
-        <v>194.7858037164783</v>
+        <v>21.99192462060102</v>
       </c>
       <c r="N28" t="n">
         <v>194.7858037164783</v>
@@ -36770,7 +36770,7 @@
         <v>165.9750062821341</v>
       </c>
       <c r="P28" t="n">
-        <v>39.41698840445139</v>
+        <v>118.2620260650689</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>89.44797949594823</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.51236745231168</v>
+        <v>18.51236745231188</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>9.27408091626339</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>54.82947438983396</v>
+        <v>64.10355530609712</v>
       </c>
       <c r="L30" t="n">
         <v>120.5154403058029</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>93.94884143525979</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>121.7776262320685</v>
+        <v>97.46444160225938</v>
       </c>
       <c r="M31" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="N31" t="n">
-        <v>194.7858037164783</v>
+        <v>194.7858037164782</v>
       </c>
       <c r="O31" t="n">
         <v>165.9750062821341</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>118.2620260650689</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>9.274080916263726</v>
       </c>
       <c r="K33" t="n">
         <v>54.82947438983396</v>
@@ -37156,7 +37156,7 @@
         <v>120.5154403058029</v>
       </c>
       <c r="M33" t="n">
-        <v>169.4623075002463</v>
+        <v>160.1882265839823</v>
       </c>
       <c r="N33" t="n">
         <v>178.9821190702989</v>
@@ -37229,16 +37229,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>93.94884143525979</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>176.309479262877</v>
+        <v>97.46444160225963</v>
       </c>
       <c r="M34" t="n">
-        <v>191.3879047440332</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="N34" t="n">
-        <v>25.38982359304663</v>
+        <v>194.7858037164784</v>
       </c>
       <c r="O34" t="n">
         <v>165.9750062821341</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>9.27408091626339</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>54.82947438983396</v>
       </c>
       <c r="L36" t="n">
-        <v>120.5154403058029</v>
+        <v>129.7895212220662</v>
       </c>
       <c r="M36" t="n">
         <v>160.1882265839823</v>
@@ -37475,13 +37475,13 @@
         <v>194.7858037164783</v>
       </c>
       <c r="N37" t="n">
-        <v>115.9407660558608</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="O37" t="n">
         <v>165.9750062821341</v>
       </c>
       <c r="P37" t="n">
-        <v>118.2620260650689</v>
+        <v>39.41698840445127</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>89.44797949594823</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.51236745231188</v>
+        <v>18.51236745231157</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>9.274080916263165</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>54.82947438983396</v>
@@ -37642,7 +37642,7 @@
         <v>93.8688776455669</v>
       </c>
       <c r="Q39" t="n">
-        <v>12.32542809100192</v>
+        <v>21.5995090072652</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>93.94884143525979</v>
       </c>
       <c r="L40" t="n">
-        <v>176.309479262877</v>
+        <v>13.83477772132255</v>
       </c>
       <c r="M40" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="N40" t="n">
-        <v>194.7858037164782</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="O40" t="n">
         <v>165.9750062821341</v>
       </c>
       <c r="P40" t="n">
-        <v>39.41698840445127</v>
+        <v>107.942848510746</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>116.1489056684395</v>
       </c>
       <c r="M41" t="n">
-        <v>161.2273678059616</v>
+        <v>161.2273678059613</v>
       </c>
       <c r="N41" t="n">
-        <v>168.4966076789568</v>
+        <v>168.4966076789572</v>
       </c>
       <c r="O41" t="n">
         <v>145.6366077739644</v>
@@ -37867,7 +37867,7 @@
         <v>120.5154403058029</v>
       </c>
       <c r="M42" t="n">
-        <v>169.4623075002455</v>
+        <v>160.1882265839823</v>
       </c>
       <c r="N42" t="n">
         <v>178.9821190702989</v>
@@ -37876,7 +37876,7 @@
         <v>141.2894343796688</v>
       </c>
       <c r="P42" t="n">
-        <v>93.8688776455669</v>
+        <v>103.1429585618301</v>
       </c>
       <c r="Q42" t="n">
         <v>12.32542809100192</v>
@@ -37946,16 +37946,16 @@
         <v>176.309479262877</v>
       </c>
       <c r="M43" t="n">
-        <v>191.3879047440324</v>
+        <v>194.7858037164783</v>
       </c>
       <c r="N43" t="n">
-        <v>25.38982359304663</v>
+        <v>140.2539506856698</v>
       </c>
       <c r="O43" t="n">
         <v>165.9750062821341</v>
       </c>
       <c r="P43" t="n">
-        <v>118.2620260650689</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>145.6366077739644</v>
       </c>
       <c r="P44" t="n">
-        <v>89.44797949594823</v>
+        <v>89.44797949594785</v>
       </c>
       <c r="Q44" t="n">
         <v>18.51236745231188</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>9.274080916263276</v>
       </c>
       <c r="K45" t="n">
         <v>54.82947438983396</v>
@@ -38104,7 +38104,7 @@
         <v>120.5154403058029</v>
       </c>
       <c r="M45" t="n">
-        <v>169.4623075002456</v>
+        <v>160.1882265839823</v>
       </c>
       <c r="N45" t="n">
         <v>178.9821190702989</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>39.41698840445135</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>176.309479262877</v>
@@ -38192,7 +38192,7 @@
         <v>165.9750062821341</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>39.41698840445127</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
